--- a/스케쥴.xlsx
+++ b/스케쥴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
   <si>
     <t>기획서 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +389,101 @@
   </si>
   <si>
     <t>옵션지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 2일</t>
+  </si>
+  <si>
+    <t>11월 3일</t>
+  </si>
+  <si>
+    <t>11월 4일</t>
+  </si>
+  <si>
+    <t>11월 5일</t>
+  </si>
+  <si>
+    <t>11월 6일</t>
+  </si>
+  <si>
+    <t>11월 7일</t>
+  </si>
+  <si>
+    <t>11월 8일</t>
+  </si>
+  <si>
+    <t>11월 9일</t>
+  </si>
+  <si>
+    <t>11월 10일</t>
+  </si>
+  <si>
+    <t>11월 11일</t>
+  </si>
+  <si>
+    <t>11월 12일</t>
+  </si>
+  <si>
+    <t>11월 13일</t>
+  </si>
+  <si>
+    <t>11월 14일</t>
+  </si>
+  <si>
+    <t>11월 15일</t>
+  </si>
+  <si>
+    <t>11월 16일</t>
+  </si>
+  <si>
+    <t>11월 17일</t>
+  </si>
+  <si>
+    <t>11월 18일</t>
+  </si>
+  <si>
+    <t>11월 19일</t>
+  </si>
+  <si>
+    <t>11월 20일</t>
+  </si>
+  <si>
+    <t>11월 21일</t>
+  </si>
+  <si>
+    <t>11월 22일</t>
+  </si>
+  <si>
+    <t>11월 23일</t>
+  </si>
+  <si>
+    <t>11월 24일</t>
+  </si>
+  <si>
+    <t>11월 25일</t>
+  </si>
+  <si>
+    <t>11월 26일</t>
+  </si>
+  <si>
+    <t>11월 27일</t>
+  </si>
+  <si>
+    <t>11월 28일</t>
+  </si>
+  <si>
+    <t>11월 29일</t>
+  </si>
+  <si>
+    <t>11월 30일</t>
+  </si>
+  <si>
+    <t>최종점검.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,14 +573,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,23 +886,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD154"/>
+  <dimension ref="A1:DI154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="BN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BP59" sqref="BP59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="CV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CZ71" sqref="CZ71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
@@ -1036,13 +1134,104 @@
       <c r="CD1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="CE1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CP1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="CS1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CT1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CW1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="CX1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CZ1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="DA1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="DF1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="DH1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="DI1" s="4"/>
+    </row>
+    <row r="2" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1061,46 +1250,46 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1108,21 +1297,21 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1130,21 +1319,21 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1162,200 +1351,200 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-    </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+    </row>
+    <row r="14" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+    <row r="16" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="AJ23" s="3"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
-      <c r="AS23" s="7"/>
-      <c r="AT23" s="7"/>
-      <c r="AU23" s="7"/>
-      <c r="AV23" s="7"/>
-      <c r="AW23" s="7"/>
-      <c r="AX23" s="7"/>
-      <c r="AY23" s="7"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="AK25" s="2"/>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" s="2"/>
@@ -1363,20 +1552,20 @@
       <c r="AP27" s="2"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
@@ -1385,971 +1574,1114 @@
       <c r="AV29" s="2"/>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
       <c r="AX31" s="2"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
       <c r="AY33" s="2"/>
     </row>
     <row r="34" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="AZ35" s="7"/>
-      <c r="BA35" s="7"/>
-      <c r="BB35" s="7"/>
-      <c r="BC35" s="7"/>
-      <c r="BD35" s="7"/>
-      <c r="BE35" s="7"/>
-      <c r="BF35" s="7"/>
-      <c r="BG35" s="7"/>
-      <c r="BH35" s="7"/>
-      <c r="BI35" s="7"/>
-      <c r="BJ35" s="7"/>
-      <c r="BK35" s="7"/>
-      <c r="BL35" s="7"/>
-      <c r="BM35" s="7"/>
-      <c r="BN35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="AZ35" s="5"/>
+      <c r="BA35" s="5"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="5"/>
+      <c r="BE35" s="5"/>
+      <c r="BF35" s="5"/>
+      <c r="BG35" s="5"/>
+      <c r="BH35" s="5"/>
+      <c r="BI35" s="5"/>
+      <c r="BJ35" s="5"/>
+      <c r="BK35" s="5"/>
+      <c r="BL35" s="5"/>
+      <c r="BM35" s="5"/>
+      <c r="BN35" s="5"/>
     </row>
     <row r="36" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
       <c r="AZ37" s="2"/>
       <c r="BA37" s="2"/>
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
       <c r="BB39" s="2"/>
       <c r="BC39" s="2"/>
     </row>
     <row r="40" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
       <c r="BD41" s="2"/>
       <c r="BE41" s="2"/>
       <c r="BF41" s="2"/>
       <c r="BG41" s="2"/>
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
       <c r="BH43" s="2"/>
       <c r="BI43" s="2"/>
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
       <c r="BJ45" s="2"/>
       <c r="BK45" s="2"/>
       <c r="BL45" s="2"/>
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
       <c r="BM47" s="2"/>
       <c r="BN47" s="2"/>
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="BO49" s="7"/>
-      <c r="BP49" s="7"/>
-      <c r="BQ49" s="7"/>
-      <c r="BR49" s="7"/>
-      <c r="BS49" s="7"/>
-      <c r="BT49" s="7"/>
-      <c r="BU49" s="7"/>
-      <c r="BV49" s="7"/>
-      <c r="BW49" s="7"/>
-      <c r="BX49" s="7"/>
-      <c r="BY49" s="7"/>
-      <c r="BZ49" s="7"/>
-      <c r="CA49" s="7"/>
-    </row>
-    <row r="50" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="BO49" s="5"/>
+      <c r="BP49" s="5"/>
+      <c r="BQ49" s="5"/>
+      <c r="BR49" s="5"/>
+      <c r="BS49" s="5"/>
+      <c r="BT49" s="5"/>
+      <c r="BU49" s="5"/>
+      <c r="BV49" s="5"/>
+      <c r="BW49" s="5"/>
+      <c r="BX49" s="5"/>
+      <c r="BY49" s="5"/>
+      <c r="BZ49" s="5"/>
+      <c r="CA49" s="5"/>
+      <c r="CB49" s="5"/>
+      <c r="CC49" s="5"/>
+      <c r="CD49" s="5"/>
+      <c r="CE49" s="5"/>
+      <c r="CF49" s="5"/>
+      <c r="CG49" s="5"/>
+      <c r="CH49" s="5"/>
+      <c r="CI49" s="5"/>
+      <c r="CJ49" s="5"/>
+      <c r="CK49" s="5"/>
+      <c r="CL49" s="5"/>
+      <c r="CM49" s="5"/>
+      <c r="CN49" s="5"/>
+      <c r="CO49" s="5"/>
+      <c r="CP49" s="5"/>
+      <c r="CQ49" s="5"/>
+      <c r="CR49" s="5"/>
+      <c r="CS49" s="5"/>
+      <c r="CT49" s="5"/>
+      <c r="CU49" s="5"/>
+      <c r="CV49" s="5"/>
+      <c r="CW49" s="5"/>
+      <c r="CX49" s="5"/>
+      <c r="CY49" s="5"/>
+      <c r="CZ49" s="5"/>
+      <c r="DA49" s="5"/>
+      <c r="DB49" s="5"/>
+      <c r="DC49" s="5"/>
+      <c r="DD49" s="5"/>
+      <c r="DE49" s="5"/>
+      <c r="DF49" s="5"/>
+      <c r="DG49" s="5"/>
+      <c r="DH49" s="5"/>
+    </row>
+    <row r="50" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="BO51" s="2"/>
+      <c r="BP51" s="2"/>
+      <c r="BQ51" s="2"/>
+      <c r="BR51" s="2"/>
+      <c r="BS51" s="2"/>
+      <c r="BT51" s="2"/>
+    </row>
+    <row r="52" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="BU53" s="2"/>
+    </row>
+    <row r="54" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="BV55" s="2"/>
+      <c r="BW55" s="2"/>
+    </row>
+    <row r="56" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="BX57" s="2"/>
+      <c r="BY57" s="2"/>
+      <c r="BZ57" s="2"/>
+      <c r="CA57" s="2"/>
+      <c r="CB57" s="2"/>
+      <c r="CC57" s="2"/>
+      <c r="CD57" s="2"/>
+    </row>
+    <row r="58" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="CE59" s="2"/>
+      <c r="CF59" s="2"/>
+      <c r="CG59" s="2"/>
+      <c r="CH59" s="2"/>
+      <c r="CI59" s="2"/>
+      <c r="CJ59" s="2"/>
+    </row>
+    <row r="60" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="CK61" s="2"/>
+      <c r="CL61" s="2"/>
+      <c r="CM61" s="2"/>
+      <c r="CN61" s="2"/>
+    </row>
+    <row r="62" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="CO63" s="2"/>
+      <c r="CP63" s="2"/>
+      <c r="CQ63" s="2"/>
+      <c r="CR63" s="2"/>
+      <c r="CS63" s="2"/>
+    </row>
+    <row r="64" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="CT65" s="2"/>
+      <c r="CU65" s="2"/>
+      <c r="CV65" s="2"/>
+      <c r="CW65" s="2"/>
+    </row>
+    <row r="66" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="CX67" s="2"/>
+      <c r="CY67" s="2"/>
+      <c r="CZ67" s="2"/>
+    </row>
+    <row r="68" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="DA69" s="2"/>
+      <c r="DB69" s="2"/>
+      <c r="DC69" s="2"/>
+      <c r="DD69" s="2"/>
+    </row>
+    <row r="70" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="DE71" s="2"/>
+    </row>
+    <row r="72" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="DF73" s="2"/>
+      <c r="DG73" s="2"/>
+      <c r="DH73" s="2"/>
+    </row>
+    <row r="74" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="A153:E154"/>
+    <mergeCell ref="A131:E132"/>
+    <mergeCell ref="A133:E134"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A137:E138"/>
+    <mergeCell ref="A139:E140"/>
+    <mergeCell ref="A141:E142"/>
+    <mergeCell ref="A143:E144"/>
+    <mergeCell ref="A145:E146"/>
+    <mergeCell ref="A147:E148"/>
+    <mergeCell ref="A149:E150"/>
+    <mergeCell ref="A151:E152"/>
+    <mergeCell ref="A129:E130"/>
+    <mergeCell ref="A107:E108"/>
+    <mergeCell ref="A109:E110"/>
+    <mergeCell ref="A111:E112"/>
+    <mergeCell ref="A113:E114"/>
+    <mergeCell ref="A115:E116"/>
+    <mergeCell ref="A117:E118"/>
+    <mergeCell ref="A119:E120"/>
+    <mergeCell ref="A121:E122"/>
+    <mergeCell ref="A123:E124"/>
+    <mergeCell ref="A125:E126"/>
+    <mergeCell ref="A127:E128"/>
+    <mergeCell ref="A105:E106"/>
+    <mergeCell ref="A83:E84"/>
+    <mergeCell ref="A85:E86"/>
+    <mergeCell ref="A87:E88"/>
+    <mergeCell ref="A89:E90"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A93:E94"/>
+    <mergeCell ref="A95:E96"/>
+    <mergeCell ref="A97:E98"/>
+    <mergeCell ref="A99:E100"/>
+    <mergeCell ref="A101:E102"/>
+    <mergeCell ref="A103:E104"/>
+    <mergeCell ref="A81:E82"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="A63:E64"/>
+    <mergeCell ref="A65:E66"/>
+    <mergeCell ref="A67:E68"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A71:E72"/>
+    <mergeCell ref="A73:E74"/>
+    <mergeCell ref="A75:E76"/>
+    <mergeCell ref="A77:E78"/>
+    <mergeCell ref="A79:E80"/>
+    <mergeCell ref="A57:E58"/>
+    <mergeCell ref="A55:E56"/>
+    <mergeCell ref="A31:E32"/>
+    <mergeCell ref="A33:E34"/>
+    <mergeCell ref="A35:E36"/>
+    <mergeCell ref="A37:E38"/>
+    <mergeCell ref="A39:E40"/>
+    <mergeCell ref="A43:E44"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A45:E46"/>
+    <mergeCell ref="A47:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E52"/>
+    <mergeCell ref="A53:E54"/>
     <mergeCell ref="A29:E30"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A9:E10"/>
@@ -2365,68 +2697,6 @@
     <mergeCell ref="A23:E24"/>
     <mergeCell ref="A25:E26"/>
     <mergeCell ref="A27:E28"/>
-    <mergeCell ref="A57:E58"/>
-    <mergeCell ref="A55:E56"/>
-    <mergeCell ref="A31:E32"/>
-    <mergeCell ref="A33:E34"/>
-    <mergeCell ref="A35:E36"/>
-    <mergeCell ref="A37:E38"/>
-    <mergeCell ref="A39:E40"/>
-    <mergeCell ref="A43:E44"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A45:E46"/>
-    <mergeCell ref="A47:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E52"/>
-    <mergeCell ref="A53:E54"/>
-    <mergeCell ref="A81:E82"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="A63:E64"/>
-    <mergeCell ref="A65:E66"/>
-    <mergeCell ref="A67:E68"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A71:E72"/>
-    <mergeCell ref="A73:E74"/>
-    <mergeCell ref="A75:E76"/>
-    <mergeCell ref="A77:E78"/>
-    <mergeCell ref="A79:E80"/>
-    <mergeCell ref="A105:E106"/>
-    <mergeCell ref="A83:E84"/>
-    <mergeCell ref="A85:E86"/>
-    <mergeCell ref="A87:E88"/>
-    <mergeCell ref="A89:E90"/>
-    <mergeCell ref="A91:E92"/>
-    <mergeCell ref="A93:E94"/>
-    <mergeCell ref="A95:E96"/>
-    <mergeCell ref="A97:E98"/>
-    <mergeCell ref="A99:E100"/>
-    <mergeCell ref="A101:E102"/>
-    <mergeCell ref="A103:E104"/>
-    <mergeCell ref="A129:E130"/>
-    <mergeCell ref="A107:E108"/>
-    <mergeCell ref="A109:E110"/>
-    <mergeCell ref="A111:E112"/>
-    <mergeCell ref="A113:E114"/>
-    <mergeCell ref="A115:E116"/>
-    <mergeCell ref="A117:E118"/>
-    <mergeCell ref="A119:E120"/>
-    <mergeCell ref="A121:E122"/>
-    <mergeCell ref="A123:E124"/>
-    <mergeCell ref="A125:E126"/>
-    <mergeCell ref="A127:E128"/>
-    <mergeCell ref="A153:E154"/>
-    <mergeCell ref="A131:E132"/>
-    <mergeCell ref="A133:E134"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A137:E138"/>
-    <mergeCell ref="A139:E140"/>
-    <mergeCell ref="A141:E142"/>
-    <mergeCell ref="A143:E144"/>
-    <mergeCell ref="A145:E146"/>
-    <mergeCell ref="A147:E148"/>
-    <mergeCell ref="A149:E150"/>
-    <mergeCell ref="A151:E152"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/스케쥴.xlsx
+++ b/스케쥴.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="183">
   <si>
     <t>기획서 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,10 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Camera (1달)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Effact(1주)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,6 +599,26 @@
   </si>
   <si>
     <t>Player 구현(3주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera (3주)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,7 +775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,22 +809,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -817,16 +845,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1135,26 +1154,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EN174"/>
+  <dimension ref="A1:EN180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:E14"/>
+      <selection pane="bottomRight" activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
@@ -1571,12 +1590,12 @@
       </c>
     </row>
     <row r="2" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1596,13 +1615,13 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="6" t="s">
         <v>111</v>
       </c>
@@ -1624,11 +1643,11 @@
       <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1647,13 +1666,13 @@
       <c r="V4" s="3"/>
     </row>
     <row r="5" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="6" t="s">
         <v>111</v>
       </c>
@@ -1665,20 +1684,20 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="6" t="s">
         <v>111</v>
       </c>
@@ -1690,20 +1709,20 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="6" t="s">
         <v>111</v>
       </c>
@@ -1725,56 +1744,56 @@
       <c r="V9" s="2"/>
     </row>
     <row r="10" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:144" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="14" t="s">
+    <row r="11" spans="1:144" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:144" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+    <row r="12" spans="1:144" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22" t="s">
+      <c r="A13" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="8" t="s">
         <v>111</v>
       </c>
@@ -1918,11 +1937,11 @@
       <c r="EN15" s="3"/>
     </row>
     <row r="16" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -2063,13 +2082,13 @@
       <c r="EN16" s="3"/>
     </row>
     <row r="17" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="9" t="s">
         <v>111</v>
       </c>
@@ -2213,11 +2232,11 @@
       <c r="EN17" s="3"/>
     </row>
     <row r="18" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -2358,13 +2377,13 @@
       <c r="EN18" s="3"/>
     </row>
     <row r="19" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="9" t="s">
         <v>111</v>
       </c>
@@ -2508,11 +2527,11 @@
       <c r="EN19" s="3"/>
     </row>
     <row r="20" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -2653,13 +2672,13 @@
       <c r="EN20" s="3"/>
     </row>
     <row r="21" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="6" t="s">
         <v>111</v>
       </c>
@@ -2803,11 +2822,11 @@
       <c r="EN21" s="3"/>
     </row>
     <row r="22" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -2948,13 +2967,13 @@
       <c r="EN22" s="3"/>
     </row>
     <row r="23" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="6" t="s">
         <v>111</v>
       </c>
@@ -3098,11 +3117,11 @@
       <c r="EN23" s="3"/>
     </row>
     <row r="24" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -3243,13 +3262,13 @@
       <c r="EN24" s="3"/>
     </row>
     <row r="25" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="9" t="s">
         <v>111</v>
       </c>
@@ -3393,11 +3412,11 @@
       <c r="EN25" s="3"/>
     </row>
     <row r="26" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -3538,13 +3557,13 @@
       <c r="EN26" s="3"/>
     </row>
     <row r="27" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="9" t="s">
         <v>111</v>
       </c>
@@ -3688,11 +3707,11 @@
       <c r="EN27" s="3"/>
     </row>
     <row r="28" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -3833,13 +3852,13 @@
       <c r="EN28" s="3"/>
     </row>
     <row r="29" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="6" t="s">
         <v>111</v>
       </c>
@@ -3983,11 +4002,11 @@
       <c r="EN29" s="3"/>
     </row>
     <row r="30" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -4128,32 +4147,32 @@
       <c r="EN30" s="3"/>
     </row>
     <row r="31" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="6" t="s">
         <v>111</v>
       </c>
@@ -4297,11 +4316,11 @@
       <c r="EN33" s="3"/>
     </row>
     <row r="34" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -4442,13 +4461,13 @@
       <c r="EN34" s="3"/>
     </row>
     <row r="35" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="6" t="s">
         <v>111</v>
       </c>
@@ -4592,11 +4611,11 @@
       <c r="EN35" s="3"/>
     </row>
     <row r="36" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4737,13 +4756,13 @@
       <c r="EN36" s="3"/>
     </row>
     <row r="37" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="6" t="s">
         <v>111</v>
       </c>
@@ -4887,11 +4906,11 @@
       <c r="EN37" s="3"/>
     </row>
     <row r="38" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -5032,13 +5051,13 @@
       <c r="EN38" s="3"/>
     </row>
     <row r="39" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="6" t="s">
         <v>111</v>
       </c>
@@ -5182,11 +5201,11 @@
       <c r="EN39" s="3"/>
     </row>
     <row r="40" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -5327,13 +5346,13 @@
       <c r="EN40" s="3"/>
     </row>
     <row r="41" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="6" t="s">
         <v>111</v>
       </c>
@@ -5477,11 +5496,11 @@
       <c r="EN41" s="3"/>
     </row>
     <row r="42" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -5622,32 +5641,32 @@
       <c r="EN42" s="3"/>
     </row>
     <row r="43" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22" t="s">
+      <c r="A43" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
     </row>
     <row r="45" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
+      <c r="A45" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
       <c r="F45" s="9" t="s">
         <v>111</v>
       </c>
@@ -5791,11 +5810,11 @@
       <c r="EN45" s="3"/>
     </row>
     <row r="46" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -5936,13 +5955,13 @@
       <c r="EN46" s="3"/>
     </row>
     <row r="47" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
       <c r="F47" s="8" t="s">
         <v>111</v>
       </c>
@@ -6086,11 +6105,11 @@
       <c r="EN47" s="3"/>
     </row>
     <row r="48" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -6231,13 +6250,13 @@
       <c r="EN48" s="3"/>
     </row>
     <row r="49" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="6" t="s">
         <v>111</v>
       </c>
@@ -6381,11 +6400,11 @@
       <c r="EN49" s="3"/>
     </row>
     <row r="50" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -6526,13 +6545,13 @@
       <c r="EN50" s="3"/>
     </row>
     <row r="51" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="8" t="s">
         <v>111</v>
       </c>
@@ -6676,11 +6695,11 @@
       <c r="EN51" s="3"/>
     </row>
     <row r="52" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -6821,32 +6840,32 @@
       <c r="EN52" s="3"/>
     </row>
     <row r="53" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="22" t="s">
+      <c r="A53" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
     </row>
     <row r="55" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
+      <c r="A55" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
       <c r="F55" s="6" t="s">
         <v>111</v>
       </c>
@@ -6990,11 +7009,11 @@
       <c r="EN55" s="3"/>
     </row>
     <row r="56" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -7135,13 +7154,13 @@
       <c r="EN56" s="3"/>
     </row>
     <row r="57" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="6" t="s">
         <v>111</v>
       </c>
@@ -7285,11 +7304,11 @@
       <c r="EN57" s="3"/>
     </row>
     <row r="58" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -7430,13 +7449,13 @@
       <c r="EN58" s="3"/>
     </row>
     <row r="59" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="8" t="s">
         <v>111</v>
       </c>
@@ -7580,11 +7599,11 @@
       <c r="EN59" s="3"/>
     </row>
     <row r="60" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -7725,13 +7744,13 @@
       <c r="EN60" s="3"/>
     </row>
     <row r="61" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
+      <c r="A61" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
       <c r="F61" s="9" t="s">
         <v>111</v>
       </c>
@@ -7875,11 +7894,11 @@
       <c r="EN61" s="3"/>
     </row>
     <row r="62" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -8020,32 +8039,32 @@
       <c r="EN62" s="3"/>
     </row>
     <row r="63" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="22" t="s">
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
     </row>
     <row r="65" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
       <c r="F65" s="6" t="s">
         <v>111</v>
       </c>
@@ -8189,11 +8208,11 @@
       <c r="EN65" s="3"/>
     </row>
     <row r="66" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -8334,13 +8353,13 @@
       <c r="EN66" s="3"/>
     </row>
     <row r="67" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
       <c r="F67" s="6" t="s">
         <v>111</v>
       </c>
@@ -8484,11 +8503,11 @@
       <c r="EN67" s="3"/>
     </row>
     <row r="68" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -8629,13 +8648,13 @@
       <c r="EN68" s="3"/>
     </row>
     <row r="69" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
       <c r="F69" s="6" t="s">
         <v>111</v>
       </c>
@@ -8779,11 +8798,11 @@
       <c r="EN69" s="3"/>
     </row>
     <row r="70" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -8924,13 +8943,13 @@
       <c r="EN70" s="3"/>
     </row>
     <row r="71" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
       <c r="F71" s="6" t="s">
         <v>111</v>
       </c>
@@ -9074,11 +9093,11 @@
       <c r="EN71" s="3"/>
     </row>
     <row r="72" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -9219,13 +9238,13 @@
       <c r="EN72" s="3"/>
     </row>
     <row r="73" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
       <c r="F73" s="6" t="s">
         <v>111</v>
       </c>
@@ -9369,11 +9388,11 @@
       <c r="EN73" s="3"/>
     </row>
     <row r="74" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -9514,13 +9533,13 @@
       <c r="EN74" s="3"/>
     </row>
     <row r="75" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
       <c r="F75" s="6" t="s">
         <v>111</v>
       </c>
@@ -9664,11 +9683,11 @@
       <c r="EN75" s="3"/>
     </row>
     <row r="76" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -9809,69 +9828,347 @@
       <c r="EN76" s="3"/>
     </row>
     <row r="77" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="22" t="s">
+      <c r="A77" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
     </row>
     <row r="79" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="22" t="s">
+      <c r="A79" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
     </row>
-    <row r="81" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="22" t="s">
+    <row r="81" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A81" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="10" t="s">
         <v>111</v>
       </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+      <c r="AG81" s="3"/>
+      <c r="AH81" s="3"/>
+      <c r="AI81" s="3"/>
+      <c r="AJ81" s="3"/>
+      <c r="AK81" s="3"/>
+      <c r="AL81" s="3"/>
+      <c r="AM81" s="3"/>
+      <c r="AN81" s="3"/>
+      <c r="AO81" s="3"/>
+      <c r="AP81" s="3"/>
+      <c r="AQ81" s="3"/>
+      <c r="AR81" s="3"/>
+      <c r="AS81" s="3"/>
+      <c r="AT81" s="3"/>
+      <c r="AU81" s="3"/>
+      <c r="AV81" s="3"/>
+      <c r="AW81" s="3"/>
+      <c r="AX81" s="3"/>
+      <c r="AY81" s="3"/>
+      <c r="AZ81" s="3"/>
+      <c r="BA81" s="3"/>
+      <c r="BB81" s="3"/>
+      <c r="BC81" s="3"/>
+      <c r="BD81" s="3"/>
+      <c r="BE81" s="3"/>
+      <c r="BF81" s="3"/>
+      <c r="BG81" s="3"/>
+      <c r="BH81" s="3"/>
+      <c r="BI81" s="3"/>
+      <c r="BJ81" s="3"/>
+      <c r="BK81" s="3"/>
+      <c r="BL81" s="3"/>
+      <c r="BM81" s="3"/>
+      <c r="BN81" s="3"/>
+      <c r="BO81" s="3"/>
+      <c r="BP81" s="3"/>
+      <c r="BQ81" s="3"/>
+      <c r="BR81" s="3"/>
+      <c r="BS81" s="3"/>
+      <c r="BT81" s="3"/>
+      <c r="BU81" s="3"/>
+      <c r="BV81" s="3"/>
+      <c r="BW81" s="3"/>
+      <c r="BX81" s="3"/>
+      <c r="BY81" s="3"/>
+      <c r="BZ81" s="3"/>
+      <c r="CA81" s="3"/>
+      <c r="CB81" s="3"/>
+      <c r="CC81" s="3"/>
+      <c r="CD81" s="3"/>
+      <c r="CE81" s="3"/>
+      <c r="CF81" s="3"/>
+      <c r="CG81" s="3"/>
+      <c r="CH81" s="3"/>
+      <c r="CI81" s="3"/>
+      <c r="CJ81" s="3"/>
+      <c r="CK81" s="3"/>
+      <c r="CL81" s="3"/>
+      <c r="CM81" s="3"/>
+      <c r="CN81" s="3"/>
+      <c r="CO81" s="3"/>
+      <c r="CP81" s="3"/>
+      <c r="CQ81" s="3"/>
+      <c r="CR81" s="3"/>
+      <c r="CS81" s="3"/>
+      <c r="CT81" s="3"/>
+      <c r="CU81" s="3"/>
+      <c r="CV81" s="3"/>
+      <c r="CW81" s="3"/>
+      <c r="CX81" s="3"/>
+      <c r="CY81" s="3"/>
+      <c r="CZ81" s="3"/>
+      <c r="DA81" s="3"/>
+      <c r="DB81" s="3"/>
+      <c r="DC81" s="3"/>
+      <c r="DD81" s="3"/>
+      <c r="DE81" s="3"/>
+      <c r="DF81" s="3"/>
+      <c r="DG81" s="3"/>
+      <c r="DH81" s="3"/>
+      <c r="DI81" s="3"/>
+      <c r="DJ81" s="3"/>
+      <c r="DK81" s="3"/>
+      <c r="DL81" s="3"/>
+      <c r="DM81" s="3"/>
+      <c r="DN81" s="3"/>
+      <c r="DO81" s="3"/>
+      <c r="DP81" s="3"/>
+      <c r="DQ81" s="3"/>
+      <c r="DR81" s="3"/>
+      <c r="DS81" s="3"/>
+      <c r="DT81" s="3"/>
+      <c r="DU81" s="3"/>
+      <c r="DV81" s="3"/>
+      <c r="DW81" s="3"/>
+      <c r="DX81" s="3"/>
+      <c r="DY81" s="3"/>
+      <c r="DZ81" s="3"/>
+      <c r="EA81" s="3"/>
+      <c r="EB81" s="3"/>
+      <c r="EC81" s="3"/>
+      <c r="ED81" s="3"/>
+      <c r="EE81" s="3"/>
+      <c r="EF81" s="3"/>
+      <c r="EG81" s="3"/>
+      <c r="EH81" s="3"/>
+      <c r="EI81" s="3"/>
+      <c r="EJ81" s="3"/>
+      <c r="EK81" s="3"/>
+      <c r="EL81" s="3"/>
+      <c r="EM81" s="3"/>
+      <c r="EN81" s="3"/>
     </row>
-    <row r="82" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
+    <row r="82" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+      <c r="AH82" s="3"/>
+      <c r="AI82" s="3"/>
+      <c r="AJ82" s="3"/>
+      <c r="AK82" s="3"/>
+      <c r="AL82" s="3"/>
+      <c r="AM82" s="3"/>
+      <c r="AN82" s="3"/>
+      <c r="AO82" s="3"/>
+      <c r="AP82" s="3"/>
+      <c r="AQ82" s="3"/>
+      <c r="AR82" s="3"/>
+      <c r="AS82" s="3"/>
+      <c r="AT82" s="3"/>
+      <c r="AU82" s="3"/>
+      <c r="AV82" s="3"/>
+      <c r="AW82" s="3"/>
+      <c r="AX82" s="3"/>
+      <c r="AY82" s="3"/>
+      <c r="AZ82" s="3"/>
+      <c r="BA82" s="3"/>
+      <c r="BB82" s="3"/>
+      <c r="BC82" s="3"/>
+      <c r="BD82" s="3"/>
+      <c r="BE82" s="3"/>
+      <c r="BF82" s="3"/>
+      <c r="BG82" s="3"/>
+      <c r="BH82" s="3"/>
+      <c r="BI82" s="3"/>
+      <c r="BJ82" s="3"/>
+      <c r="BK82" s="3"/>
+      <c r="BL82" s="3"/>
+      <c r="BM82" s="3"/>
+      <c r="BN82" s="3"/>
+      <c r="BO82" s="3"/>
+      <c r="BP82" s="3"/>
+      <c r="BQ82" s="3"/>
+      <c r="BR82" s="3"/>
+      <c r="BS82" s="3"/>
+      <c r="BT82" s="3"/>
+      <c r="BU82" s="3"/>
+      <c r="BV82" s="3"/>
+      <c r="BW82" s="3"/>
+      <c r="BX82" s="3"/>
+      <c r="BY82" s="3"/>
+      <c r="BZ82" s="3"/>
+      <c r="CA82" s="3"/>
+      <c r="CB82" s="3"/>
+      <c r="CC82" s="3"/>
+      <c r="CD82" s="3"/>
+      <c r="CE82" s="3"/>
+      <c r="CF82" s="3"/>
+      <c r="CG82" s="3"/>
+      <c r="CH82" s="3"/>
+      <c r="CI82" s="3"/>
+      <c r="CJ82" s="3"/>
+      <c r="CK82" s="3"/>
+      <c r="CL82" s="3"/>
+      <c r="CM82" s="3"/>
+      <c r="CN82" s="3"/>
+      <c r="CO82" s="3"/>
+      <c r="CP82" s="3"/>
+      <c r="CQ82" s="3"/>
+      <c r="CR82" s="3"/>
+      <c r="CS82" s="3"/>
+      <c r="CT82" s="3"/>
+      <c r="CU82" s="3"/>
+      <c r="CV82" s="3"/>
+      <c r="CW82" s="3"/>
+      <c r="CX82" s="3"/>
+      <c r="CY82" s="3"/>
+      <c r="CZ82" s="3"/>
+      <c r="DA82" s="3"/>
+      <c r="DB82" s="3"/>
+      <c r="DC82" s="3"/>
+      <c r="DD82" s="3"/>
+      <c r="DE82" s="3"/>
+      <c r="DF82" s="3"/>
+      <c r="DG82" s="3"/>
+      <c r="DH82" s="3"/>
+      <c r="DI82" s="3"/>
+      <c r="DJ82" s="3"/>
+      <c r="DK82" s="3"/>
+      <c r="DL82" s="3"/>
+      <c r="DM82" s="3"/>
+      <c r="DN82" s="3"/>
+      <c r="DO82" s="3"/>
+      <c r="DP82" s="3"/>
+      <c r="DQ82" s="3"/>
+      <c r="DR82" s="3"/>
+      <c r="DS82" s="3"/>
+      <c r="DT82" s="3"/>
+      <c r="DU82" s="3"/>
+      <c r="DV82" s="3"/>
+      <c r="DW82" s="3"/>
+      <c r="DX82" s="3"/>
+      <c r="DY82" s="3"/>
+      <c r="DZ82" s="3"/>
+      <c r="EA82" s="3"/>
+      <c r="EB82" s="3"/>
+      <c r="EC82" s="3"/>
+      <c r="ED82" s="3"/>
+      <c r="EE82" s="3"/>
+      <c r="EF82" s="3"/>
+      <c r="EG82" s="3"/>
+      <c r="EH82" s="3"/>
+      <c r="EI82" s="3"/>
+      <c r="EJ82" s="3"/>
+      <c r="EK82" s="3"/>
+      <c r="EL82" s="3"/>
+      <c r="EM82" s="3"/>
+      <c r="EN82" s="3"/>
     </row>
     <row r="83" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="6" t="s">
+      <c r="A83" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="10" t="s">
         <v>111</v>
       </c>
       <c r="G83" s="3"/>
@@ -10014,11 +10311,11 @@
       <c r="EN83" s="3"/>
     </row>
     <row r="84" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -10159,12 +10456,14 @@
       <c r="EN84" s="3"/>
     </row>
     <row r="85" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="6" t="s">
+      <c r="A85" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="10" t="s">
         <v>111</v>
       </c>
       <c r="G85" s="3"/>
@@ -10307,11 +10606,11 @@
       <c r="EN85" s="3"/>
     </row>
     <row r="86" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -10451,305 +10750,33 @@
       <c r="EM86" s="3"/>
       <c r="EN86" s="3"/>
     </row>
-    <row r="87" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="6" t="s">
+    <row r="87" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
-      <c r="U87" s="3"/>
-      <c r="V87" s="3"/>
-      <c r="W87" s="3"/>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
-      <c r="AA87" s="3"/>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="3"/>
-      <c r="AD87" s="3"/>
-      <c r="AE87" s="3"/>
-      <c r="AF87" s="3"/>
-      <c r="AG87" s="3"/>
-      <c r="AH87" s="3"/>
-      <c r="AI87" s="3"/>
-      <c r="AJ87" s="3"/>
-      <c r="AK87" s="3"/>
-      <c r="AL87" s="3"/>
-      <c r="AM87" s="3"/>
-      <c r="AN87" s="3"/>
-      <c r="AO87" s="3"/>
-      <c r="AP87" s="3"/>
-      <c r="AQ87" s="3"/>
-      <c r="AR87" s="3"/>
-      <c r="AS87" s="3"/>
-      <c r="AT87" s="3"/>
-      <c r="AU87" s="3"/>
-      <c r="AV87" s="3"/>
-      <c r="AW87" s="3"/>
-      <c r="AX87" s="3"/>
-      <c r="AY87" s="3"/>
-      <c r="AZ87" s="3"/>
-      <c r="BA87" s="3"/>
-      <c r="BB87" s="3"/>
-      <c r="BC87" s="3"/>
-      <c r="BD87" s="3"/>
-      <c r="BE87" s="3"/>
-      <c r="BF87" s="3"/>
-      <c r="BG87" s="3"/>
-      <c r="BH87" s="3"/>
-      <c r="BI87" s="3"/>
-      <c r="BJ87" s="3"/>
-      <c r="BK87" s="3"/>
-      <c r="BL87" s="3"/>
-      <c r="BM87" s="3"/>
-      <c r="BN87" s="3"/>
-      <c r="BO87" s="3"/>
-      <c r="BP87" s="3"/>
-      <c r="BQ87" s="3"/>
-      <c r="BR87" s="3"/>
-      <c r="BS87" s="3"/>
-      <c r="BT87" s="3"/>
-      <c r="BU87" s="3"/>
-      <c r="BV87" s="3"/>
-      <c r="BW87" s="3"/>
-      <c r="BX87" s="3"/>
-      <c r="BY87" s="3"/>
-      <c r="BZ87" s="3"/>
-      <c r="CA87" s="3"/>
-      <c r="CB87" s="3"/>
-      <c r="CC87" s="3"/>
-      <c r="CD87" s="3"/>
-      <c r="CE87" s="3"/>
-      <c r="CF87" s="3"/>
-      <c r="CG87" s="3"/>
-      <c r="CH87" s="3"/>
-      <c r="CI87" s="3"/>
-      <c r="CJ87" s="3"/>
-      <c r="CK87" s="3"/>
-      <c r="CL87" s="3"/>
-      <c r="CM87" s="3"/>
-      <c r="CN87" s="3"/>
-      <c r="CO87" s="3"/>
-      <c r="CP87" s="3"/>
-      <c r="CQ87" s="3"/>
-      <c r="CR87" s="3"/>
-      <c r="CS87" s="3"/>
-      <c r="CT87" s="3"/>
-      <c r="CU87" s="3"/>
-      <c r="CV87" s="3"/>
-      <c r="CW87" s="3"/>
-      <c r="CX87" s="3"/>
-      <c r="CY87" s="3"/>
-      <c r="CZ87" s="3"/>
-      <c r="DA87" s="3"/>
-      <c r="DB87" s="3"/>
-      <c r="DC87" s="3"/>
-      <c r="DD87" s="3"/>
-      <c r="DE87" s="3"/>
-      <c r="DF87" s="3"/>
-      <c r="DG87" s="3"/>
-      <c r="DH87" s="3"/>
-      <c r="DI87" s="3"/>
-      <c r="DJ87" s="3"/>
-      <c r="DK87" s="3"/>
-      <c r="DL87" s="3"/>
-      <c r="DM87" s="3"/>
-      <c r="DN87" s="3"/>
-      <c r="DO87" s="3"/>
-      <c r="DP87" s="3"/>
-      <c r="DQ87" s="3"/>
-      <c r="DR87" s="3"/>
-      <c r="DS87" s="3"/>
-      <c r="DT87" s="3"/>
-      <c r="DU87" s="3"/>
-      <c r="DV87" s="3"/>
-      <c r="DW87" s="3"/>
-      <c r="DX87" s="3"/>
-      <c r="DY87" s="3"/>
-      <c r="DZ87" s="3"/>
-      <c r="EA87" s="3"/>
-      <c r="EB87" s="3"/>
-      <c r="EC87" s="3"/>
-      <c r="ED87" s="3"/>
-      <c r="EE87" s="3"/>
-      <c r="EF87" s="3"/>
-      <c r="EG87" s="3"/>
-      <c r="EH87" s="3"/>
-      <c r="EI87" s="3"/>
-      <c r="EJ87" s="3"/>
-      <c r="EK87" s="3"/>
-      <c r="EL87" s="3"/>
-      <c r="EM87" s="3"/>
-      <c r="EN87" s="3"/>
     </row>
-    <row r="88" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
-      <c r="U88" s="3"/>
-      <c r="V88" s="3"/>
-      <c r="W88" s="3"/>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
-      <c r="AA88" s="3"/>
-      <c r="AB88" s="3"/>
-      <c r="AC88" s="3"/>
-      <c r="AD88" s="3"/>
-      <c r="AE88" s="3"/>
-      <c r="AF88" s="3"/>
-      <c r="AG88" s="3"/>
-      <c r="AH88" s="3"/>
-      <c r="AI88" s="3"/>
-      <c r="AJ88" s="3"/>
-      <c r="AK88" s="3"/>
-      <c r="AL88" s="3"/>
-      <c r="AM88" s="3"/>
-      <c r="AN88" s="3"/>
-      <c r="AO88" s="3"/>
-      <c r="AP88" s="3"/>
-      <c r="AQ88" s="3"/>
-      <c r="AR88" s="3"/>
-      <c r="AS88" s="3"/>
-      <c r="AT88" s="3"/>
-      <c r="AU88" s="3"/>
-      <c r="AV88" s="3"/>
-      <c r="AW88" s="3"/>
-      <c r="AX88" s="3"/>
-      <c r="AY88" s="3"/>
-      <c r="AZ88" s="3"/>
-      <c r="BA88" s="3"/>
-      <c r="BB88" s="3"/>
-      <c r="BC88" s="3"/>
-      <c r="BD88" s="3"/>
-      <c r="BE88" s="3"/>
-      <c r="BF88" s="3"/>
-      <c r="BG88" s="3"/>
-      <c r="BH88" s="3"/>
-      <c r="BI88" s="3"/>
-      <c r="BJ88" s="3"/>
-      <c r="BK88" s="3"/>
-      <c r="BL88" s="3"/>
-      <c r="BM88" s="3"/>
-      <c r="BN88" s="3"/>
-      <c r="BO88" s="3"/>
-      <c r="BP88" s="3"/>
-      <c r="BQ88" s="3"/>
-      <c r="BR88" s="3"/>
-      <c r="BS88" s="3"/>
-      <c r="BT88" s="3"/>
-      <c r="BU88" s="3"/>
-      <c r="BV88" s="3"/>
-      <c r="BW88" s="3"/>
-      <c r="BX88" s="3"/>
-      <c r="BY88" s="3"/>
-      <c r="BZ88" s="3"/>
-      <c r="CA88" s="3"/>
-      <c r="CB88" s="3"/>
-      <c r="CC88" s="3"/>
-      <c r="CD88" s="3"/>
-      <c r="CE88" s="3"/>
-      <c r="CF88" s="3"/>
-      <c r="CG88" s="3"/>
-      <c r="CH88" s="3"/>
-      <c r="CI88" s="3"/>
-      <c r="CJ88" s="3"/>
-      <c r="CK88" s="3"/>
-      <c r="CL88" s="3"/>
-      <c r="CM88" s="3"/>
-      <c r="CN88" s="3"/>
-      <c r="CO88" s="3"/>
-      <c r="CP88" s="3"/>
-      <c r="CQ88" s="3"/>
-      <c r="CR88" s="3"/>
-      <c r="CS88" s="3"/>
-      <c r="CT88" s="3"/>
-      <c r="CU88" s="3"/>
-      <c r="CV88" s="3"/>
-      <c r="CW88" s="3"/>
-      <c r="CX88" s="3"/>
-      <c r="CY88" s="3"/>
-      <c r="CZ88" s="3"/>
-      <c r="DA88" s="3"/>
-      <c r="DB88" s="3"/>
-      <c r="DC88" s="3"/>
-      <c r="DD88" s="3"/>
-      <c r="DE88" s="3"/>
-      <c r="DF88" s="3"/>
-      <c r="DG88" s="3"/>
-      <c r="DH88" s="3"/>
-      <c r="DI88" s="3"/>
-      <c r="DJ88" s="3"/>
-      <c r="DK88" s="3"/>
-      <c r="DL88" s="3"/>
-      <c r="DM88" s="3"/>
-      <c r="DN88" s="3"/>
-      <c r="DO88" s="3"/>
-      <c r="DP88" s="3"/>
-      <c r="DQ88" s="3"/>
-      <c r="DR88" s="3"/>
-      <c r="DS88" s="3"/>
-      <c r="DT88" s="3"/>
-      <c r="DU88" s="3"/>
-      <c r="DV88" s="3"/>
-      <c r="DW88" s="3"/>
-      <c r="DX88" s="3"/>
-      <c r="DY88" s="3"/>
-      <c r="DZ88" s="3"/>
-      <c r="EA88" s="3"/>
-      <c r="EB88" s="3"/>
-      <c r="EC88" s="3"/>
-      <c r="ED88" s="3"/>
-      <c r="EE88" s="3"/>
-      <c r="EF88" s="3"/>
-      <c r="EG88" s="3"/>
-      <c r="EH88" s="3"/>
-      <c r="EI88" s="3"/>
-      <c r="EJ88" s="3"/>
-      <c r="EK88" s="3"/>
-      <c r="EL88" s="3"/>
-      <c r="EM88" s="3"/>
-      <c r="EN88" s="3"/>
+    <row r="88" spans="1:144" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
     </row>
     <row r="89" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
+      <c r="A89" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
       <c r="F89" s="6" t="s">
         <v>111</v>
       </c>
@@ -10893,11 +10920,11 @@
       <c r="EN89" s="3"/>
     </row>
     <row r="90" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -11038,11 +11065,13 @@
       <c r="EN90" s="3"/>
     </row>
     <row r="91" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
+      <c r="A91" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
       <c r="F91" s="6" t="s">
         <v>111</v>
       </c>
@@ -11186,11 +11215,11 @@
       <c r="EN91" s="3"/>
     </row>
     <row r="92" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -11331,11 +11360,13 @@
       <c r="EN92" s="3"/>
     </row>
     <row r="93" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
+      <c r="A93" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
       <c r="F93" s="6" t="s">
         <v>111</v>
       </c>
@@ -11479,11 +11510,11 @@
       <c r="EN93" s="3"/>
     </row>
     <row r="94" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -11624,12 +11655,12 @@
       <c r="EN94" s="3"/>
     </row>
     <row r="95" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="9" t="s">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="6" t="s">
         <v>111</v>
       </c>
       <c r="G95" s="3"/>
@@ -11772,11 +11803,11 @@
       <c r="EN95" s="3"/>
     </row>
     <row r="96" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -11917,12 +11948,12 @@
       <c r="EN96" s="3"/>
     </row>
     <row r="97" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="9" t="s">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="6" t="s">
         <v>111</v>
       </c>
       <c r="G97" s="3"/>
@@ -12065,11 +12096,11 @@
       <c r="EN97" s="3"/>
     </row>
     <row r="98" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -12210,12 +12241,12 @@
       <c r="EN98" s="3"/>
     </row>
     <row r="99" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="9" t="s">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="6" t="s">
         <v>111</v>
       </c>
       <c r="G99" s="3"/>
@@ -12358,11 +12389,11 @@
       <c r="EN99" s="3"/>
     </row>
     <row r="100" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -12503,11 +12534,11 @@
       <c r="EN100" s="3"/>
     </row>
     <row r="101" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
       <c r="F101" s="9" t="s">
         <v>111</v>
       </c>
@@ -12651,11 +12682,11 @@
       <c r="EN101" s="3"/>
     </row>
     <row r="102" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -12796,11 +12827,11 @@
       <c r="EN102" s="3"/>
     </row>
     <row r="103" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
       <c r="F103" s="9" t="s">
         <v>111</v>
       </c>
@@ -12944,11 +12975,11 @@
       <c r="EN103" s="3"/>
     </row>
     <row r="104" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -13089,11 +13120,14 @@
       <c r="EN104" s="3"/>
     </row>
     <row r="105" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -13234,11 +13268,11 @@
       <c r="EN105" s="3"/>
     </row>
     <row r="106" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -13379,11 +13413,14 @@
       <c r="EN106" s="3"/>
     </row>
     <row r="107" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
@@ -13524,11 +13561,11 @@
       <c r="EN107" s="3"/>
     </row>
     <row r="108" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -13669,11 +13706,14 @@
       <c r="EN108" s="3"/>
     </row>
     <row r="109" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -13814,11 +13854,11 @@
       <c r="EN109" s="3"/>
     </row>
     <row r="110" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
@@ -13959,11 +13999,11 @@
       <c r="EN110" s="3"/>
     </row>
     <row r="111" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
+      <c r="A111" s="23"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
@@ -14104,11 +14144,11 @@
       <c r="EN111" s="3"/>
     </row>
     <row r="112" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -14249,11 +14289,11 @@
       <c r="EN112" s="3"/>
     </row>
     <row r="113" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -14394,11 +14434,11 @@
       <c r="EN113" s="3"/>
     </row>
     <row r="114" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -14539,11 +14579,11 @@
       <c r="EN114" s="3"/>
     </row>
     <row r="115" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -14684,11 +14724,11 @@
       <c r="EN115" s="3"/>
     </row>
     <row r="116" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
+      <c r="A116" s="23"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -14829,11 +14869,11 @@
       <c r="EN116" s="3"/>
     </row>
     <row r="117" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -14974,11 +15014,11 @@
       <c r="EN117" s="3"/>
     </row>
     <row r="118" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
+      <c r="A118" s="23"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -15119,11 +15159,11 @@
       <c r="EN118" s="3"/>
     </row>
     <row r="119" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
@@ -15264,11 +15304,11 @@
       <c r="EN119" s="3"/>
     </row>
     <row r="120" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
+      <c r="A120" s="23"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
@@ -15409,11 +15449,11 @@
       <c r="EN120" s="3"/>
     </row>
     <row r="121" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
+      <c r="A121" s="23"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -15554,11 +15594,11 @@
       <c r="EN121" s="3"/>
     </row>
     <row r="122" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -15699,11 +15739,11 @@
       <c r="EN122" s="3"/>
     </row>
     <row r="123" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
@@ -15844,11 +15884,11 @@
       <c r="EN123" s="3"/>
     </row>
     <row r="124" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -15989,11 +16029,11 @@
       <c r="EN124" s="3"/>
     </row>
     <row r="125" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
@@ -16134,11 +16174,11 @@
       <c r="EN125" s="3"/>
     </row>
     <row r="126" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
+      <c r="A126" s="23"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -16279,11 +16319,11 @@
       <c r="EN126" s="3"/>
     </row>
     <row r="127" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
+      <c r="A127" s="23"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
@@ -16424,11 +16464,11 @@
       <c r="EN127" s="3"/>
     </row>
     <row r="128" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
+      <c r="A128" s="23"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -16569,11 +16609,11 @@
       <c r="EN128" s="3"/>
     </row>
     <row r="129" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
+      <c r="A129" s="23"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -16714,11 +16754,11 @@
       <c r="EN129" s="3"/>
     </row>
     <row r="130" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
+      <c r="A130" s="23"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -16859,11 +16899,11 @@
       <c r="EN130" s="3"/>
     </row>
     <row r="131" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
+      <c r="A131" s="23"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -17004,11 +17044,11 @@
       <c r="EN131" s="3"/>
     </row>
     <row r="132" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
+      <c r="A132" s="23"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
@@ -17149,11 +17189,11 @@
       <c r="EN132" s="3"/>
     </row>
     <row r="133" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
+      <c r="A133" s="23"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
@@ -17294,11 +17334,11 @@
       <c r="EN133" s="3"/>
     </row>
     <row r="134" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
+      <c r="A134" s="23"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -17439,11 +17479,11 @@
       <c r="EN134" s="3"/>
     </row>
     <row r="135" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
+      <c r="A135" s="23"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
@@ -17584,11 +17624,11 @@
       <c r="EN135" s="3"/>
     </row>
     <row r="136" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
+      <c r="A136" s="23"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
@@ -17729,11 +17769,11 @@
       <c r="EN136" s="3"/>
     </row>
     <row r="137" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
+      <c r="A137" s="23"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -17874,11 +17914,11 @@
       <c r="EN137" s="3"/>
     </row>
     <row r="138" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
+      <c r="A138" s="23"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
@@ -18019,11 +18059,11 @@
       <c r="EN138" s="3"/>
     </row>
     <row r="139" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
+      <c r="A139" s="23"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
@@ -18164,11 +18204,11 @@
       <c r="EN139" s="3"/>
     </row>
     <row r="140" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
@@ -18309,11 +18349,11 @@
       <c r="EN140" s="3"/>
     </row>
     <row r="141" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
@@ -18454,11 +18494,11 @@
       <c r="EN141" s="3"/>
     </row>
     <row r="142" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
+      <c r="A142" s="23"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
@@ -18599,11 +18639,11 @@
       <c r="EN142" s="3"/>
     </row>
     <row r="143" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="23"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
@@ -18744,11 +18784,11 @@
       <c r="EN143" s="3"/>
     </row>
     <row r="144" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
+      <c r="A144" s="23"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
@@ -18889,11 +18929,11 @@
       <c r="EN144" s="3"/>
     </row>
     <row r="145" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
@@ -19034,11 +19074,11 @@
       <c r="EN145" s="3"/>
     </row>
     <row r="146" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A146" s="10"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
+      <c r="A146" s="23"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
@@ -19179,11 +19219,11 @@
       <c r="EN146" s="3"/>
     </row>
     <row r="147" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
@@ -19324,11 +19364,11 @@
       <c r="EN147" s="3"/>
     </row>
     <row r="148" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A148" s="10"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
+      <c r="A148" s="23"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
@@ -19469,11 +19509,11 @@
       <c r="EN148" s="3"/>
     </row>
     <row r="149" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A149" s="10"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
+      <c r="A149" s="23"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
@@ -19614,11 +19654,11 @@
       <c r="EN149" s="3"/>
     </row>
     <row r="150" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
+      <c r="A150" s="23"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
@@ -19759,11 +19799,11 @@
       <c r="EN150" s="3"/>
     </row>
     <row r="151" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
+      <c r="A151" s="23"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
@@ -19904,11 +19944,11 @@
       <c r="EN151" s="3"/>
     </row>
     <row r="152" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A152" s="10"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
+      <c r="A152" s="23"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="23"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
@@ -20049,11 +20089,11 @@
       <c r="EN152" s="3"/>
     </row>
     <row r="153" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
+      <c r="A153" s="23"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
@@ -20194,11 +20234,11 @@
       <c r="EN153" s="3"/>
     </row>
     <row r="154" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A154" s="10"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
+      <c r="A154" s="23"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
@@ -20339,11 +20379,11 @@
       <c r="EN154" s="3"/>
     </row>
     <row r="155" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
+      <c r="A155" s="23"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
@@ -20484,11 +20524,11 @@
       <c r="EN155" s="3"/>
     </row>
     <row r="156" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
+      <c r="A156" s="23"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -20629,11 +20669,11 @@
       <c r="EN156" s="3"/>
     </row>
     <row r="157" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A157" s="10"/>
-      <c r="B157" s="10"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
+      <c r="A157" s="23"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
@@ -20774,11 +20814,11 @@
       <c r="EN157" s="3"/>
     </row>
     <row r="158" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A158" s="10"/>
-      <c r="B158" s="10"/>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
+      <c r="A158" s="23"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -20919,11 +20959,11 @@
       <c r="EN158" s="3"/>
     </row>
     <row r="159" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
+      <c r="A159" s="23"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
@@ -21064,11 +21104,11 @@
       <c r="EN159" s="3"/>
     </row>
     <row r="160" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A160" s="10"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
+      <c r="A160" s="23"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -21209,11 +21249,11 @@
       <c r="EN160" s="3"/>
     </row>
     <row r="161" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A161" s="10"/>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
+      <c r="A161" s="23"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
@@ -21354,11 +21394,11 @@
       <c r="EN161" s="3"/>
     </row>
     <row r="162" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A162" s="10"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
+      <c r="A162" s="23"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -21499,11 +21539,11 @@
       <c r="EN162" s="3"/>
     </row>
     <row r="163" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A163" s="10"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
+      <c r="A163" s="23"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
@@ -21644,11 +21684,11 @@
       <c r="EN163" s="3"/>
     </row>
     <row r="164" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A164" s="10"/>
-      <c r="B164" s="10"/>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
+      <c r="A164" s="23"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
@@ -21789,11 +21829,11 @@
       <c r="EN164" s="3"/>
     </row>
     <row r="165" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A165" s="10"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
+      <c r="A165" s="23"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
@@ -21934,11 +21974,11 @@
       <c r="EN165" s="3"/>
     </row>
     <row r="166" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A166" s="10"/>
-      <c r="B166" s="10"/>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="10"/>
+      <c r="A166" s="23"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
@@ -22079,11 +22119,11 @@
       <c r="EN166" s="3"/>
     </row>
     <row r="167" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A167" s="10"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
+      <c r="A167" s="23"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
@@ -22224,11 +22264,11 @@
       <c r="EN167" s="3"/>
     </row>
     <row r="168" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A168" s="10"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
+      <c r="A168" s="23"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -22369,55 +22409,986 @@
       <c r="EN168" s="3"/>
     </row>
     <row r="169" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A169" s="10"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="10"/>
+      <c r="A169" s="23"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="23"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="23"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="3"/>
+      <c r="U169" s="3"/>
+      <c r="V169" s="3"/>
+      <c r="W169" s="3"/>
+      <c r="X169" s="3"/>
+      <c r="Y169" s="3"/>
+      <c r="Z169" s="3"/>
+      <c r="AA169" s="3"/>
+      <c r="AB169" s="3"/>
+      <c r="AC169" s="3"/>
+      <c r="AD169" s="3"/>
+      <c r="AE169" s="3"/>
+      <c r="AF169" s="3"/>
+      <c r="AG169" s="3"/>
+      <c r="AH169" s="3"/>
+      <c r="AI169" s="3"/>
+      <c r="AJ169" s="3"/>
+      <c r="AK169" s="3"/>
+      <c r="AL169" s="3"/>
+      <c r="AM169" s="3"/>
+      <c r="AN169" s="3"/>
+      <c r="AO169" s="3"/>
+      <c r="AP169" s="3"/>
+      <c r="AQ169" s="3"/>
+      <c r="AR169" s="3"/>
+      <c r="AS169" s="3"/>
+      <c r="AT169" s="3"/>
+      <c r="AU169" s="3"/>
+      <c r="AV169" s="3"/>
+      <c r="AW169" s="3"/>
+      <c r="AX169" s="3"/>
+      <c r="AY169" s="3"/>
+      <c r="AZ169" s="3"/>
+      <c r="BA169" s="3"/>
+      <c r="BB169" s="3"/>
+      <c r="BC169" s="3"/>
+      <c r="BD169" s="3"/>
+      <c r="BE169" s="3"/>
+      <c r="BF169" s="3"/>
+      <c r="BG169" s="3"/>
+      <c r="BH169" s="3"/>
+      <c r="BI169" s="3"/>
+      <c r="BJ169" s="3"/>
+      <c r="BK169" s="3"/>
+      <c r="BL169" s="3"/>
+      <c r="BM169" s="3"/>
+      <c r="BN169" s="3"/>
+      <c r="BO169" s="3"/>
+      <c r="BP169" s="3"/>
+      <c r="BQ169" s="3"/>
+      <c r="BR169" s="3"/>
+      <c r="BS169" s="3"/>
+      <c r="BT169" s="3"/>
+      <c r="BU169" s="3"/>
+      <c r="BV169" s="3"/>
+      <c r="BW169" s="3"/>
+      <c r="BX169" s="3"/>
+      <c r="BY169" s="3"/>
+      <c r="BZ169" s="3"/>
+      <c r="CA169" s="3"/>
+      <c r="CB169" s="3"/>
+      <c r="CC169" s="3"/>
+      <c r="CD169" s="3"/>
+      <c r="CE169" s="3"/>
+      <c r="CF169" s="3"/>
+      <c r="CG169" s="3"/>
+      <c r="CH169" s="3"/>
+      <c r="CI169" s="3"/>
+      <c r="CJ169" s="3"/>
+      <c r="CK169" s="3"/>
+      <c r="CL169" s="3"/>
+      <c r="CM169" s="3"/>
+      <c r="CN169" s="3"/>
+      <c r="CO169" s="3"/>
+      <c r="CP169" s="3"/>
+      <c r="CQ169" s="3"/>
+      <c r="CR169" s="3"/>
+      <c r="CS169" s="3"/>
+      <c r="CT169" s="3"/>
+      <c r="CU169" s="3"/>
+      <c r="CV169" s="3"/>
+      <c r="CW169" s="3"/>
+      <c r="CX169" s="3"/>
+      <c r="CY169" s="3"/>
+      <c r="CZ169" s="3"/>
+      <c r="DA169" s="3"/>
+      <c r="DB169" s="3"/>
+      <c r="DC169" s="3"/>
+      <c r="DD169" s="3"/>
+      <c r="DE169" s="3"/>
+      <c r="DF169" s="3"/>
+      <c r="DG169" s="3"/>
+      <c r="DH169" s="3"/>
+      <c r="DI169" s="3"/>
+      <c r="DJ169" s="3"/>
+      <c r="DK169" s="3"/>
+      <c r="DL169" s="3"/>
+      <c r="DM169" s="3"/>
+      <c r="DN169" s="3"/>
+      <c r="DO169" s="3"/>
+      <c r="DP169" s="3"/>
+      <c r="DQ169" s="3"/>
+      <c r="DR169" s="3"/>
+      <c r="DS169" s="3"/>
+      <c r="DT169" s="3"/>
+      <c r="DU169" s="3"/>
+      <c r="DV169" s="3"/>
+      <c r="DW169" s="3"/>
+      <c r="DX169" s="3"/>
+      <c r="DY169" s="3"/>
+      <c r="DZ169" s="3"/>
+      <c r="EA169" s="3"/>
+      <c r="EB169" s="3"/>
+      <c r="EC169" s="3"/>
+      <c r="ED169" s="3"/>
+      <c r="EE169" s="3"/>
+      <c r="EF169" s="3"/>
+      <c r="EG169" s="3"/>
+      <c r="EH169" s="3"/>
+      <c r="EI169" s="3"/>
+      <c r="EJ169" s="3"/>
+      <c r="EK169" s="3"/>
+      <c r="EL169" s="3"/>
+      <c r="EM169" s="3"/>
+      <c r="EN169" s="3"/>
     </row>
     <row r="170" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A170" s="10"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
+      <c r="A170" s="23"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="23"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
+      <c r="Y170" s="3"/>
+      <c r="Z170" s="3"/>
+      <c r="AA170" s="3"/>
+      <c r="AB170" s="3"/>
+      <c r="AC170" s="3"/>
+      <c r="AD170" s="3"/>
+      <c r="AE170" s="3"/>
+      <c r="AF170" s="3"/>
+      <c r="AG170" s="3"/>
+      <c r="AH170" s="3"/>
+      <c r="AI170" s="3"/>
+      <c r="AJ170" s="3"/>
+      <c r="AK170" s="3"/>
+      <c r="AL170" s="3"/>
+      <c r="AM170" s="3"/>
+      <c r="AN170" s="3"/>
+      <c r="AO170" s="3"/>
+      <c r="AP170" s="3"/>
+      <c r="AQ170" s="3"/>
+      <c r="AR170" s="3"/>
+      <c r="AS170" s="3"/>
+      <c r="AT170" s="3"/>
+      <c r="AU170" s="3"/>
+      <c r="AV170" s="3"/>
+      <c r="AW170" s="3"/>
+      <c r="AX170" s="3"/>
+      <c r="AY170" s="3"/>
+      <c r="AZ170" s="3"/>
+      <c r="BA170" s="3"/>
+      <c r="BB170" s="3"/>
+      <c r="BC170" s="3"/>
+      <c r="BD170" s="3"/>
+      <c r="BE170" s="3"/>
+      <c r="BF170" s="3"/>
+      <c r="BG170" s="3"/>
+      <c r="BH170" s="3"/>
+      <c r="BI170" s="3"/>
+      <c r="BJ170" s="3"/>
+      <c r="BK170" s="3"/>
+      <c r="BL170" s="3"/>
+      <c r="BM170" s="3"/>
+      <c r="BN170" s="3"/>
+      <c r="BO170" s="3"/>
+      <c r="BP170" s="3"/>
+      <c r="BQ170" s="3"/>
+      <c r="BR170" s="3"/>
+      <c r="BS170" s="3"/>
+      <c r="BT170" s="3"/>
+      <c r="BU170" s="3"/>
+      <c r="BV170" s="3"/>
+      <c r="BW170" s="3"/>
+      <c r="BX170" s="3"/>
+      <c r="BY170" s="3"/>
+      <c r="BZ170" s="3"/>
+      <c r="CA170" s="3"/>
+      <c r="CB170" s="3"/>
+      <c r="CC170" s="3"/>
+      <c r="CD170" s="3"/>
+      <c r="CE170" s="3"/>
+      <c r="CF170" s="3"/>
+      <c r="CG170" s="3"/>
+      <c r="CH170" s="3"/>
+      <c r="CI170" s="3"/>
+      <c r="CJ170" s="3"/>
+      <c r="CK170" s="3"/>
+      <c r="CL170" s="3"/>
+      <c r="CM170" s="3"/>
+      <c r="CN170" s="3"/>
+      <c r="CO170" s="3"/>
+      <c r="CP170" s="3"/>
+      <c r="CQ170" s="3"/>
+      <c r="CR170" s="3"/>
+      <c r="CS170" s="3"/>
+      <c r="CT170" s="3"/>
+      <c r="CU170" s="3"/>
+      <c r="CV170" s="3"/>
+      <c r="CW170" s="3"/>
+      <c r="CX170" s="3"/>
+      <c r="CY170" s="3"/>
+      <c r="CZ170" s="3"/>
+      <c r="DA170" s="3"/>
+      <c r="DB170" s="3"/>
+      <c r="DC170" s="3"/>
+      <c r="DD170" s="3"/>
+      <c r="DE170" s="3"/>
+      <c r="DF170" s="3"/>
+      <c r="DG170" s="3"/>
+      <c r="DH170" s="3"/>
+      <c r="DI170" s="3"/>
+      <c r="DJ170" s="3"/>
+      <c r="DK170" s="3"/>
+      <c r="DL170" s="3"/>
+      <c r="DM170" s="3"/>
+      <c r="DN170" s="3"/>
+      <c r="DO170" s="3"/>
+      <c r="DP170" s="3"/>
+      <c r="DQ170" s="3"/>
+      <c r="DR170" s="3"/>
+      <c r="DS170" s="3"/>
+      <c r="DT170" s="3"/>
+      <c r="DU170" s="3"/>
+      <c r="DV170" s="3"/>
+      <c r="DW170" s="3"/>
+      <c r="DX170" s="3"/>
+      <c r="DY170" s="3"/>
+      <c r="DZ170" s="3"/>
+      <c r="EA170" s="3"/>
+      <c r="EB170" s="3"/>
+      <c r="EC170" s="3"/>
+      <c r="ED170" s="3"/>
+      <c r="EE170" s="3"/>
+      <c r="EF170" s="3"/>
+      <c r="EG170" s="3"/>
+      <c r="EH170" s="3"/>
+      <c r="EI170" s="3"/>
+      <c r="EJ170" s="3"/>
+      <c r="EK170" s="3"/>
+      <c r="EL170" s="3"/>
+      <c r="EM170" s="3"/>
+      <c r="EN170" s="3"/>
     </row>
     <row r="171" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A171" s="10"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10"/>
+      <c r="A171" s="23"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3"/>
+      <c r="S171" s="3"/>
+      <c r="T171" s="3"/>
+      <c r="U171" s="3"/>
+      <c r="V171" s="3"/>
+      <c r="W171" s="3"/>
+      <c r="X171" s="3"/>
+      <c r="Y171" s="3"/>
+      <c r="Z171" s="3"/>
+      <c r="AA171" s="3"/>
+      <c r="AB171" s="3"/>
+      <c r="AC171" s="3"/>
+      <c r="AD171" s="3"/>
+      <c r="AE171" s="3"/>
+      <c r="AF171" s="3"/>
+      <c r="AG171" s="3"/>
+      <c r="AH171" s="3"/>
+      <c r="AI171" s="3"/>
+      <c r="AJ171" s="3"/>
+      <c r="AK171" s="3"/>
+      <c r="AL171" s="3"/>
+      <c r="AM171" s="3"/>
+      <c r="AN171" s="3"/>
+      <c r="AO171" s="3"/>
+      <c r="AP171" s="3"/>
+      <c r="AQ171" s="3"/>
+      <c r="AR171" s="3"/>
+      <c r="AS171" s="3"/>
+      <c r="AT171" s="3"/>
+      <c r="AU171" s="3"/>
+      <c r="AV171" s="3"/>
+      <c r="AW171" s="3"/>
+      <c r="AX171" s="3"/>
+      <c r="AY171" s="3"/>
+      <c r="AZ171" s="3"/>
+      <c r="BA171" s="3"/>
+      <c r="BB171" s="3"/>
+      <c r="BC171" s="3"/>
+      <c r="BD171" s="3"/>
+      <c r="BE171" s="3"/>
+      <c r="BF171" s="3"/>
+      <c r="BG171" s="3"/>
+      <c r="BH171" s="3"/>
+      <c r="BI171" s="3"/>
+      <c r="BJ171" s="3"/>
+      <c r="BK171" s="3"/>
+      <c r="BL171" s="3"/>
+      <c r="BM171" s="3"/>
+      <c r="BN171" s="3"/>
+      <c r="BO171" s="3"/>
+      <c r="BP171" s="3"/>
+      <c r="BQ171" s="3"/>
+      <c r="BR171" s="3"/>
+      <c r="BS171" s="3"/>
+      <c r="BT171" s="3"/>
+      <c r="BU171" s="3"/>
+      <c r="BV171" s="3"/>
+      <c r="BW171" s="3"/>
+      <c r="BX171" s="3"/>
+      <c r="BY171" s="3"/>
+      <c r="BZ171" s="3"/>
+      <c r="CA171" s="3"/>
+      <c r="CB171" s="3"/>
+      <c r="CC171" s="3"/>
+      <c r="CD171" s="3"/>
+      <c r="CE171" s="3"/>
+      <c r="CF171" s="3"/>
+      <c r="CG171" s="3"/>
+      <c r="CH171" s="3"/>
+      <c r="CI171" s="3"/>
+      <c r="CJ171" s="3"/>
+      <c r="CK171" s="3"/>
+      <c r="CL171" s="3"/>
+      <c r="CM171" s="3"/>
+      <c r="CN171" s="3"/>
+      <c r="CO171" s="3"/>
+      <c r="CP171" s="3"/>
+      <c r="CQ171" s="3"/>
+      <c r="CR171" s="3"/>
+      <c r="CS171" s="3"/>
+      <c r="CT171" s="3"/>
+      <c r="CU171" s="3"/>
+      <c r="CV171" s="3"/>
+      <c r="CW171" s="3"/>
+      <c r="CX171" s="3"/>
+      <c r="CY171" s="3"/>
+      <c r="CZ171" s="3"/>
+      <c r="DA171" s="3"/>
+      <c r="DB171" s="3"/>
+      <c r="DC171" s="3"/>
+      <c r="DD171" s="3"/>
+      <c r="DE171" s="3"/>
+      <c r="DF171" s="3"/>
+      <c r="DG171" s="3"/>
+      <c r="DH171" s="3"/>
+      <c r="DI171" s="3"/>
+      <c r="DJ171" s="3"/>
+      <c r="DK171" s="3"/>
+      <c r="DL171" s="3"/>
+      <c r="DM171" s="3"/>
+      <c r="DN171" s="3"/>
+      <c r="DO171" s="3"/>
+      <c r="DP171" s="3"/>
+      <c r="DQ171" s="3"/>
+      <c r="DR171" s="3"/>
+      <c r="DS171" s="3"/>
+      <c r="DT171" s="3"/>
+      <c r="DU171" s="3"/>
+      <c r="DV171" s="3"/>
+      <c r="DW171" s="3"/>
+      <c r="DX171" s="3"/>
+      <c r="DY171" s="3"/>
+      <c r="DZ171" s="3"/>
+      <c r="EA171" s="3"/>
+      <c r="EB171" s="3"/>
+      <c r="EC171" s="3"/>
+      <c r="ED171" s="3"/>
+      <c r="EE171" s="3"/>
+      <c r="EF171" s="3"/>
+      <c r="EG171" s="3"/>
+      <c r="EH171" s="3"/>
+      <c r="EI171" s="3"/>
+      <c r="EJ171" s="3"/>
+      <c r="EK171" s="3"/>
+      <c r="EL171" s="3"/>
+      <c r="EM171" s="3"/>
+      <c r="EN171" s="3"/>
     </row>
     <row r="172" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A172" s="10"/>
-      <c r="B172" s="10"/>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10"/>
+      <c r="A172" s="23"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="23"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
+      <c r="O172" s="3"/>
+      <c r="P172" s="3"/>
+      <c r="Q172" s="3"/>
+      <c r="R172" s="3"/>
+      <c r="S172" s="3"/>
+      <c r="T172" s="3"/>
+      <c r="U172" s="3"/>
+      <c r="V172" s="3"/>
+      <c r="W172" s="3"/>
+      <c r="X172" s="3"/>
+      <c r="Y172" s="3"/>
+      <c r="Z172" s="3"/>
+      <c r="AA172" s="3"/>
+      <c r="AB172" s="3"/>
+      <c r="AC172" s="3"/>
+      <c r="AD172" s="3"/>
+      <c r="AE172" s="3"/>
+      <c r="AF172" s="3"/>
+      <c r="AG172" s="3"/>
+      <c r="AH172" s="3"/>
+      <c r="AI172" s="3"/>
+      <c r="AJ172" s="3"/>
+      <c r="AK172" s="3"/>
+      <c r="AL172" s="3"/>
+      <c r="AM172" s="3"/>
+      <c r="AN172" s="3"/>
+      <c r="AO172" s="3"/>
+      <c r="AP172" s="3"/>
+      <c r="AQ172" s="3"/>
+      <c r="AR172" s="3"/>
+      <c r="AS172" s="3"/>
+      <c r="AT172" s="3"/>
+      <c r="AU172" s="3"/>
+      <c r="AV172" s="3"/>
+      <c r="AW172" s="3"/>
+      <c r="AX172" s="3"/>
+      <c r="AY172" s="3"/>
+      <c r="AZ172" s="3"/>
+      <c r="BA172" s="3"/>
+      <c r="BB172" s="3"/>
+      <c r="BC172" s="3"/>
+      <c r="BD172" s="3"/>
+      <c r="BE172" s="3"/>
+      <c r="BF172" s="3"/>
+      <c r="BG172" s="3"/>
+      <c r="BH172" s="3"/>
+      <c r="BI172" s="3"/>
+      <c r="BJ172" s="3"/>
+      <c r="BK172" s="3"/>
+      <c r="BL172" s="3"/>
+      <c r="BM172" s="3"/>
+      <c r="BN172" s="3"/>
+      <c r="BO172" s="3"/>
+      <c r="BP172" s="3"/>
+      <c r="BQ172" s="3"/>
+      <c r="BR172" s="3"/>
+      <c r="BS172" s="3"/>
+      <c r="BT172" s="3"/>
+      <c r="BU172" s="3"/>
+      <c r="BV172" s="3"/>
+      <c r="BW172" s="3"/>
+      <c r="BX172" s="3"/>
+      <c r="BY172" s="3"/>
+      <c r="BZ172" s="3"/>
+      <c r="CA172" s="3"/>
+      <c r="CB172" s="3"/>
+      <c r="CC172" s="3"/>
+      <c r="CD172" s="3"/>
+      <c r="CE172" s="3"/>
+      <c r="CF172" s="3"/>
+      <c r="CG172" s="3"/>
+      <c r="CH172" s="3"/>
+      <c r="CI172" s="3"/>
+      <c r="CJ172" s="3"/>
+      <c r="CK172" s="3"/>
+      <c r="CL172" s="3"/>
+      <c r="CM172" s="3"/>
+      <c r="CN172" s="3"/>
+      <c r="CO172" s="3"/>
+      <c r="CP172" s="3"/>
+      <c r="CQ172" s="3"/>
+      <c r="CR172" s="3"/>
+      <c r="CS172" s="3"/>
+      <c r="CT172" s="3"/>
+      <c r="CU172" s="3"/>
+      <c r="CV172" s="3"/>
+      <c r="CW172" s="3"/>
+      <c r="CX172" s="3"/>
+      <c r="CY172" s="3"/>
+      <c r="CZ172" s="3"/>
+      <c r="DA172" s="3"/>
+      <c r="DB172" s="3"/>
+      <c r="DC172" s="3"/>
+      <c r="DD172" s="3"/>
+      <c r="DE172" s="3"/>
+      <c r="DF172" s="3"/>
+      <c r="DG172" s="3"/>
+      <c r="DH172" s="3"/>
+      <c r="DI172" s="3"/>
+      <c r="DJ172" s="3"/>
+      <c r="DK172" s="3"/>
+      <c r="DL172" s="3"/>
+      <c r="DM172" s="3"/>
+      <c r="DN172" s="3"/>
+      <c r="DO172" s="3"/>
+      <c r="DP172" s="3"/>
+      <c r="DQ172" s="3"/>
+      <c r="DR172" s="3"/>
+      <c r="DS172" s="3"/>
+      <c r="DT172" s="3"/>
+      <c r="DU172" s="3"/>
+      <c r="DV172" s="3"/>
+      <c r="DW172" s="3"/>
+      <c r="DX172" s="3"/>
+      <c r="DY172" s="3"/>
+      <c r="DZ172" s="3"/>
+      <c r="EA172" s="3"/>
+      <c r="EB172" s="3"/>
+      <c r="EC172" s="3"/>
+      <c r="ED172" s="3"/>
+      <c r="EE172" s="3"/>
+      <c r="EF172" s="3"/>
+      <c r="EG172" s="3"/>
+      <c r="EH172" s="3"/>
+      <c r="EI172" s="3"/>
+      <c r="EJ172" s="3"/>
+      <c r="EK172" s="3"/>
+      <c r="EL172" s="3"/>
+      <c r="EM172" s="3"/>
+      <c r="EN172" s="3"/>
     </row>
     <row r="173" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A173" s="10"/>
-      <c r="B173" s="10"/>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
+      <c r="A173" s="23"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
+      <c r="M173" s="3"/>
+      <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
+      <c r="P173" s="3"/>
+      <c r="Q173" s="3"/>
+      <c r="R173" s="3"/>
+      <c r="S173" s="3"/>
+      <c r="T173" s="3"/>
+      <c r="U173" s="3"/>
+      <c r="V173" s="3"/>
+      <c r="W173" s="3"/>
+      <c r="X173" s="3"/>
+      <c r="Y173" s="3"/>
+      <c r="Z173" s="3"/>
+      <c r="AA173" s="3"/>
+      <c r="AB173" s="3"/>
+      <c r="AC173" s="3"/>
+      <c r="AD173" s="3"/>
+      <c r="AE173" s="3"/>
+      <c r="AF173" s="3"/>
+      <c r="AG173" s="3"/>
+      <c r="AH173" s="3"/>
+      <c r="AI173" s="3"/>
+      <c r="AJ173" s="3"/>
+      <c r="AK173" s="3"/>
+      <c r="AL173" s="3"/>
+      <c r="AM173" s="3"/>
+      <c r="AN173" s="3"/>
+      <c r="AO173" s="3"/>
+      <c r="AP173" s="3"/>
+      <c r="AQ173" s="3"/>
+      <c r="AR173" s="3"/>
+      <c r="AS173" s="3"/>
+      <c r="AT173" s="3"/>
+      <c r="AU173" s="3"/>
+      <c r="AV173" s="3"/>
+      <c r="AW173" s="3"/>
+      <c r="AX173" s="3"/>
+      <c r="AY173" s="3"/>
+      <c r="AZ173" s="3"/>
+      <c r="BA173" s="3"/>
+      <c r="BB173" s="3"/>
+      <c r="BC173" s="3"/>
+      <c r="BD173" s="3"/>
+      <c r="BE173" s="3"/>
+      <c r="BF173" s="3"/>
+      <c r="BG173" s="3"/>
+      <c r="BH173" s="3"/>
+      <c r="BI173" s="3"/>
+      <c r="BJ173" s="3"/>
+      <c r="BK173" s="3"/>
+      <c r="BL173" s="3"/>
+      <c r="BM173" s="3"/>
+      <c r="BN173" s="3"/>
+      <c r="BO173" s="3"/>
+      <c r="BP173" s="3"/>
+      <c r="BQ173" s="3"/>
+      <c r="BR173" s="3"/>
+      <c r="BS173" s="3"/>
+      <c r="BT173" s="3"/>
+      <c r="BU173" s="3"/>
+      <c r="BV173" s="3"/>
+      <c r="BW173" s="3"/>
+      <c r="BX173" s="3"/>
+      <c r="BY173" s="3"/>
+      <c r="BZ173" s="3"/>
+      <c r="CA173" s="3"/>
+      <c r="CB173" s="3"/>
+      <c r="CC173" s="3"/>
+      <c r="CD173" s="3"/>
+      <c r="CE173" s="3"/>
+      <c r="CF173" s="3"/>
+      <c r="CG173" s="3"/>
+      <c r="CH173" s="3"/>
+      <c r="CI173" s="3"/>
+      <c r="CJ173" s="3"/>
+      <c r="CK173" s="3"/>
+      <c r="CL173" s="3"/>
+      <c r="CM173" s="3"/>
+      <c r="CN173" s="3"/>
+      <c r="CO173" s="3"/>
+      <c r="CP173" s="3"/>
+      <c r="CQ173" s="3"/>
+      <c r="CR173" s="3"/>
+      <c r="CS173" s="3"/>
+      <c r="CT173" s="3"/>
+      <c r="CU173" s="3"/>
+      <c r="CV173" s="3"/>
+      <c r="CW173" s="3"/>
+      <c r="CX173" s="3"/>
+      <c r="CY173" s="3"/>
+      <c r="CZ173" s="3"/>
+      <c r="DA173" s="3"/>
+      <c r="DB173" s="3"/>
+      <c r="DC173" s="3"/>
+      <c r="DD173" s="3"/>
+      <c r="DE173" s="3"/>
+      <c r="DF173" s="3"/>
+      <c r="DG173" s="3"/>
+      <c r="DH173" s="3"/>
+      <c r="DI173" s="3"/>
+      <c r="DJ173" s="3"/>
+      <c r="DK173" s="3"/>
+      <c r="DL173" s="3"/>
+      <c r="DM173" s="3"/>
+      <c r="DN173" s="3"/>
+      <c r="DO173" s="3"/>
+      <c r="DP173" s="3"/>
+      <c r="DQ173" s="3"/>
+      <c r="DR173" s="3"/>
+      <c r="DS173" s="3"/>
+      <c r="DT173" s="3"/>
+      <c r="DU173" s="3"/>
+      <c r="DV173" s="3"/>
+      <c r="DW173" s="3"/>
+      <c r="DX173" s="3"/>
+      <c r="DY173" s="3"/>
+      <c r="DZ173" s="3"/>
+      <c r="EA173" s="3"/>
+      <c r="EB173" s="3"/>
+      <c r="EC173" s="3"/>
+      <c r="ED173" s="3"/>
+      <c r="EE173" s="3"/>
+      <c r="EF173" s="3"/>
+      <c r="EG173" s="3"/>
+      <c r="EH173" s="3"/>
+      <c r="EI173" s="3"/>
+      <c r="EJ173" s="3"/>
+      <c r="EK173" s="3"/>
+      <c r="EL173" s="3"/>
+      <c r="EM173" s="3"/>
+      <c r="EN173" s="3"/>
     </row>
     <row r="174" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A174" s="10"/>
-      <c r="B174" s="10"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
+      <c r="A174" s="23"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
+      <c r="Q174" s="3"/>
+      <c r="R174" s="3"/>
+      <c r="S174" s="3"/>
+      <c r="T174" s="3"/>
+      <c r="U174" s="3"/>
+      <c r="V174" s="3"/>
+      <c r="W174" s="3"/>
+      <c r="X174" s="3"/>
+      <c r="Y174" s="3"/>
+      <c r="Z174" s="3"/>
+      <c r="AA174" s="3"/>
+      <c r="AB174" s="3"/>
+      <c r="AC174" s="3"/>
+      <c r="AD174" s="3"/>
+      <c r="AE174" s="3"/>
+      <c r="AF174" s="3"/>
+      <c r="AG174" s="3"/>
+      <c r="AH174" s="3"/>
+      <c r="AI174" s="3"/>
+      <c r="AJ174" s="3"/>
+      <c r="AK174" s="3"/>
+      <c r="AL174" s="3"/>
+      <c r="AM174" s="3"/>
+      <c r="AN174" s="3"/>
+      <c r="AO174" s="3"/>
+      <c r="AP174" s="3"/>
+      <c r="AQ174" s="3"/>
+      <c r="AR174" s="3"/>
+      <c r="AS174" s="3"/>
+      <c r="AT174" s="3"/>
+      <c r="AU174" s="3"/>
+      <c r="AV174" s="3"/>
+      <c r="AW174" s="3"/>
+      <c r="AX174" s="3"/>
+      <c r="AY174" s="3"/>
+      <c r="AZ174" s="3"/>
+      <c r="BA174" s="3"/>
+      <c r="BB174" s="3"/>
+      <c r="BC174" s="3"/>
+      <c r="BD174" s="3"/>
+      <c r="BE174" s="3"/>
+      <c r="BF174" s="3"/>
+      <c r="BG174" s="3"/>
+      <c r="BH174" s="3"/>
+      <c r="BI174" s="3"/>
+      <c r="BJ174" s="3"/>
+      <c r="BK174" s="3"/>
+      <c r="BL174" s="3"/>
+      <c r="BM174" s="3"/>
+      <c r="BN174" s="3"/>
+      <c r="BO174" s="3"/>
+      <c r="BP174" s="3"/>
+      <c r="BQ174" s="3"/>
+      <c r="BR174" s="3"/>
+      <c r="BS174" s="3"/>
+      <c r="BT174" s="3"/>
+      <c r="BU174" s="3"/>
+      <c r="BV174" s="3"/>
+      <c r="BW174" s="3"/>
+      <c r="BX174" s="3"/>
+      <c r="BY174" s="3"/>
+      <c r="BZ174" s="3"/>
+      <c r="CA174" s="3"/>
+      <c r="CB174" s="3"/>
+      <c r="CC174" s="3"/>
+      <c r="CD174" s="3"/>
+      <c r="CE174" s="3"/>
+      <c r="CF174" s="3"/>
+      <c r="CG174" s="3"/>
+      <c r="CH174" s="3"/>
+      <c r="CI174" s="3"/>
+      <c r="CJ174" s="3"/>
+      <c r="CK174" s="3"/>
+      <c r="CL174" s="3"/>
+      <c r="CM174" s="3"/>
+      <c r="CN174" s="3"/>
+      <c r="CO174" s="3"/>
+      <c r="CP174" s="3"/>
+      <c r="CQ174" s="3"/>
+      <c r="CR174" s="3"/>
+      <c r="CS174" s="3"/>
+      <c r="CT174" s="3"/>
+      <c r="CU174" s="3"/>
+      <c r="CV174" s="3"/>
+      <c r="CW174" s="3"/>
+      <c r="CX174" s="3"/>
+      <c r="CY174" s="3"/>
+      <c r="CZ174" s="3"/>
+      <c r="DA174" s="3"/>
+      <c r="DB174" s="3"/>
+      <c r="DC174" s="3"/>
+      <c r="DD174" s="3"/>
+      <c r="DE174" s="3"/>
+      <c r="DF174" s="3"/>
+      <c r="DG174" s="3"/>
+      <c r="DH174" s="3"/>
+      <c r="DI174" s="3"/>
+      <c r="DJ174" s="3"/>
+      <c r="DK174" s="3"/>
+      <c r="DL174" s="3"/>
+      <c r="DM174" s="3"/>
+      <c r="DN174" s="3"/>
+      <c r="DO174" s="3"/>
+      <c r="DP174" s="3"/>
+      <c r="DQ174" s="3"/>
+      <c r="DR174" s="3"/>
+      <c r="DS174" s="3"/>
+      <c r="DT174" s="3"/>
+      <c r="DU174" s="3"/>
+      <c r="DV174" s="3"/>
+      <c r="DW174" s="3"/>
+      <c r="DX174" s="3"/>
+      <c r="DY174" s="3"/>
+      <c r="DZ174" s="3"/>
+      <c r="EA174" s="3"/>
+      <c r="EB174" s="3"/>
+      <c r="EC174" s="3"/>
+      <c r="ED174" s="3"/>
+      <c r="EE174" s="3"/>
+      <c r="EF174" s="3"/>
+      <c r="EG174" s="3"/>
+      <c r="EH174" s="3"/>
+      <c r="EI174" s="3"/>
+      <c r="EJ174" s="3"/>
+      <c r="EK174" s="3"/>
+      <c r="EL174" s="3"/>
+      <c r="EM174" s="3"/>
+      <c r="EN174" s="3"/>
+    </row>
+    <row r="175" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A175" s="23"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
+    </row>
+    <row r="176" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A176" s="23"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="23"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="23"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="23"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="23"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="23"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A25:E26"/>
-    <mergeCell ref="A27:E28"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="A53:E54"/>
-    <mergeCell ref="A45:E46"/>
+  <mergeCells count="91">
+    <mergeCell ref="A179:E180"/>
+    <mergeCell ref="A157:E158"/>
+    <mergeCell ref="A159:E160"/>
+    <mergeCell ref="A161:E162"/>
+    <mergeCell ref="A163:E164"/>
+    <mergeCell ref="A165:E166"/>
+    <mergeCell ref="A167:E168"/>
+    <mergeCell ref="A169:E170"/>
+    <mergeCell ref="A171:E172"/>
+    <mergeCell ref="A173:E174"/>
+    <mergeCell ref="A175:E176"/>
+    <mergeCell ref="A177:E178"/>
+    <mergeCell ref="A155:E156"/>
+    <mergeCell ref="A133:E134"/>
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A137:E138"/>
+    <mergeCell ref="A139:E140"/>
+    <mergeCell ref="A141:E142"/>
+    <mergeCell ref="A143:E144"/>
+    <mergeCell ref="A145:E146"/>
+    <mergeCell ref="A147:E148"/>
+    <mergeCell ref="A149:E150"/>
+    <mergeCell ref="A151:E152"/>
+    <mergeCell ref="A153:E154"/>
+    <mergeCell ref="A131:E132"/>
+    <mergeCell ref="A109:E110"/>
+    <mergeCell ref="A111:E112"/>
+    <mergeCell ref="A113:E114"/>
+    <mergeCell ref="A115:E116"/>
+    <mergeCell ref="A117:E118"/>
+    <mergeCell ref="A119:E120"/>
+    <mergeCell ref="A121:E122"/>
+    <mergeCell ref="A123:E124"/>
+    <mergeCell ref="A125:E126"/>
+    <mergeCell ref="A127:E128"/>
+    <mergeCell ref="A129:E130"/>
+    <mergeCell ref="A107:E108"/>
+    <mergeCell ref="A79:E80"/>
+    <mergeCell ref="A87:E88"/>
+    <mergeCell ref="A89:E90"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A93:E94"/>
+    <mergeCell ref="A95:E96"/>
+    <mergeCell ref="A97:E98"/>
+    <mergeCell ref="A99:E100"/>
+    <mergeCell ref="A101:E102"/>
+    <mergeCell ref="A103:E104"/>
+    <mergeCell ref="A105:E106"/>
+    <mergeCell ref="A81:E82"/>
+    <mergeCell ref="A83:E84"/>
+    <mergeCell ref="A85:E86"/>
+    <mergeCell ref="A77:E78"/>
+    <mergeCell ref="A75:E76"/>
+    <mergeCell ref="A37:E38"/>
+    <mergeCell ref="A39:E40"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A43:E44"/>
+    <mergeCell ref="A55:E56"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A57:E58"/>
+    <mergeCell ref="A65:E66"/>
+    <mergeCell ref="A67:E68"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A71:E72"/>
+    <mergeCell ref="A73:E74"/>
+    <mergeCell ref="A51:E52"/>
+    <mergeCell ref="A63:E64"/>
     <mergeCell ref="A15:E16"/>
     <mergeCell ref="A59:E60"/>
     <mergeCell ref="A47:E48"/>
@@ -22434,72 +23405,14 @@
     <mergeCell ref="A21:E22"/>
     <mergeCell ref="A23:E24"/>
     <mergeCell ref="A29:E30"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A25:E26"/>
+    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="A53:E54"/>
+    <mergeCell ref="A45:E46"/>
     <mergeCell ref="A31:E32"/>
     <mergeCell ref="A33:E34"/>
-    <mergeCell ref="A77:E78"/>
-    <mergeCell ref="A75:E76"/>
-    <mergeCell ref="A37:E38"/>
-    <mergeCell ref="A39:E40"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A43:E44"/>
-    <mergeCell ref="A55:E56"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A57:E58"/>
-    <mergeCell ref="A65:E66"/>
-    <mergeCell ref="A67:E68"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A71:E72"/>
-    <mergeCell ref="A73:E74"/>
-    <mergeCell ref="A51:E52"/>
-    <mergeCell ref="A63:E64"/>
-    <mergeCell ref="A101:E102"/>
-    <mergeCell ref="A79:E80"/>
-    <mergeCell ref="A81:E82"/>
-    <mergeCell ref="A83:E84"/>
-    <mergeCell ref="A85:E86"/>
-    <mergeCell ref="A87:E88"/>
-    <mergeCell ref="A89:E90"/>
-    <mergeCell ref="A91:E92"/>
-    <mergeCell ref="A93:E94"/>
-    <mergeCell ref="A95:E96"/>
-    <mergeCell ref="A97:E98"/>
-    <mergeCell ref="A99:E100"/>
-    <mergeCell ref="A125:E126"/>
-    <mergeCell ref="A103:E104"/>
-    <mergeCell ref="A105:E106"/>
-    <mergeCell ref="A107:E108"/>
-    <mergeCell ref="A109:E110"/>
-    <mergeCell ref="A111:E112"/>
-    <mergeCell ref="A113:E114"/>
-    <mergeCell ref="A115:E116"/>
-    <mergeCell ref="A117:E118"/>
-    <mergeCell ref="A119:E120"/>
-    <mergeCell ref="A121:E122"/>
-    <mergeCell ref="A123:E124"/>
-    <mergeCell ref="A149:E150"/>
-    <mergeCell ref="A127:E128"/>
-    <mergeCell ref="A129:E130"/>
-    <mergeCell ref="A131:E132"/>
-    <mergeCell ref="A133:E134"/>
-    <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A137:E138"/>
-    <mergeCell ref="A139:E140"/>
-    <mergeCell ref="A141:E142"/>
-    <mergeCell ref="A143:E144"/>
-    <mergeCell ref="A145:E146"/>
-    <mergeCell ref="A147:E148"/>
-    <mergeCell ref="A173:E174"/>
-    <mergeCell ref="A151:E152"/>
-    <mergeCell ref="A153:E154"/>
-    <mergeCell ref="A155:E156"/>
-    <mergeCell ref="A157:E158"/>
-    <mergeCell ref="A159:E160"/>
-    <mergeCell ref="A161:E162"/>
-    <mergeCell ref="A163:E164"/>
-    <mergeCell ref="A165:E166"/>
-    <mergeCell ref="A167:E168"/>
-    <mergeCell ref="A169:E170"/>
-    <mergeCell ref="A171:E172"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/스케쥴.xlsx
+++ b/스케쥴.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="227">
   <si>
     <t>기획서 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,27 +466,11 @@
     <t>12월 31일</t>
   </si>
   <si>
-    <t>살아남기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 메인게임 에피소드 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업그레이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랭킹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -519,10 +503,6 @@
   </si>
   <si>
     <t>Player Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 기능구현.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -563,10 +543,6 @@
   </si>
   <si>
     <t>Player Jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player Animation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -619,10 +595,6 @@
   </si>
   <si>
     <t>세이브.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Camera (15일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -773,6 +745,26 @@
   </si>
   <si>
     <t>게임머니 결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 기능구현.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera (15일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">총 106일 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정사항 : 살아남기 뺐어요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1091,16 +1083,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1137,21 +1144,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1461,13 +1453,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FS192"/>
+  <dimension ref="A1:FS184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AA84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="FA93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A99" sqref="A99:E100"/>
+      <selection pane="bottomRight" activeCell="FK121" sqref="FK121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1478,14 +1470,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="8" t="s">
         <v>77</v>
       </c>
@@ -1901,106 +1893,106 @@
         <v>143</v>
       </c>
       <c r="EO1" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="EP1" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="EQ1" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="ER1" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="ES1" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="ET1" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="EU1" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="EV1" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="EP1" s="22" t="s">
+      <c r="EW1" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="EQ1" s="22" t="s">
+      <c r="EX1" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="ER1" s="22" t="s">
+      <c r="EY1" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="ES1" s="22" t="s">
+      <c r="EZ1" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="ET1" s="22" t="s">
+      <c r="FA1" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="EU1" s="22" t="s">
+      <c r="FB1" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="EV1" s="22" t="s">
+      <c r="FC1" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="EW1" s="22" t="s">
+      <c r="FD1" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="EX1" s="22" t="s">
+      <c r="FE1" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="EY1" s="22" t="s">
+      <c r="FF1" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="EZ1" s="22" t="s">
+      <c r="FG1" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="FA1" s="22" t="s">
+      <c r="FH1" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="FB1" s="22" t="s">
+      <c r="FI1" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="FC1" s="22" t="s">
+      <c r="FJ1" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="FD1" s="22" t="s">
+      <c r="FK1" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="FE1" s="22" t="s">
+      <c r="FL1" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="FF1" s="22" t="s">
+      <c r="FM1" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="FG1" s="22" t="s">
+      <c r="FN1" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="FH1" s="22" t="s">
+      <c r="FO1" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="FI1" s="22" t="s">
+      <c r="FP1" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="FJ1" s="22" t="s">
+      <c r="FQ1" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="FK1" s="22" t="s">
+      <c r="FR1" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="FL1" s="22" t="s">
+      <c r="FS1" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="FM1" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="FN1" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="FO1" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="FP1" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="FQ1" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="FR1" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="FS1" s="22" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -2020,13 +2012,13 @@
       <c r="W2" s="8"/>
     </row>
     <row r="3" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="2" t="s">
         <v>111</v>
       </c>
@@ -2048,11 +2040,11 @@
       <c r="V3" s="14"/>
     </row>
     <row r="4" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -2075,13 +2067,13 @@
       <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="2" t="s">
         <v>111</v>
       </c>
@@ -2093,20 +2085,20 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="2" t="s">
         <v>111</v>
       </c>
@@ -2118,20 +2110,20 @@
       <c r="R7" s="16"/>
     </row>
     <row r="8" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="2" t="s">
         <v>111</v>
       </c>
@@ -2153,11 +2145,11 @@
       <c r="V9" s="16"/>
     </row>
     <row r="10" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -2180,11 +2172,11 @@
       <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:175" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="5" t="s">
         <v>111</v>
       </c>
@@ -2359,11 +2351,11 @@
       <c r="FS11" s="13"/>
     </row>
     <row r="12" spans="1:175" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -2535,13 +2527,13 @@
       <c r="FS12" s="13"/>
     </row>
     <row r="13" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="19" t="s">
         <v>111</v>
       </c>
@@ -2716,11 +2708,11 @@
       <c r="FS13" s="15"/>
     </row>
     <row r="14" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -2893,7 +2885,7 @@
     </row>
     <row r="15" spans="1:175" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -3179,14 +3171,14 @@
       <c r="EM16" s="15"/>
       <c r="EN16" s="15"/>
     </row>
-    <row r="17" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="4" t="s">
         <v>111</v>
       </c>
@@ -3326,12 +3318,12 @@
       <c r="EM17" s="15"/>
       <c r="EN17" s="15"/>
     </row>
-    <row r="18" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+    <row r="18" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -3353,7 +3345,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="20"/>
-      <c r="AB18" s="15"/>
+      <c r="AB18" s="20"/>
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
       <c r="AE18" s="15"/>
@@ -3468,15 +3460,15 @@
       <c r="EM18" s="15"/>
       <c r="EN18" s="15"/>
     </row>
-    <row r="19" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="4" t="s">
+    <row r="19" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G19" s="15"/>
@@ -3615,12 +3607,12 @@
       <c r="EM19" s="15"/>
       <c r="EN19" s="15"/>
     </row>
-    <row r="20" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+    <row r="20" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
@@ -3641,9 +3633,9 @@
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="20"/>
       <c r="AD20" s="15"/>
       <c r="AE20" s="15"/>
       <c r="AF20" s="15"/>
@@ -3757,15 +3749,15 @@
       <c r="EM20" s="15"/>
       <c r="EN20" s="15"/>
     </row>
-    <row r="21" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="2" t="s">
+    <row r="21" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G21" s="15"/>
@@ -3904,12 +3896,12 @@
       <c r="EM21" s="15"/>
       <c r="EN21" s="15"/>
     </row>
-    <row r="22" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+    <row r="22" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -3932,10 +3924,10 @@
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
-      <c r="AC22" s="20"/>
+      <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
+      <c r="AF22" s="17"/>
       <c r="AG22" s="15"/>
       <c r="AH22" s="15"/>
       <c r="AI22" s="15"/>
@@ -4046,9 +4038,9 @@
       <c r="EM22" s="15"/>
       <c r="EN22" s="15"/>
     </row>
-    <row r="23" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:175" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -4193,7 +4185,7 @@
       <c r="EM23" s="15"/>
       <c r="EN23" s="15"/>
     </row>
-    <row r="24" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:175" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -4222,7 +4214,7 @@
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="15"/>
-      <c r="AD24" s="20"/>
+      <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
@@ -4335,15 +4327,15 @@
       <c r="EM24" s="15"/>
       <c r="EN24" s="15"/>
     </row>
-    <row r="25" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="4" t="s">
+    <row r="25" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="19" t="s">
         <v>111</v>
       </c>
       <c r="G25" s="15"/>
@@ -4373,27 +4365,30 @@
       <c r="AE25" s="15"/>
       <c r="AF25" s="15"/>
       <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
-      <c r="AO25" s="15"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="15"/>
-      <c r="AR25" s="15"/>
-      <c r="AS25" s="15"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
       <c r="AT25" s="15"/>
       <c r="AU25" s="15"/>
-      <c r="AV25" s="15"/>
-      <c r="AW25" s="15"/>
-      <c r="AX25" s="15"/>
-      <c r="AY25" s="15"/>
-      <c r="AZ25" s="15"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
       <c r="BA25" s="15"/>
       <c r="BB25" s="15"/>
-      <c r="BC25" s="15"/>
-      <c r="BD25" s="15"/>
-      <c r="BE25" s="15"/>
+      <c r="BC25" s="14"/>
+      <c r="BD25" s="14"/>
+      <c r="BE25" s="14"/>
       <c r="BF25" s="15"/>
       <c r="BG25" s="15"/>
       <c r="BH25" s="15"/>
@@ -4481,13 +4476,44 @@
       <c r="EL25" s="15"/>
       <c r="EM25" s="15"/>
       <c r="EN25" s="15"/>
+      <c r="EO25" s="15"/>
+      <c r="EP25" s="15"/>
+      <c r="EQ25" s="15"/>
+      <c r="ER25" s="15"/>
+      <c r="ES25" s="15"/>
+      <c r="ET25" s="15"/>
+      <c r="EU25" s="15"/>
+      <c r="EV25" s="15"/>
+      <c r="EW25" s="15"/>
+      <c r="EX25" s="15"/>
+      <c r="EY25" s="15"/>
+      <c r="EZ25" s="15"/>
+      <c r="FA25" s="15"/>
+      <c r="FB25" s="15"/>
+      <c r="FC25" s="15"/>
+      <c r="FD25" s="15"/>
+      <c r="FE25" s="15"/>
+      <c r="FF25" s="15"/>
+      <c r="FG25" s="15"/>
+      <c r="FH25" s="15"/>
+      <c r="FI25" s="15"/>
+      <c r="FJ25" s="15"/>
+      <c r="FK25" s="15"/>
+      <c r="FL25" s="15"/>
+      <c r="FM25" s="15"/>
+      <c r="FN25" s="15"/>
+      <c r="FO25" s="15"/>
+      <c r="FP25" s="15"/>
+      <c r="FQ25" s="15"/>
+      <c r="FR25" s="15"/>
+      <c r="FS25" s="15"/>
     </row>
-    <row r="26" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+    <row r="26" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
@@ -4513,29 +4539,32 @@
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
       <c r="AE26" s="15"/>
-      <c r="AF26" s="17"/>
+      <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
       <c r="AM26" s="15"/>
       <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="15"/>
-      <c r="AR26" s="15"/>
-      <c r="AS26" s="15"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="14"/>
       <c r="AT26" s="15"/>
       <c r="AU26" s="15"/>
-      <c r="AV26" s="15"/>
-      <c r="AW26" s="15"/>
-      <c r="AX26" s="15"/>
-      <c r="AY26" s="15"/>
-      <c r="AZ26" s="15"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="14"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
+      <c r="AZ26" s="14"/>
       <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
-      <c r="BC26" s="15"/>
-      <c r="BD26" s="15"/>
-      <c r="BE26" s="15"/>
+      <c r="BC26" s="14"/>
+      <c r="BD26" s="14"/>
+      <c r="BE26" s="14"/>
       <c r="BF26" s="15"/>
       <c r="BG26" s="15"/>
       <c r="BH26" s="15"/>
@@ -4623,16 +4652,47 @@
       <c r="EL26" s="15"/>
       <c r="EM26" s="15"/>
       <c r="EN26" s="15"/>
+      <c r="EO26" s="15"/>
+      <c r="EP26" s="15"/>
+      <c r="EQ26" s="15"/>
+      <c r="ER26" s="15"/>
+      <c r="ES26" s="15"/>
+      <c r="ET26" s="15"/>
+      <c r="EU26" s="15"/>
+      <c r="EV26" s="15"/>
+      <c r="EW26" s="15"/>
+      <c r="EX26" s="15"/>
+      <c r="EY26" s="15"/>
+      <c r="EZ26" s="15"/>
+      <c r="FA26" s="15"/>
+      <c r="FB26" s="15"/>
+      <c r="FC26" s="15"/>
+      <c r="FD26" s="15"/>
+      <c r="FE26" s="15"/>
+      <c r="FF26" s="15"/>
+      <c r="FG26" s="15"/>
+      <c r="FH26" s="15"/>
+      <c r="FI26" s="15"/>
+      <c r="FJ26" s="15"/>
+      <c r="FK26" s="15"/>
+      <c r="FL26" s="15"/>
+      <c r="FM26" s="15"/>
+      <c r="FN26" s="15"/>
+      <c r="FO26" s="15"/>
+      <c r="FP26" s="15"/>
+      <c r="FQ26" s="15"/>
+      <c r="FR26" s="15"/>
+      <c r="FS26" s="15"/>
     </row>
-    <row r="27" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="4" t="s">
+    <row r="27" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G27" s="15"/>
@@ -4771,12 +4831,12 @@
       <c r="EM27" s="15"/>
       <c r="EN27" s="15"/>
     </row>
-    <row r="28" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+    <row r="28" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
@@ -4802,7 +4862,7 @@
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
       <c r="AE28" s="15"/>
-      <c r="AF28" s="17"/>
+      <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="15"/>
       <c r="AI28" s="15"/>
@@ -4913,14 +4973,14 @@
       <c r="EM28" s="15"/>
       <c r="EN28" s="15"/>
     </row>
-    <row r="29" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+    <row r="29" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="2" t="s">
         <v>111</v>
       </c>
@@ -5060,12 +5120,12 @@
       <c r="EM29" s="15"/>
       <c r="EN29" s="15"/>
     </row>
-    <row r="30" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+    <row r="30" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
@@ -5091,7 +5151,7 @@
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
-      <c r="AF30" s="17"/>
+      <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
       <c r="AH30" s="15"/>
       <c r="AI30" s="15"/>
@@ -5202,15 +5262,15 @@
       <c r="EM30" s="15"/>
       <c r="EN30" s="15"/>
     </row>
-    <row r="31" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="2" t="s">
+    <row r="31" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G31" s="15"/>
@@ -5349,12 +5409,12 @@
       <c r="EM31" s="15"/>
       <c r="EN31" s="15"/>
     </row>
-    <row r="32" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+    <row r="32" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
@@ -5492,13 +5552,13 @@
       <c r="EN32" s="15"/>
     </row>
     <row r="33" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="A33" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="19" t="s">
         <v>111</v>
       </c>
@@ -5529,51 +5589,51 @@
       <c r="AE33" s="15"/>
       <c r="AF33" s="15"/>
       <c r="AG33" s="15"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
       <c r="AJ33" s="12"/>
       <c r="AK33" s="12"/>
       <c r="AL33" s="12"/>
       <c r="AM33" s="15"/>
       <c r="AN33" s="15"/>
-      <c r="AO33" s="14"/>
-      <c r="AP33" s="14"/>
-      <c r="AQ33" s="14"/>
-      <c r="AR33" s="14"/>
-      <c r="AS33" s="14"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="15"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
       <c r="AT33" s="15"/>
       <c r="AU33" s="15"/>
-      <c r="AV33" s="14"/>
-      <c r="AW33" s="14"/>
-      <c r="AX33" s="14"/>
-      <c r="AY33" s="14"/>
-      <c r="AZ33" s="14"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="15"/>
       <c r="BA33" s="15"/>
       <c r="BB33" s="15"/>
-      <c r="BC33" s="14"/>
-      <c r="BD33" s="14"/>
-      <c r="BE33" s="14"/>
-      <c r="BF33" s="15"/>
-      <c r="BG33" s="15"/>
+      <c r="BC33" s="15"/>
+      <c r="BD33" s="15"/>
+      <c r="BE33" s="15"/>
+      <c r="BF33" s="14"/>
+      <c r="BG33" s="14"/>
       <c r="BH33" s="15"/>
       <c r="BI33" s="15"/>
-      <c r="BJ33" s="15"/>
-      <c r="BK33" s="15"/>
-      <c r="BL33" s="15"/>
-      <c r="BM33" s="15"/>
-      <c r="BN33" s="15"/>
+      <c r="BJ33" s="14"/>
+      <c r="BK33" s="14"/>
+      <c r="BL33" s="14"/>
+      <c r="BM33" s="14"/>
+      <c r="BN33" s="14"/>
       <c r="BO33" s="15"/>
       <c r="BP33" s="15"/>
-      <c r="BQ33" s="15"/>
-      <c r="BR33" s="15"/>
-      <c r="BS33" s="15"/>
-      <c r="BT33" s="15"/>
-      <c r="BU33" s="15"/>
+      <c r="BQ33" s="14"/>
+      <c r="BR33" s="14"/>
+      <c r="BS33" s="14"/>
+      <c r="BT33" s="14"/>
+      <c r="BU33" s="14"/>
       <c r="BV33" s="15"/>
       <c r="BW33" s="15"/>
-      <c r="BX33" s="15"/>
-      <c r="BY33" s="15"/>
-      <c r="BZ33" s="15"/>
+      <c r="BX33" s="14"/>
+      <c r="BY33" s="14"/>
+      <c r="BZ33" s="14"/>
       <c r="CA33" s="15"/>
       <c r="CB33" s="15"/>
       <c r="CC33" s="15"/>
@@ -5673,11 +5733,11 @@
       <c r="FS33" s="15"/>
     </row>
     <row r="34" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
@@ -5705,51 +5765,51 @@
       <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
       <c r="AG34" s="15"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
       <c r="AJ34" s="12"/>
       <c r="AK34" s="12"/>
       <c r="AL34" s="12"/>
       <c r="AM34" s="15"/>
       <c r="AN34" s="15"/>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="14"/>
-      <c r="AR34" s="14"/>
-      <c r="AS34" s="14"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="15"/>
+      <c r="AR34" s="15"/>
+      <c r="AS34" s="15"/>
       <c r="AT34" s="15"/>
       <c r="AU34" s="15"/>
-      <c r="AV34" s="14"/>
-      <c r="AW34" s="14"/>
-      <c r="AX34" s="14"/>
-      <c r="AY34" s="14"/>
-      <c r="AZ34" s="14"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="15"/>
+      <c r="AY34" s="15"/>
+      <c r="AZ34" s="15"/>
       <c r="BA34" s="15"/>
       <c r="BB34" s="15"/>
-      <c r="BC34" s="14"/>
-      <c r="BD34" s="14"/>
-      <c r="BE34" s="14"/>
-      <c r="BF34" s="15"/>
-      <c r="BG34" s="15"/>
+      <c r="BC34" s="15"/>
+      <c r="BD34" s="15"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="14"/>
+      <c r="BG34" s="14"/>
       <c r="BH34" s="15"/>
       <c r="BI34" s="15"/>
-      <c r="BJ34" s="15"/>
-      <c r="BK34" s="15"/>
-      <c r="BL34" s="15"/>
-      <c r="BM34" s="15"/>
-      <c r="BN34" s="15"/>
+      <c r="BJ34" s="14"/>
+      <c r="BK34" s="14"/>
+      <c r="BL34" s="14"/>
+      <c r="BM34" s="14"/>
+      <c r="BN34" s="14"/>
       <c r="BO34" s="15"/>
       <c r="BP34" s="15"/>
-      <c r="BQ34" s="15"/>
-      <c r="BR34" s="15"/>
-      <c r="BS34" s="15"/>
-      <c r="BT34" s="15"/>
-      <c r="BU34" s="15"/>
+      <c r="BQ34" s="14"/>
+      <c r="BR34" s="14"/>
+      <c r="BS34" s="14"/>
+      <c r="BT34" s="14"/>
+      <c r="BU34" s="14"/>
       <c r="BV34" s="15"/>
       <c r="BW34" s="15"/>
-      <c r="BX34" s="15"/>
-      <c r="BY34" s="15"/>
-      <c r="BZ34" s="15"/>
+      <c r="BX34" s="14"/>
+      <c r="BY34" s="14"/>
+      <c r="BZ34" s="14"/>
       <c r="CA34" s="15"/>
       <c r="CB34" s="15"/>
       <c r="CC34" s="15"/>
@@ -5850,7 +5910,7 @@
     </row>
     <row r="35" spans="1:175" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -6138,13 +6198,13 @@
       <c r="EN36" s="15"/>
     </row>
     <row r="37" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
+      <c r="A37" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="2" t="s">
         <v>111</v>
       </c>
@@ -6285,11 +6345,11 @@
       <c r="EN37" s="15"/>
     </row>
     <row r="38" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
@@ -6427,14 +6487,14 @@
       <c r="EN38" s="15"/>
     </row>
     <row r="39" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="7" t="s">
+      <c r="A39" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G39" s="15"/>
@@ -6574,11 +6634,11 @@
       <c r="EN39" s="15"/>
     </row>
     <row r="40" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
@@ -6715,15 +6775,15 @@
       <c r="EM40" s="15"/>
       <c r="EN40" s="15"/>
     </row>
-    <row r="41" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="19" t="s">
+    <row r="41" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G41" s="15"/>
@@ -6755,9 +6815,6 @@
       <c r="AG41" s="15"/>
       <c r="AH41" s="15"/>
       <c r="AI41" s="15"/>
-      <c r="AJ41" s="12"/>
-      <c r="AK41" s="12"/>
-      <c r="AL41" s="12"/>
       <c r="AM41" s="15"/>
       <c r="AN41" s="15"/>
       <c r="AO41" s="15"/>
@@ -6777,27 +6834,27 @@
       <c r="BC41" s="15"/>
       <c r="BD41" s="15"/>
       <c r="BE41" s="15"/>
-      <c r="BF41" s="14"/>
-      <c r="BG41" s="14"/>
+      <c r="BF41" s="15"/>
+      <c r="BG41" s="15"/>
       <c r="BH41" s="15"/>
       <c r="BI41" s="15"/>
-      <c r="BJ41" s="14"/>
-      <c r="BK41" s="14"/>
-      <c r="BL41" s="14"/>
-      <c r="BM41" s="14"/>
-      <c r="BN41" s="14"/>
+      <c r="BJ41" s="15"/>
+      <c r="BK41" s="15"/>
+      <c r="BL41" s="15"/>
+      <c r="BM41" s="15"/>
+      <c r="BN41" s="15"/>
       <c r="BO41" s="15"/>
       <c r="BP41" s="15"/>
-      <c r="BQ41" s="14"/>
-      <c r="BR41" s="14"/>
-      <c r="BS41" s="14"/>
-      <c r="BT41" s="14"/>
-      <c r="BU41" s="14"/>
+      <c r="BQ41" s="15"/>
+      <c r="BR41" s="15"/>
+      <c r="BS41" s="15"/>
+      <c r="BT41" s="15"/>
+      <c r="BU41" s="15"/>
       <c r="BV41" s="15"/>
       <c r="BW41" s="15"/>
-      <c r="BX41" s="14"/>
-      <c r="BY41" s="14"/>
-      <c r="BZ41" s="14"/>
+      <c r="BX41" s="15"/>
+      <c r="BY41" s="15"/>
+      <c r="BZ41" s="15"/>
       <c r="CA41" s="15"/>
       <c r="CB41" s="15"/>
       <c r="CC41" s="15"/>
@@ -6864,44 +6921,13 @@
       <c r="EL41" s="15"/>
       <c r="EM41" s="15"/>
       <c r="EN41" s="15"/>
-      <c r="EO41" s="15"/>
-      <c r="EP41" s="15"/>
-      <c r="EQ41" s="15"/>
-      <c r="ER41" s="15"/>
-      <c r="ES41" s="15"/>
-      <c r="ET41" s="15"/>
-      <c r="EU41" s="15"/>
-      <c r="EV41" s="15"/>
-      <c r="EW41" s="15"/>
-      <c r="EX41" s="15"/>
-      <c r="EY41" s="15"/>
-      <c r="EZ41" s="15"/>
-      <c r="FA41" s="15"/>
-      <c r="FB41" s="15"/>
-      <c r="FC41" s="15"/>
-      <c r="FD41" s="15"/>
-      <c r="FE41" s="15"/>
-      <c r="FF41" s="15"/>
-      <c r="FG41" s="15"/>
-      <c r="FH41" s="15"/>
-      <c r="FI41" s="15"/>
-      <c r="FJ41" s="15"/>
-      <c r="FK41" s="15"/>
-      <c r="FL41" s="15"/>
-      <c r="FM41" s="15"/>
-      <c r="FN41" s="15"/>
-      <c r="FO41" s="15"/>
-      <c r="FP41" s="15"/>
-      <c r="FQ41" s="15"/>
-      <c r="FR41" s="15"/>
-      <c r="FS41" s="15"/>
     </row>
-    <row r="42" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+    <row r="42" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
@@ -6931,9 +6957,6 @@
       <c r="AG42" s="15"/>
       <c r="AH42" s="15"/>
       <c r="AI42" s="15"/>
-      <c r="AJ42" s="12"/>
-      <c r="AK42" s="12"/>
-      <c r="AL42" s="12"/>
       <c r="AM42" s="15"/>
       <c r="AN42" s="15"/>
       <c r="AO42" s="15"/>
@@ -6953,27 +6976,27 @@
       <c r="BC42" s="15"/>
       <c r="BD42" s="15"/>
       <c r="BE42" s="15"/>
-      <c r="BF42" s="14"/>
-      <c r="BG42" s="14"/>
+      <c r="BF42" s="15"/>
+      <c r="BG42" s="15"/>
       <c r="BH42" s="15"/>
       <c r="BI42" s="15"/>
-      <c r="BJ42" s="14"/>
-      <c r="BK42" s="14"/>
-      <c r="BL42" s="14"/>
-      <c r="BM42" s="14"/>
-      <c r="BN42" s="14"/>
+      <c r="BJ42" s="15"/>
+      <c r="BK42" s="15"/>
+      <c r="BL42" s="15"/>
+      <c r="BM42" s="15"/>
+      <c r="BN42" s="15"/>
       <c r="BO42" s="15"/>
       <c r="BP42" s="15"/>
-      <c r="BQ42" s="14"/>
-      <c r="BR42" s="14"/>
-      <c r="BS42" s="14"/>
-      <c r="BT42" s="14"/>
-      <c r="BU42" s="14"/>
+      <c r="BQ42" s="15"/>
+      <c r="BR42" s="15"/>
+      <c r="BS42" s="15"/>
+      <c r="BT42" s="15"/>
+      <c r="BU42" s="15"/>
       <c r="BV42" s="15"/>
       <c r="BW42" s="15"/>
-      <c r="BX42" s="14"/>
-      <c r="BY42" s="14"/>
-      <c r="BZ42" s="14"/>
+      <c r="BX42" s="15"/>
+      <c r="BY42" s="15"/>
+      <c r="BZ42" s="15"/>
       <c r="CA42" s="15"/>
       <c r="CB42" s="15"/>
       <c r="CC42" s="15"/>
@@ -7040,47 +7063,16 @@
       <c r="EL42" s="15"/>
       <c r="EM42" s="15"/>
       <c r="EN42" s="15"/>
-      <c r="EO42" s="15"/>
-      <c r="EP42" s="15"/>
-      <c r="EQ42" s="15"/>
-      <c r="ER42" s="15"/>
-      <c r="ES42" s="15"/>
-      <c r="ET42" s="15"/>
-      <c r="EU42" s="15"/>
-      <c r="EV42" s="15"/>
-      <c r="EW42" s="15"/>
-      <c r="EX42" s="15"/>
-      <c r="EY42" s="15"/>
-      <c r="EZ42" s="15"/>
-      <c r="FA42" s="15"/>
-      <c r="FB42" s="15"/>
-      <c r="FC42" s="15"/>
-      <c r="FD42" s="15"/>
-      <c r="FE42" s="15"/>
-      <c r="FF42" s="15"/>
-      <c r="FG42" s="15"/>
-      <c r="FH42" s="15"/>
-      <c r="FI42" s="15"/>
-      <c r="FJ42" s="15"/>
-      <c r="FK42" s="15"/>
-      <c r="FL42" s="15"/>
-      <c r="FM42" s="15"/>
-      <c r="FN42" s="15"/>
-      <c r="FO42" s="15"/>
-      <c r="FP42" s="15"/>
-      <c r="FQ42" s="15"/>
-      <c r="FR42" s="15"/>
-      <c r="FS42" s="15"/>
     </row>
     <row r="43" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A43" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="2" t="s">
+      <c r="A43" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G43" s="15"/>
@@ -7220,11 +7212,11 @@
       <c r="EN43" s="15"/>
     </row>
     <row r="44" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
@@ -7361,15 +7353,15 @@
       <c r="EM44" s="15"/>
       <c r="EN44" s="15"/>
     </row>
-    <row r="45" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="2" t="s">
+    <row r="45" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="19" t="s">
         <v>111</v>
       </c>
       <c r="G45" s="15"/>
@@ -7401,6 +7393,9 @@
       <c r="AG45" s="15"/>
       <c r="AH45" s="15"/>
       <c r="AI45" s="15"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
       <c r="AM45" s="15"/>
       <c r="AN45" s="15"/>
       <c r="AO45" s="15"/>
@@ -7441,27 +7436,27 @@
       <c r="BX45" s="15"/>
       <c r="BY45" s="15"/>
       <c r="BZ45" s="15"/>
-      <c r="CA45" s="15"/>
-      <c r="CB45" s="15"/>
+      <c r="CA45" s="14"/>
+      <c r="CB45" s="14"/>
       <c r="CC45" s="15"/>
       <c r="CD45" s="15"/>
-      <c r="CE45" s="15"/>
-      <c r="CF45" s="15"/>
-      <c r="CG45" s="15"/>
-      <c r="CH45" s="15"/>
-      <c r="CI45" s="15"/>
+      <c r="CE45" s="14"/>
+      <c r="CF45" s="14"/>
+      <c r="CG45" s="14"/>
+      <c r="CH45" s="14"/>
+      <c r="CI45" s="14"/>
       <c r="CJ45" s="15"/>
       <c r="CK45" s="15"/>
-      <c r="CL45" s="15"/>
-      <c r="CM45" s="15"/>
-      <c r="CN45" s="15"/>
-      <c r="CO45" s="15"/>
-      <c r="CP45" s="15"/>
+      <c r="CL45" s="14"/>
+      <c r="CM45" s="14"/>
+      <c r="CN45" s="14"/>
+      <c r="CO45" s="14"/>
+      <c r="CP45" s="14"/>
       <c r="CQ45" s="15"/>
       <c r="CR45" s="15"/>
-      <c r="CS45" s="15"/>
-      <c r="CT45" s="15"/>
-      <c r="CU45" s="15"/>
+      <c r="CS45" s="14"/>
+      <c r="CT45" s="14"/>
+      <c r="CU45" s="14"/>
       <c r="CV45" s="15"/>
       <c r="CW45" s="15"/>
       <c r="CX45" s="15"/>
@@ -7507,13 +7502,44 @@
       <c r="EL45" s="15"/>
       <c r="EM45" s="15"/>
       <c r="EN45" s="15"/>
+      <c r="EO45" s="15"/>
+      <c r="EP45" s="15"/>
+      <c r="EQ45" s="15"/>
+      <c r="ER45" s="15"/>
+      <c r="ES45" s="15"/>
+      <c r="ET45" s="15"/>
+      <c r="EU45" s="15"/>
+      <c r="EV45" s="15"/>
+      <c r="EW45" s="15"/>
+      <c r="EX45" s="15"/>
+      <c r="EY45" s="15"/>
+      <c r="EZ45" s="15"/>
+      <c r="FA45" s="15"/>
+      <c r="FB45" s="15"/>
+      <c r="FC45" s="15"/>
+      <c r="FD45" s="15"/>
+      <c r="FE45" s="15"/>
+      <c r="FF45" s="15"/>
+      <c r="FG45" s="15"/>
+      <c r="FH45" s="15"/>
+      <c r="FI45" s="15"/>
+      <c r="FJ45" s="15"/>
+      <c r="FK45" s="15"/>
+      <c r="FL45" s="15"/>
+      <c r="FM45" s="15"/>
+      <c r="FN45" s="15"/>
+      <c r="FO45" s="15"/>
+      <c r="FP45" s="15"/>
+      <c r="FQ45" s="15"/>
+      <c r="FR45" s="15"/>
+      <c r="FS45" s="15"/>
     </row>
-    <row r="46" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
+    <row r="46" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
@@ -7543,6 +7569,9 @@
       <c r="AG46" s="15"/>
       <c r="AH46" s="15"/>
       <c r="AI46" s="15"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
       <c r="AM46" s="15"/>
       <c r="AN46" s="15"/>
       <c r="AO46" s="15"/>
@@ -7583,27 +7612,27 @@
       <c r="BX46" s="15"/>
       <c r="BY46" s="15"/>
       <c r="BZ46" s="15"/>
-      <c r="CA46" s="15"/>
-      <c r="CB46" s="15"/>
+      <c r="CA46" s="14"/>
+      <c r="CB46" s="14"/>
       <c r="CC46" s="15"/>
       <c r="CD46" s="15"/>
-      <c r="CE46" s="15"/>
-      <c r="CF46" s="15"/>
-      <c r="CG46" s="15"/>
-      <c r="CH46" s="15"/>
-      <c r="CI46" s="15"/>
+      <c r="CE46" s="14"/>
+      <c r="CF46" s="14"/>
+      <c r="CG46" s="14"/>
+      <c r="CH46" s="14"/>
+      <c r="CI46" s="14"/>
       <c r="CJ46" s="15"/>
       <c r="CK46" s="15"/>
-      <c r="CL46" s="15"/>
-      <c r="CM46" s="15"/>
-      <c r="CN46" s="15"/>
-      <c r="CO46" s="15"/>
-      <c r="CP46" s="15"/>
+      <c r="CL46" s="14"/>
+      <c r="CM46" s="14"/>
+      <c r="CN46" s="14"/>
+      <c r="CO46" s="14"/>
+      <c r="CP46" s="14"/>
       <c r="CQ46" s="15"/>
       <c r="CR46" s="15"/>
-      <c r="CS46" s="15"/>
-      <c r="CT46" s="15"/>
-      <c r="CU46" s="15"/>
+      <c r="CS46" s="14"/>
+      <c r="CT46" s="14"/>
+      <c r="CU46" s="14"/>
       <c r="CV46" s="15"/>
       <c r="CW46" s="15"/>
       <c r="CX46" s="15"/>
@@ -7649,16 +7678,47 @@
       <c r="EL46" s="15"/>
       <c r="EM46" s="15"/>
       <c r="EN46" s="15"/>
+      <c r="EO46" s="15"/>
+      <c r="EP46" s="15"/>
+      <c r="EQ46" s="15"/>
+      <c r="ER46" s="15"/>
+      <c r="ES46" s="15"/>
+      <c r="ET46" s="15"/>
+      <c r="EU46" s="15"/>
+      <c r="EV46" s="15"/>
+      <c r="EW46" s="15"/>
+      <c r="EX46" s="15"/>
+      <c r="EY46" s="15"/>
+      <c r="EZ46" s="15"/>
+      <c r="FA46" s="15"/>
+      <c r="FB46" s="15"/>
+      <c r="FC46" s="15"/>
+      <c r="FD46" s="15"/>
+      <c r="FE46" s="15"/>
+      <c r="FF46" s="15"/>
+      <c r="FG46" s="15"/>
+      <c r="FH46" s="15"/>
+      <c r="FI46" s="15"/>
+      <c r="FJ46" s="15"/>
+      <c r="FK46" s="15"/>
+      <c r="FL46" s="15"/>
+      <c r="FM46" s="15"/>
+      <c r="FN46" s="15"/>
+      <c r="FO46" s="15"/>
+      <c r="FP46" s="15"/>
+      <c r="FQ46" s="15"/>
+      <c r="FR46" s="15"/>
+      <c r="FS46" s="15"/>
     </row>
-    <row r="47" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A47" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="3" t="s">
+    <row r="47" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="19" t="s">
         <v>111</v>
       </c>
       <c r="G47" s="15"/>
@@ -7690,6 +7750,9 @@
       <c r="AG47" s="15"/>
       <c r="AH47" s="15"/>
       <c r="AI47" s="15"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="12"/>
       <c r="AM47" s="15"/>
       <c r="AN47" s="15"/>
       <c r="AO47" s="15"/>
@@ -7751,11 +7814,11 @@
       <c r="CS47" s="15"/>
       <c r="CT47" s="15"/>
       <c r="CU47" s="15"/>
-      <c r="CV47" s="15"/>
-      <c r="CW47" s="15"/>
+      <c r="CV47" s="14"/>
+      <c r="CW47" s="14"/>
       <c r="CX47" s="15"/>
       <c r="CY47" s="15"/>
-      <c r="CZ47" s="15"/>
+      <c r="CZ47" s="14"/>
       <c r="DA47" s="15"/>
       <c r="DB47" s="15"/>
       <c r="DC47" s="15"/>
@@ -7796,13 +7859,44 @@
       <c r="EL47" s="15"/>
       <c r="EM47" s="15"/>
       <c r="EN47" s="15"/>
+      <c r="EO47" s="15"/>
+      <c r="EP47" s="15"/>
+      <c r="EQ47" s="15"/>
+      <c r="ER47" s="15"/>
+      <c r="ES47" s="15"/>
+      <c r="ET47" s="15"/>
+      <c r="EU47" s="15"/>
+      <c r="EV47" s="15"/>
+      <c r="EW47" s="15"/>
+      <c r="EX47" s="15"/>
+      <c r="EY47" s="15"/>
+      <c r="EZ47" s="15"/>
+      <c r="FA47" s="15"/>
+      <c r="FB47" s="15"/>
+      <c r="FC47" s="15"/>
+      <c r="FD47" s="15"/>
+      <c r="FE47" s="15"/>
+      <c r="FF47" s="15"/>
+      <c r="FG47" s="15"/>
+      <c r="FH47" s="15"/>
+      <c r="FI47" s="15"/>
+      <c r="FJ47" s="15"/>
+      <c r="FK47" s="15"/>
+      <c r="FL47" s="15"/>
+      <c r="FM47" s="15"/>
+      <c r="FN47" s="15"/>
+      <c r="FO47" s="15"/>
+      <c r="FP47" s="15"/>
+      <c r="FQ47" s="15"/>
+      <c r="FR47" s="15"/>
+      <c r="FS47" s="15"/>
     </row>
-    <row r="48" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+    <row r="48" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
@@ -7832,6 +7926,9 @@
       <c r="AG48" s="15"/>
       <c r="AH48" s="15"/>
       <c r="AI48" s="15"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="12"/>
+      <c r="AL48" s="12"/>
       <c r="AM48" s="15"/>
       <c r="AN48" s="15"/>
       <c r="AO48" s="15"/>
@@ -7893,11 +7990,11 @@
       <c r="CS48" s="15"/>
       <c r="CT48" s="15"/>
       <c r="CU48" s="15"/>
-      <c r="CV48" s="15"/>
-      <c r="CW48" s="15"/>
+      <c r="CV48" s="14"/>
+      <c r="CW48" s="14"/>
       <c r="CX48" s="15"/>
       <c r="CY48" s="15"/>
-      <c r="CZ48" s="15"/>
+      <c r="CZ48" s="14"/>
       <c r="DA48" s="15"/>
       <c r="DB48" s="15"/>
       <c r="DC48" s="15"/>
@@ -7938,16 +8035,47 @@
       <c r="EL48" s="15"/>
       <c r="EM48" s="15"/>
       <c r="EN48" s="15"/>
+      <c r="EO48" s="15"/>
+      <c r="EP48" s="15"/>
+      <c r="EQ48" s="15"/>
+      <c r="ER48" s="15"/>
+      <c r="ES48" s="15"/>
+      <c r="ET48" s="15"/>
+      <c r="EU48" s="15"/>
+      <c r="EV48" s="15"/>
+      <c r="EW48" s="15"/>
+      <c r="EX48" s="15"/>
+      <c r="EY48" s="15"/>
+      <c r="EZ48" s="15"/>
+      <c r="FA48" s="15"/>
+      <c r="FB48" s="15"/>
+      <c r="FC48" s="15"/>
+      <c r="FD48" s="15"/>
+      <c r="FE48" s="15"/>
+      <c r="FF48" s="15"/>
+      <c r="FG48" s="15"/>
+      <c r="FH48" s="15"/>
+      <c r="FI48" s="15"/>
+      <c r="FJ48" s="15"/>
+      <c r="FK48" s="15"/>
+      <c r="FL48" s="15"/>
+      <c r="FM48" s="15"/>
+      <c r="FN48" s="15"/>
+      <c r="FO48" s="15"/>
+      <c r="FP48" s="15"/>
+      <c r="FQ48" s="15"/>
+      <c r="FR48" s="15"/>
+      <c r="FS48" s="15"/>
     </row>
     <row r="49" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="4" t="s">
+      <c r="A49" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="21" t="s">
         <v>111</v>
       </c>
       <c r="G49" s="15"/>
@@ -8087,11 +8215,11 @@
       <c r="EN49" s="15"/>
     </row>
     <row r="50" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
@@ -8229,14 +8357,14 @@
       <c r="EN50" s="15"/>
     </row>
     <row r="51" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="7" t="s">
+      <c r="A51" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="21" t="s">
         <v>111</v>
       </c>
       <c r="G51" s="15"/>
@@ -8376,11 +8504,11 @@
       <c r="EN51" s="15"/>
     </row>
     <row r="52" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
@@ -8517,15 +8645,15 @@
       <c r="EM52" s="15"/>
       <c r="EN52" s="15"/>
     </row>
-    <row r="53" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="19" t="s">
+    <row r="53" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="21" t="s">
         <v>111</v>
       </c>
       <c r="G53" s="15"/>
@@ -8557,9 +8685,6 @@
       <c r="AG53" s="15"/>
       <c r="AH53" s="15"/>
       <c r="AI53" s="15"/>
-      <c r="AJ53" s="12"/>
-      <c r="AK53" s="12"/>
-      <c r="AL53" s="12"/>
       <c r="AM53" s="15"/>
       <c r="AN53" s="15"/>
       <c r="AO53" s="15"/>
@@ -8600,27 +8725,27 @@
       <c r="BX53" s="15"/>
       <c r="BY53" s="15"/>
       <c r="BZ53" s="15"/>
-      <c r="CA53" s="14"/>
-      <c r="CB53" s="14"/>
+      <c r="CA53" s="15"/>
+      <c r="CB53" s="15"/>
       <c r="CC53" s="15"/>
       <c r="CD53" s="15"/>
-      <c r="CE53" s="14"/>
-      <c r="CF53" s="14"/>
-      <c r="CG53" s="14"/>
-      <c r="CH53" s="14"/>
-      <c r="CI53" s="14"/>
+      <c r="CE53" s="15"/>
+      <c r="CF53" s="15"/>
+      <c r="CG53" s="15"/>
+      <c r="CH53" s="15"/>
+      <c r="CI53" s="15"/>
       <c r="CJ53" s="15"/>
       <c r="CK53" s="15"/>
-      <c r="CL53" s="14"/>
-      <c r="CM53" s="14"/>
-      <c r="CN53" s="14"/>
-      <c r="CO53" s="14"/>
-      <c r="CP53" s="14"/>
+      <c r="CL53" s="15"/>
+      <c r="CM53" s="15"/>
+      <c r="CN53" s="15"/>
+      <c r="CO53" s="15"/>
+      <c r="CP53" s="15"/>
       <c r="CQ53" s="15"/>
       <c r="CR53" s="15"/>
-      <c r="CS53" s="14"/>
-      <c r="CT53" s="14"/>
-      <c r="CU53" s="14"/>
+      <c r="CS53" s="15"/>
+      <c r="CT53" s="15"/>
+      <c r="CU53" s="15"/>
       <c r="CV53" s="15"/>
       <c r="CW53" s="15"/>
       <c r="CX53" s="15"/>
@@ -8666,44 +8791,13 @@
       <c r="EL53" s="15"/>
       <c r="EM53" s="15"/>
       <c r="EN53" s="15"/>
-      <c r="EO53" s="15"/>
-      <c r="EP53" s="15"/>
-      <c r="EQ53" s="15"/>
-      <c r="ER53" s="15"/>
-      <c r="ES53" s="15"/>
-      <c r="ET53" s="15"/>
-      <c r="EU53" s="15"/>
-      <c r="EV53" s="15"/>
-      <c r="EW53" s="15"/>
-      <c r="EX53" s="15"/>
-      <c r="EY53" s="15"/>
-      <c r="EZ53" s="15"/>
-      <c r="FA53" s="15"/>
-      <c r="FB53" s="15"/>
-      <c r="FC53" s="15"/>
-      <c r="FD53" s="15"/>
-      <c r="FE53" s="15"/>
-      <c r="FF53" s="15"/>
-      <c r="FG53" s="15"/>
-      <c r="FH53" s="15"/>
-      <c r="FI53" s="15"/>
-      <c r="FJ53" s="15"/>
-      <c r="FK53" s="15"/>
-      <c r="FL53" s="15"/>
-      <c r="FM53" s="15"/>
-      <c r="FN53" s="15"/>
-      <c r="FO53" s="15"/>
-      <c r="FP53" s="15"/>
-      <c r="FQ53" s="15"/>
-      <c r="FR53" s="15"/>
-      <c r="FS53" s="15"/>
     </row>
-    <row r="54" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+    <row r="54" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
@@ -8733,9 +8827,6 @@
       <c r="AG54" s="15"/>
       <c r="AH54" s="15"/>
       <c r="AI54" s="15"/>
-      <c r="AJ54" s="12"/>
-      <c r="AK54" s="12"/>
-      <c r="AL54" s="12"/>
       <c r="AM54" s="15"/>
       <c r="AN54" s="15"/>
       <c r="AO54" s="15"/>
@@ -8776,27 +8867,27 @@
       <c r="BX54" s="15"/>
       <c r="BY54" s="15"/>
       <c r="BZ54" s="15"/>
-      <c r="CA54" s="14"/>
-      <c r="CB54" s="14"/>
+      <c r="CA54" s="15"/>
+      <c r="CB54" s="15"/>
       <c r="CC54" s="15"/>
       <c r="CD54" s="15"/>
-      <c r="CE54" s="14"/>
-      <c r="CF54" s="14"/>
-      <c r="CG54" s="14"/>
-      <c r="CH54" s="14"/>
-      <c r="CI54" s="14"/>
+      <c r="CE54" s="15"/>
+      <c r="CF54" s="15"/>
+      <c r="CG54" s="15"/>
+      <c r="CH54" s="15"/>
+      <c r="CI54" s="15"/>
       <c r="CJ54" s="15"/>
       <c r="CK54" s="15"/>
-      <c r="CL54" s="14"/>
-      <c r="CM54" s="14"/>
-      <c r="CN54" s="14"/>
-      <c r="CO54" s="14"/>
-      <c r="CP54" s="14"/>
+      <c r="CL54" s="15"/>
+      <c r="CM54" s="15"/>
+      <c r="CN54" s="15"/>
+      <c r="CO54" s="15"/>
+      <c r="CP54" s="15"/>
       <c r="CQ54" s="15"/>
       <c r="CR54" s="15"/>
-      <c r="CS54" s="14"/>
-      <c r="CT54" s="14"/>
-      <c r="CU54" s="14"/>
+      <c r="CS54" s="15"/>
+      <c r="CT54" s="15"/>
+      <c r="CU54" s="15"/>
       <c r="CV54" s="15"/>
       <c r="CW54" s="15"/>
       <c r="CX54" s="15"/>
@@ -8842,46 +8933,15 @@
       <c r="EL54" s="15"/>
       <c r="EM54" s="15"/>
       <c r="EN54" s="15"/>
-      <c r="EO54" s="15"/>
-      <c r="EP54" s="15"/>
-      <c r="EQ54" s="15"/>
-      <c r="ER54" s="15"/>
-      <c r="ES54" s="15"/>
-      <c r="ET54" s="15"/>
-      <c r="EU54" s="15"/>
-      <c r="EV54" s="15"/>
-      <c r="EW54" s="15"/>
-      <c r="EX54" s="15"/>
-      <c r="EY54" s="15"/>
-      <c r="EZ54" s="15"/>
-      <c r="FA54" s="15"/>
-      <c r="FB54" s="15"/>
-      <c r="FC54" s="15"/>
-      <c r="FD54" s="15"/>
-      <c r="FE54" s="15"/>
-      <c r="FF54" s="15"/>
-      <c r="FG54" s="15"/>
-      <c r="FH54" s="15"/>
-      <c r="FI54" s="15"/>
-      <c r="FJ54" s="15"/>
-      <c r="FK54" s="15"/>
-      <c r="FL54" s="15"/>
-      <c r="FM54" s="15"/>
-      <c r="FN54" s="15"/>
-      <c r="FO54" s="15"/>
-      <c r="FP54" s="15"/>
-      <c r="FQ54" s="15"/>
-      <c r="FR54" s="15"/>
-      <c r="FS54" s="15"/>
     </row>
     <row r="55" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+      <c r="A55" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
       <c r="F55" s="19" t="s">
         <v>111</v>
       </c>
@@ -8978,24 +9038,24 @@
       <c r="CS55" s="15"/>
       <c r="CT55" s="15"/>
       <c r="CU55" s="15"/>
-      <c r="CV55" s="14"/>
-      <c r="CW55" s="14"/>
+      <c r="CV55" s="15"/>
+      <c r="CW55" s="15"/>
       <c r="CX55" s="15"/>
       <c r="CY55" s="15"/>
-      <c r="CZ55" s="14"/>
-      <c r="DA55" s="15"/>
-      <c r="DB55" s="15"/>
-      <c r="DC55" s="15"/>
-      <c r="DD55" s="15"/>
+      <c r="CZ55" s="15"/>
+      <c r="DA55" s="14"/>
+      <c r="DB55" s="14"/>
+      <c r="DC55" s="14"/>
+      <c r="DD55" s="14"/>
       <c r="DE55" s="15"/>
       <c r="DF55" s="15"/>
-      <c r="DG55" s="15"/>
-      <c r="DH55" s="15"/>
-      <c r="DI55" s="15"/>
-      <c r="DJ55" s="15"/>
-      <c r="DK55" s="15"/>
+      <c r="DG55" s="14"/>
+      <c r="DH55" s="14"/>
+      <c r="DI55" s="14"/>
+      <c r="DJ55" s="14"/>
+      <c r="DK55" s="14"/>
       <c r="DL55" s="15"/>
-      <c r="DM55" s="15"/>
+      <c r="DM55" s="14"/>
       <c r="DN55" s="15"/>
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
@@ -9056,11 +9116,11 @@
       <c r="FS55" s="15"/>
     </row>
     <row r="56" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
@@ -9154,24 +9214,24 @@
       <c r="CS56" s="15"/>
       <c r="CT56" s="15"/>
       <c r="CU56" s="15"/>
-      <c r="CV56" s="14"/>
-      <c r="CW56" s="14"/>
+      <c r="CV56" s="15"/>
+      <c r="CW56" s="15"/>
       <c r="CX56" s="15"/>
       <c r="CY56" s="15"/>
-      <c r="CZ56" s="14"/>
-      <c r="DA56" s="15"/>
-      <c r="DB56" s="15"/>
-      <c r="DC56" s="15"/>
-      <c r="DD56" s="15"/>
+      <c r="CZ56" s="15"/>
+      <c r="DA56" s="14"/>
+      <c r="DB56" s="14"/>
+      <c r="DC56" s="14"/>
+      <c r="DD56" s="14"/>
       <c r="DE56" s="15"/>
       <c r="DF56" s="15"/>
-      <c r="DG56" s="15"/>
-      <c r="DH56" s="15"/>
-      <c r="DI56" s="15"/>
-      <c r="DJ56" s="15"/>
-      <c r="DK56" s="15"/>
+      <c r="DG56" s="14"/>
+      <c r="DH56" s="14"/>
+      <c r="DI56" s="14"/>
+      <c r="DJ56" s="14"/>
+      <c r="DK56" s="14"/>
       <c r="DL56" s="15"/>
-      <c r="DM56" s="15"/>
+      <c r="DM56" s="14"/>
       <c r="DN56" s="15"/>
       <c r="DO56" s="15"/>
       <c r="DP56" s="15"/>
@@ -9232,14 +9292,14 @@
       <c r="FS56" s="15"/>
     </row>
     <row r="57" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A57" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="21" t="s">
+      <c r="A57" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G57" s="15"/>
@@ -9379,11 +9439,11 @@
       <c r="EN57" s="15"/>
     </row>
     <row r="58" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
@@ -9521,14 +9581,14 @@
       <c r="EN58" s="15"/>
     </row>
     <row r="59" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A59" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="21" t="s">
+      <c r="A59" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G59" s="15"/>
@@ -9668,11 +9728,11 @@
       <c r="EN59" s="15"/>
     </row>
     <row r="60" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
@@ -9810,14 +9870,14 @@
       <c r="EN60" s="15"/>
     </row>
     <row r="61" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A61" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="21" t="s">
+      <c r="A61" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G61" s="15"/>
@@ -9957,11 +10017,11 @@
       <c r="EN61" s="15"/>
     </row>
     <row r="62" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
@@ -10098,15 +10158,15 @@
       <c r="EM62" s="15"/>
       <c r="EN62" s="15"/>
     </row>
-    <row r="63" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="19" t="s">
+    <row r="63" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A63" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G63" s="15"/>
@@ -10138,9 +10198,6 @@
       <c r="AG63" s="15"/>
       <c r="AH63" s="15"/>
       <c r="AI63" s="15"/>
-      <c r="AJ63" s="12"/>
-      <c r="AK63" s="12"/>
-      <c r="AL63" s="12"/>
       <c r="AM63" s="15"/>
       <c r="AN63" s="15"/>
       <c r="AO63" s="15"/>
@@ -10207,19 +10264,19 @@
       <c r="CX63" s="15"/>
       <c r="CY63" s="15"/>
       <c r="CZ63" s="15"/>
-      <c r="DA63" s="14"/>
-      <c r="DB63" s="14"/>
-      <c r="DC63" s="14"/>
-      <c r="DD63" s="14"/>
+      <c r="DA63" s="15"/>
+      <c r="DB63" s="15"/>
+      <c r="DC63" s="15"/>
+      <c r="DD63" s="15"/>
       <c r="DE63" s="15"/>
       <c r="DF63" s="15"/>
-      <c r="DG63" s="14"/>
-      <c r="DH63" s="14"/>
-      <c r="DI63" s="14"/>
-      <c r="DJ63" s="14"/>
-      <c r="DK63" s="14"/>
+      <c r="DG63" s="15"/>
+      <c r="DH63" s="15"/>
+      <c r="DI63" s="15"/>
+      <c r="DJ63" s="15"/>
+      <c r="DK63" s="15"/>
       <c r="DL63" s="15"/>
-      <c r="DM63" s="14"/>
+      <c r="DM63" s="15"/>
       <c r="DN63" s="15"/>
       <c r="DO63" s="15"/>
       <c r="DP63" s="15"/>
@@ -10247,44 +10304,13 @@
       <c r="EL63" s="15"/>
       <c r="EM63" s="15"/>
       <c r="EN63" s="15"/>
-      <c r="EO63" s="15"/>
-      <c r="EP63" s="15"/>
-      <c r="EQ63" s="15"/>
-      <c r="ER63" s="15"/>
-      <c r="ES63" s="15"/>
-      <c r="ET63" s="15"/>
-      <c r="EU63" s="15"/>
-      <c r="EV63" s="15"/>
-      <c r="EW63" s="15"/>
-      <c r="EX63" s="15"/>
-      <c r="EY63" s="15"/>
-      <c r="EZ63" s="15"/>
-      <c r="FA63" s="15"/>
-      <c r="FB63" s="15"/>
-      <c r="FC63" s="15"/>
-      <c r="FD63" s="15"/>
-      <c r="FE63" s="15"/>
-      <c r="FF63" s="15"/>
-      <c r="FG63" s="15"/>
-      <c r="FH63" s="15"/>
-      <c r="FI63" s="15"/>
-      <c r="FJ63" s="15"/>
-      <c r="FK63" s="15"/>
-      <c r="FL63" s="15"/>
-      <c r="FM63" s="15"/>
-      <c r="FN63" s="15"/>
-      <c r="FO63" s="15"/>
-      <c r="FP63" s="15"/>
-      <c r="FQ63" s="15"/>
-      <c r="FR63" s="15"/>
-      <c r="FS63" s="15"/>
     </row>
-    <row r="64" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
+    <row r="64" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
@@ -10314,9 +10340,6 @@
       <c r="AG64" s="15"/>
       <c r="AH64" s="15"/>
       <c r="AI64" s="15"/>
-      <c r="AJ64" s="12"/>
-      <c r="AK64" s="12"/>
-      <c r="AL64" s="12"/>
       <c r="AM64" s="15"/>
       <c r="AN64" s="15"/>
       <c r="AO64" s="15"/>
@@ -10383,19 +10406,19 @@
       <c r="CX64" s="15"/>
       <c r="CY64" s="15"/>
       <c r="CZ64" s="15"/>
-      <c r="DA64" s="14"/>
-      <c r="DB64" s="14"/>
-      <c r="DC64" s="14"/>
-      <c r="DD64" s="14"/>
+      <c r="DA64" s="15"/>
+      <c r="DB64" s="15"/>
+      <c r="DC64" s="15"/>
+      <c r="DD64" s="15"/>
       <c r="DE64" s="15"/>
       <c r="DF64" s="15"/>
-      <c r="DG64" s="14"/>
-      <c r="DH64" s="14"/>
-      <c r="DI64" s="14"/>
-      <c r="DJ64" s="14"/>
-      <c r="DK64" s="14"/>
+      <c r="DG64" s="15"/>
+      <c r="DH64" s="15"/>
+      <c r="DI64" s="15"/>
+      <c r="DJ64" s="15"/>
+      <c r="DK64" s="15"/>
       <c r="DL64" s="15"/>
-      <c r="DM64" s="14"/>
+      <c r="DM64" s="15"/>
       <c r="DN64" s="15"/>
       <c r="DO64" s="15"/>
       <c r="DP64" s="15"/>
@@ -10423,47 +10446,16 @@
       <c r="EL64" s="15"/>
       <c r="EM64" s="15"/>
       <c r="EN64" s="15"/>
-      <c r="EO64" s="15"/>
-      <c r="EP64" s="15"/>
-      <c r="EQ64" s="15"/>
-      <c r="ER64" s="15"/>
-      <c r="ES64" s="15"/>
-      <c r="ET64" s="15"/>
-      <c r="EU64" s="15"/>
-      <c r="EV64" s="15"/>
-      <c r="EW64" s="15"/>
-      <c r="EX64" s="15"/>
-      <c r="EY64" s="15"/>
-      <c r="EZ64" s="15"/>
-      <c r="FA64" s="15"/>
-      <c r="FB64" s="15"/>
-      <c r="FC64" s="15"/>
-      <c r="FD64" s="15"/>
-      <c r="FE64" s="15"/>
-      <c r="FF64" s="15"/>
-      <c r="FG64" s="15"/>
-      <c r="FH64" s="15"/>
-      <c r="FI64" s="15"/>
-      <c r="FJ64" s="15"/>
-      <c r="FK64" s="15"/>
-      <c r="FL64" s="15"/>
-      <c r="FM64" s="15"/>
-      <c r="FN64" s="15"/>
-      <c r="FO64" s="15"/>
-      <c r="FP64" s="15"/>
-      <c r="FQ64" s="15"/>
-      <c r="FR64" s="15"/>
-      <c r="FS64" s="15"/>
     </row>
     <row r="65" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A65" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="2" t="s">
+      <c r="A65" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G65" s="15"/>
@@ -10603,11 +10595,11 @@
       <c r="EN65" s="15"/>
     </row>
     <row r="66" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
@@ -10744,15 +10736,15 @@
       <c r="EM66" s="15"/>
       <c r="EN66" s="15"/>
     </row>
-    <row r="67" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="19" t="s">
         <v>111</v>
       </c>
       <c r="G67" s="15"/>
@@ -10784,6 +10776,9 @@
       <c r="AG67" s="15"/>
       <c r="AH67" s="15"/>
       <c r="AI67" s="15"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
       <c r="AM67" s="15"/>
       <c r="AN67" s="15"/>
       <c r="AO67" s="15"/>
@@ -10863,7 +10858,7 @@
       <c r="DK67" s="15"/>
       <c r="DL67" s="15"/>
       <c r="DM67" s="15"/>
-      <c r="DN67" s="15"/>
+      <c r="DN67" s="14"/>
       <c r="DO67" s="15"/>
       <c r="DP67" s="15"/>
       <c r="DQ67" s="15"/>
@@ -10890,8 +10885,39 @@
       <c r="EL67" s="15"/>
       <c r="EM67" s="15"/>
       <c r="EN67" s="15"/>
+      <c r="EO67" s="15"/>
+      <c r="EP67" s="15"/>
+      <c r="EQ67" s="15"/>
+      <c r="ER67" s="15"/>
+      <c r="ES67" s="15"/>
+      <c r="ET67" s="15"/>
+      <c r="EU67" s="15"/>
+      <c r="EV67" s="15"/>
+      <c r="EW67" s="15"/>
+      <c r="EX67" s="15"/>
+      <c r="EY67" s="15"/>
+      <c r="EZ67" s="15"/>
+      <c r="FA67" s="15"/>
+      <c r="FB67" s="15"/>
+      <c r="FC67" s="15"/>
+      <c r="FD67" s="15"/>
+      <c r="FE67" s="15"/>
+      <c r="FF67" s="15"/>
+      <c r="FG67" s="15"/>
+      <c r="FH67" s="15"/>
+      <c r="FI67" s="15"/>
+      <c r="FJ67" s="15"/>
+      <c r="FK67" s="15"/>
+      <c r="FL67" s="15"/>
+      <c r="FM67" s="15"/>
+      <c r="FN67" s="15"/>
+      <c r="FO67" s="15"/>
+      <c r="FP67" s="15"/>
+      <c r="FQ67" s="15"/>
+      <c r="FR67" s="15"/>
+      <c r="FS67" s="15"/>
     </row>
-    <row r="68" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
@@ -10926,6 +10952,9 @@
       <c r="AG68" s="15"/>
       <c r="AH68" s="15"/>
       <c r="AI68" s="15"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
       <c r="AM68" s="15"/>
       <c r="AN68" s="15"/>
       <c r="AO68" s="15"/>
@@ -11005,7 +11034,7 @@
       <c r="DK68" s="15"/>
       <c r="DL68" s="15"/>
       <c r="DM68" s="15"/>
-      <c r="DN68" s="15"/>
+      <c r="DN68" s="14"/>
       <c r="DO68" s="15"/>
       <c r="DP68" s="15"/>
       <c r="DQ68" s="15"/>
@@ -11032,16 +11061,47 @@
       <c r="EL68" s="15"/>
       <c r="EM68" s="15"/>
       <c r="EN68" s="15"/>
+      <c r="EO68" s="15"/>
+      <c r="EP68" s="15"/>
+      <c r="EQ68" s="15"/>
+      <c r="ER68" s="15"/>
+      <c r="ES68" s="15"/>
+      <c r="ET68" s="15"/>
+      <c r="EU68" s="15"/>
+      <c r="EV68" s="15"/>
+      <c r="EW68" s="15"/>
+      <c r="EX68" s="15"/>
+      <c r="EY68" s="15"/>
+      <c r="EZ68" s="15"/>
+      <c r="FA68" s="15"/>
+      <c r="FB68" s="15"/>
+      <c r="FC68" s="15"/>
+      <c r="FD68" s="15"/>
+      <c r="FE68" s="15"/>
+      <c r="FF68" s="15"/>
+      <c r="FG68" s="15"/>
+      <c r="FH68" s="15"/>
+      <c r="FI68" s="15"/>
+      <c r="FJ68" s="15"/>
+      <c r="FK68" s="15"/>
+      <c r="FL68" s="15"/>
+      <c r="FM68" s="15"/>
+      <c r="FN68" s="15"/>
+      <c r="FO68" s="15"/>
+      <c r="FP68" s="15"/>
+      <c r="FQ68" s="15"/>
+      <c r="FR68" s="15"/>
+      <c r="FS68" s="15"/>
     </row>
     <row r="69" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A69" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="2" t="s">
+      <c r="A69" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G69" s="15"/>
@@ -11181,11 +11241,11 @@
       <c r="EN69" s="15"/>
     </row>
     <row r="70" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
@@ -11322,15 +11382,15 @@
       <c r="EM70" s="15"/>
       <c r="EN70" s="15"/>
     </row>
-    <row r="71" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="19" t="s">
         <v>111</v>
       </c>
       <c r="G71" s="15"/>
@@ -11362,6 +11422,9 @@
       <c r="AG71" s="15"/>
       <c r="AH71" s="15"/>
       <c r="AI71" s="15"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
       <c r="AM71" s="15"/>
       <c r="AN71" s="15"/>
       <c r="AO71" s="15"/>
@@ -11442,13 +11505,13 @@
       <c r="DL71" s="15"/>
       <c r="DM71" s="15"/>
       <c r="DN71" s="15"/>
-      <c r="DO71" s="15"/>
-      <c r="DP71" s="15"/>
-      <c r="DQ71" s="15"/>
-      <c r="DR71" s="15"/>
+      <c r="DO71" s="14"/>
+      <c r="DP71" s="14"/>
+      <c r="DQ71" s="14"/>
+      <c r="DR71" s="14"/>
       <c r="DS71" s="15"/>
       <c r="DT71" s="15"/>
-      <c r="DU71" s="15"/>
+      <c r="DU71" s="14"/>
       <c r="DV71" s="15"/>
       <c r="DW71" s="15"/>
       <c r="DX71" s="15"/>
@@ -11468,8 +11531,39 @@
       <c r="EL71" s="15"/>
       <c r="EM71" s="15"/>
       <c r="EN71" s="15"/>
+      <c r="EO71" s="15"/>
+      <c r="EP71" s="15"/>
+      <c r="EQ71" s="15"/>
+      <c r="ER71" s="15"/>
+      <c r="ES71" s="15"/>
+      <c r="ET71" s="15"/>
+      <c r="EU71" s="15"/>
+      <c r="EV71" s="15"/>
+      <c r="EW71" s="15"/>
+      <c r="EX71" s="15"/>
+      <c r="EY71" s="15"/>
+      <c r="EZ71" s="15"/>
+      <c r="FA71" s="15"/>
+      <c r="FB71" s="15"/>
+      <c r="FC71" s="15"/>
+      <c r="FD71" s="15"/>
+      <c r="FE71" s="15"/>
+      <c r="FF71" s="15"/>
+      <c r="FG71" s="15"/>
+      <c r="FH71" s="15"/>
+      <c r="FI71" s="15"/>
+      <c r="FJ71" s="15"/>
+      <c r="FK71" s="15"/>
+      <c r="FL71" s="15"/>
+      <c r="FM71" s="15"/>
+      <c r="FN71" s="15"/>
+      <c r="FO71" s="15"/>
+      <c r="FP71" s="15"/>
+      <c r="FQ71" s="15"/>
+      <c r="FR71" s="15"/>
+      <c r="FS71" s="15"/>
     </row>
-    <row r="72" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24"/>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
@@ -11504,6 +11598,9 @@
       <c r="AG72" s="15"/>
       <c r="AH72" s="15"/>
       <c r="AI72" s="15"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
       <c r="AM72" s="15"/>
       <c r="AN72" s="15"/>
       <c r="AO72" s="15"/>
@@ -11584,13 +11681,13 @@
       <c r="DL72" s="15"/>
       <c r="DM72" s="15"/>
       <c r="DN72" s="15"/>
-      <c r="DO72" s="15"/>
-      <c r="DP72" s="15"/>
-      <c r="DQ72" s="15"/>
-      <c r="DR72" s="15"/>
+      <c r="DO72" s="14"/>
+      <c r="DP72" s="14"/>
+      <c r="DQ72" s="14"/>
+      <c r="DR72" s="14"/>
       <c r="DS72" s="15"/>
       <c r="DT72" s="15"/>
-      <c r="DU72" s="15"/>
+      <c r="DU72" s="14"/>
       <c r="DV72" s="15"/>
       <c r="DW72" s="15"/>
       <c r="DX72" s="15"/>
@@ -11610,15 +11707,46 @@
       <c r="EL72" s="15"/>
       <c r="EM72" s="15"/>
       <c r="EN72" s="15"/>
+      <c r="EO72" s="15"/>
+      <c r="EP72" s="15"/>
+      <c r="EQ72" s="15"/>
+      <c r="ER72" s="15"/>
+      <c r="ES72" s="15"/>
+      <c r="ET72" s="15"/>
+      <c r="EU72" s="15"/>
+      <c r="EV72" s="15"/>
+      <c r="EW72" s="15"/>
+      <c r="EX72" s="15"/>
+      <c r="EY72" s="15"/>
+      <c r="EZ72" s="15"/>
+      <c r="FA72" s="15"/>
+      <c r="FB72" s="15"/>
+      <c r="FC72" s="15"/>
+      <c r="FD72" s="15"/>
+      <c r="FE72" s="15"/>
+      <c r="FF72" s="15"/>
+      <c r="FG72" s="15"/>
+      <c r="FH72" s="15"/>
+      <c r="FI72" s="15"/>
+      <c r="FJ72" s="15"/>
+      <c r="FK72" s="15"/>
+      <c r="FL72" s="15"/>
+      <c r="FM72" s="15"/>
+      <c r="FN72" s="15"/>
+      <c r="FO72" s="15"/>
+      <c r="FP72" s="15"/>
+      <c r="FQ72" s="15"/>
+      <c r="FR72" s="15"/>
+      <c r="FS72" s="15"/>
     </row>
     <row r="73" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A73" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
+      <c r="A73" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
       <c r="F73" s="7" t="s">
         <v>111</v>
       </c>
@@ -11759,11 +11887,11 @@
       <c r="EN73" s="15"/>
     </row>
     <row r="74" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
@@ -11900,15 +12028,15 @@
       <c r="EM74" s="15"/>
       <c r="EN74" s="15"/>
     </row>
-    <row r="75" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="19" t="s">
+    <row r="75" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A75" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G75" s="15"/>
@@ -11940,9 +12068,6 @@
       <c r="AG75" s="15"/>
       <c r="AH75" s="15"/>
       <c r="AI75" s="15"/>
-      <c r="AJ75" s="12"/>
-      <c r="AK75" s="12"/>
-      <c r="AL75" s="12"/>
       <c r="AM75" s="15"/>
       <c r="AN75" s="15"/>
       <c r="AO75" s="15"/>
@@ -12022,7 +12147,7 @@
       <c r="DK75" s="15"/>
       <c r="DL75" s="15"/>
       <c r="DM75" s="15"/>
-      <c r="DN75" s="14"/>
+      <c r="DN75" s="15"/>
       <c r="DO75" s="15"/>
       <c r="DP75" s="15"/>
       <c r="DQ75" s="15"/>
@@ -12049,44 +12174,13 @@
       <c r="EL75" s="15"/>
       <c r="EM75" s="15"/>
       <c r="EN75" s="15"/>
-      <c r="EO75" s="15"/>
-      <c r="EP75" s="15"/>
-      <c r="EQ75" s="15"/>
-      <c r="ER75" s="15"/>
-      <c r="ES75" s="15"/>
-      <c r="ET75" s="15"/>
-      <c r="EU75" s="15"/>
-      <c r="EV75" s="15"/>
-      <c r="EW75" s="15"/>
-      <c r="EX75" s="15"/>
-      <c r="EY75" s="15"/>
-      <c r="EZ75" s="15"/>
-      <c r="FA75" s="15"/>
-      <c r="FB75" s="15"/>
-      <c r="FC75" s="15"/>
-      <c r="FD75" s="15"/>
-      <c r="FE75" s="15"/>
-      <c r="FF75" s="15"/>
-      <c r="FG75" s="15"/>
-      <c r="FH75" s="15"/>
-      <c r="FI75" s="15"/>
-      <c r="FJ75" s="15"/>
-      <c r="FK75" s="15"/>
-      <c r="FL75" s="15"/>
-      <c r="FM75" s="15"/>
-      <c r="FN75" s="15"/>
-      <c r="FO75" s="15"/>
-      <c r="FP75" s="15"/>
-      <c r="FQ75" s="15"/>
-      <c r="FR75" s="15"/>
-      <c r="FS75" s="15"/>
     </row>
-    <row r="76" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
+    <row r="76" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
@@ -12116,9 +12210,6 @@
       <c r="AG76" s="15"/>
       <c r="AH76" s="15"/>
       <c r="AI76" s="15"/>
-      <c r="AJ76" s="12"/>
-      <c r="AK76" s="12"/>
-      <c r="AL76" s="12"/>
       <c r="AM76" s="15"/>
       <c r="AN76" s="15"/>
       <c r="AO76" s="15"/>
@@ -12198,7 +12289,7 @@
       <c r="DK76" s="15"/>
       <c r="DL76" s="15"/>
       <c r="DM76" s="15"/>
-      <c r="DN76" s="14"/>
+      <c r="DN76" s="15"/>
       <c r="DO76" s="15"/>
       <c r="DP76" s="15"/>
       <c r="DQ76" s="15"/>
@@ -12225,47 +12316,16 @@
       <c r="EL76" s="15"/>
       <c r="EM76" s="15"/>
       <c r="EN76" s="15"/>
-      <c r="EO76" s="15"/>
-      <c r="EP76" s="15"/>
-      <c r="EQ76" s="15"/>
-      <c r="ER76" s="15"/>
-      <c r="ES76" s="15"/>
-      <c r="ET76" s="15"/>
-      <c r="EU76" s="15"/>
-      <c r="EV76" s="15"/>
-      <c r="EW76" s="15"/>
-      <c r="EX76" s="15"/>
-      <c r="EY76" s="15"/>
-      <c r="EZ76" s="15"/>
-      <c r="FA76" s="15"/>
-      <c r="FB76" s="15"/>
-      <c r="FC76" s="15"/>
-      <c r="FD76" s="15"/>
-      <c r="FE76" s="15"/>
-      <c r="FF76" s="15"/>
-      <c r="FG76" s="15"/>
-      <c r="FH76" s="15"/>
-      <c r="FI76" s="15"/>
-      <c r="FJ76" s="15"/>
-      <c r="FK76" s="15"/>
-      <c r="FL76" s="15"/>
-      <c r="FM76" s="15"/>
-      <c r="FN76" s="15"/>
-      <c r="FO76" s="15"/>
-      <c r="FP76" s="15"/>
-      <c r="FQ76" s="15"/>
-      <c r="FR76" s="15"/>
-      <c r="FS76" s="15"/>
     </row>
     <row r="77" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A77" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="7" t="s">
+      <c r="A77" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="9" t="s">
         <v>111</v>
       </c>
       <c r="G77" s="15"/>
@@ -12405,11 +12465,11 @@
       <c r="EN77" s="15"/>
     </row>
     <row r="78" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
@@ -12546,15 +12606,15 @@
       <c r="EM78" s="15"/>
       <c r="EN78" s="15"/>
     </row>
-    <row r="79" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="19" t="s">
+    <row r="79" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A79" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G79" s="15"/>
@@ -12586,9 +12646,6 @@
       <c r="AG79" s="15"/>
       <c r="AH79" s="15"/>
       <c r="AI79" s="15"/>
-      <c r="AJ79" s="12"/>
-      <c r="AK79" s="12"/>
-      <c r="AL79" s="12"/>
       <c r="AM79" s="15"/>
       <c r="AN79" s="15"/>
       <c r="AO79" s="15"/>
@@ -12669,13 +12726,13 @@
       <c r="DL79" s="15"/>
       <c r="DM79" s="15"/>
       <c r="DN79" s="15"/>
-      <c r="DO79" s="14"/>
-      <c r="DP79" s="14"/>
-      <c r="DQ79" s="14"/>
-      <c r="DR79" s="14"/>
+      <c r="DO79" s="15"/>
+      <c r="DP79" s="15"/>
+      <c r="DQ79" s="15"/>
+      <c r="DR79" s="15"/>
       <c r="DS79" s="15"/>
       <c r="DT79" s="15"/>
-      <c r="DU79" s="14"/>
+      <c r="DU79" s="15"/>
       <c r="DV79" s="15"/>
       <c r="DW79" s="15"/>
       <c r="DX79" s="15"/>
@@ -12695,44 +12752,13 @@
       <c r="EL79" s="15"/>
       <c r="EM79" s="15"/>
       <c r="EN79" s="15"/>
-      <c r="EO79" s="15"/>
-      <c r="EP79" s="15"/>
-      <c r="EQ79" s="15"/>
-      <c r="ER79" s="15"/>
-      <c r="ES79" s="15"/>
-      <c r="ET79" s="15"/>
-      <c r="EU79" s="15"/>
-      <c r="EV79" s="15"/>
-      <c r="EW79" s="15"/>
-      <c r="EX79" s="15"/>
-      <c r="EY79" s="15"/>
-      <c r="EZ79" s="15"/>
-      <c r="FA79" s="15"/>
-      <c r="FB79" s="15"/>
-      <c r="FC79" s="15"/>
-      <c r="FD79" s="15"/>
-      <c r="FE79" s="15"/>
-      <c r="FF79" s="15"/>
-      <c r="FG79" s="15"/>
-      <c r="FH79" s="15"/>
-      <c r="FI79" s="15"/>
-      <c r="FJ79" s="15"/>
-      <c r="FK79" s="15"/>
-      <c r="FL79" s="15"/>
-      <c r="FM79" s="15"/>
-      <c r="FN79" s="15"/>
-      <c r="FO79" s="15"/>
-      <c r="FP79" s="15"/>
-      <c r="FQ79" s="15"/>
-      <c r="FR79" s="15"/>
-      <c r="FS79" s="15"/>
     </row>
-    <row r="80" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
+    <row r="80" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
@@ -12762,9 +12788,6 @@
       <c r="AG80" s="15"/>
       <c r="AH80" s="15"/>
       <c r="AI80" s="15"/>
-      <c r="AJ80" s="12"/>
-      <c r="AK80" s="12"/>
-      <c r="AL80" s="12"/>
       <c r="AM80" s="15"/>
       <c r="AN80" s="15"/>
       <c r="AO80" s="15"/>
@@ -12845,13 +12868,13 @@
       <c r="DL80" s="15"/>
       <c r="DM80" s="15"/>
       <c r="DN80" s="15"/>
-      <c r="DO80" s="14"/>
-      <c r="DP80" s="14"/>
-      <c r="DQ80" s="14"/>
-      <c r="DR80" s="14"/>
+      <c r="DO80" s="15"/>
+      <c r="DP80" s="15"/>
+      <c r="DQ80" s="15"/>
+      <c r="DR80" s="15"/>
       <c r="DS80" s="15"/>
       <c r="DT80" s="15"/>
-      <c r="DU80" s="14"/>
+      <c r="DU80" s="15"/>
       <c r="DV80" s="15"/>
       <c r="DW80" s="15"/>
       <c r="DX80" s="15"/>
@@ -12871,49 +12894,15 @@
       <c r="EL80" s="15"/>
       <c r="EM80" s="15"/>
       <c r="EN80" s="15"/>
-      <c r="EO80" s="15"/>
-      <c r="EP80" s="15"/>
-      <c r="EQ80" s="15"/>
-      <c r="ER80" s="15"/>
-      <c r="ES80" s="15"/>
-      <c r="ET80" s="15"/>
-      <c r="EU80" s="15"/>
-      <c r="EV80" s="15"/>
-      <c r="EW80" s="15"/>
-      <c r="EX80" s="15"/>
-      <c r="EY80" s="15"/>
-      <c r="EZ80" s="15"/>
-      <c r="FA80" s="15"/>
-      <c r="FB80" s="15"/>
-      <c r="FC80" s="15"/>
-      <c r="FD80" s="15"/>
-      <c r="FE80" s="15"/>
-      <c r="FF80" s="15"/>
-      <c r="FG80" s="15"/>
-      <c r="FH80" s="15"/>
-      <c r="FI80" s="15"/>
-      <c r="FJ80" s="15"/>
-      <c r="FK80" s="15"/>
-      <c r="FL80" s="15"/>
-      <c r="FM80" s="15"/>
-      <c r="FN80" s="15"/>
-      <c r="FO80" s="15"/>
-      <c r="FP80" s="15"/>
-      <c r="FQ80" s="15"/>
-      <c r="FR80" s="15"/>
-      <c r="FS80" s="15"/>
     </row>
     <row r="81" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A81" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="A81" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
@@ -13051,11 +13040,11 @@
       <c r="EN81" s="15"/>
     </row>
     <row r="82" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
@@ -13192,15 +13181,15 @@
       <c r="EM82" s="15"/>
       <c r="EN82" s="15"/>
     </row>
-    <row r="83" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A83" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="7" t="s">
+    <row r="83" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="19" t="s">
         <v>111</v>
       </c>
       <c r="G83" s="15"/>
@@ -13232,6 +13221,9 @@
       <c r="AG83" s="15"/>
       <c r="AH83" s="15"/>
       <c r="AI83" s="15"/>
+      <c r="AJ83" s="12"/>
+      <c r="AK83" s="12"/>
+      <c r="AL83" s="12"/>
       <c r="AM83" s="15"/>
       <c r="AN83" s="15"/>
       <c r="AO83" s="15"/>
@@ -13319,10 +13311,10 @@
       <c r="DS83" s="15"/>
       <c r="DT83" s="15"/>
       <c r="DU83" s="15"/>
-      <c r="DV83" s="15"/>
-      <c r="DW83" s="15"/>
-      <c r="DX83" s="15"/>
-      <c r="DY83" s="15"/>
+      <c r="DV83" s="14"/>
+      <c r="DW83" s="14"/>
+      <c r="DX83" s="14"/>
+      <c r="DY83" s="14"/>
       <c r="DZ83" s="15"/>
       <c r="EA83" s="15"/>
       <c r="EB83" s="15"/>
@@ -13338,13 +13330,44 @@
       <c r="EL83" s="15"/>
       <c r="EM83" s="15"/>
       <c r="EN83" s="15"/>
+      <c r="EO83" s="15"/>
+      <c r="EP83" s="15"/>
+      <c r="EQ83" s="15"/>
+      <c r="ER83" s="15"/>
+      <c r="ES83" s="15"/>
+      <c r="ET83" s="15"/>
+      <c r="EU83" s="15"/>
+      <c r="EV83" s="15"/>
+      <c r="EW83" s="15"/>
+      <c r="EX83" s="15"/>
+      <c r="EY83" s="15"/>
+      <c r="EZ83" s="15"/>
+      <c r="FA83" s="15"/>
+      <c r="FB83" s="15"/>
+      <c r="FC83" s="15"/>
+      <c r="FD83" s="15"/>
+      <c r="FE83" s="15"/>
+      <c r="FF83" s="15"/>
+      <c r="FG83" s="15"/>
+      <c r="FH83" s="15"/>
+      <c r="FI83" s="15"/>
+      <c r="FJ83" s="15"/>
+      <c r="FK83" s="15"/>
+      <c r="FL83" s="15"/>
+      <c r="FM83" s="15"/>
+      <c r="FN83" s="15"/>
+      <c r="FO83" s="15"/>
+      <c r="FP83" s="15"/>
+      <c r="FQ83" s="15"/>
+      <c r="FR83" s="15"/>
+      <c r="FS83" s="15"/>
     </row>
-    <row r="84" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
+    <row r="84" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="35"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="37"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
@@ -13374,6 +13397,9 @@
       <c r="AG84" s="15"/>
       <c r="AH84" s="15"/>
       <c r="AI84" s="15"/>
+      <c r="AJ84" s="12"/>
+      <c r="AK84" s="12"/>
+      <c r="AL84" s="12"/>
       <c r="AM84" s="15"/>
       <c r="AN84" s="15"/>
       <c r="AO84" s="15"/>
@@ -13461,10 +13487,10 @@
       <c r="DS84" s="15"/>
       <c r="DT84" s="15"/>
       <c r="DU84" s="15"/>
-      <c r="DV84" s="15"/>
-      <c r="DW84" s="15"/>
-      <c r="DX84" s="15"/>
-      <c r="DY84" s="15"/>
+      <c r="DV84" s="14"/>
+      <c r="DW84" s="14"/>
+      <c r="DX84" s="14"/>
+      <c r="DY84" s="14"/>
       <c r="DZ84" s="15"/>
       <c r="EA84" s="15"/>
       <c r="EB84" s="15"/>
@@ -13480,16 +13506,47 @@
       <c r="EL84" s="15"/>
       <c r="EM84" s="15"/>
       <c r="EN84" s="15"/>
+      <c r="EO84" s="15"/>
+      <c r="EP84" s="15"/>
+      <c r="EQ84" s="15"/>
+      <c r="ER84" s="15"/>
+      <c r="ES84" s="15"/>
+      <c r="ET84" s="15"/>
+      <c r="EU84" s="15"/>
+      <c r="EV84" s="15"/>
+      <c r="EW84" s="15"/>
+      <c r="EX84" s="15"/>
+      <c r="EY84" s="15"/>
+      <c r="EZ84" s="15"/>
+      <c r="FA84" s="15"/>
+      <c r="FB84" s="15"/>
+      <c r="FC84" s="15"/>
+      <c r="FD84" s="15"/>
+      <c r="FE84" s="15"/>
+      <c r="FF84" s="15"/>
+      <c r="FG84" s="15"/>
+      <c r="FH84" s="15"/>
+      <c r="FI84" s="15"/>
+      <c r="FJ84" s="15"/>
+      <c r="FK84" s="15"/>
+      <c r="FL84" s="15"/>
+      <c r="FM84" s="15"/>
+      <c r="FN84" s="15"/>
+      <c r="FO84" s="15"/>
+      <c r="FP84" s="15"/>
+      <c r="FQ84" s="15"/>
+      <c r="FR84" s="15"/>
+      <c r="FS84" s="15"/>
     </row>
     <row r="85" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A85" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="9" t="s">
+      <c r="A85" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G85" s="15"/>
@@ -13629,11 +13686,11 @@
       <c r="EN85" s="15"/>
     </row>
     <row r="86" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A86" s="23"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
@@ -13771,13 +13828,13 @@
       <c r="EN86" s="15"/>
     </row>
     <row r="87" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A87" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
+      <c r="A87" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
       <c r="F87" s="7" t="s">
         <v>111</v>
       </c>
@@ -13918,11 +13975,11 @@
       <c r="EN87" s="15"/>
     </row>
     <row r="88" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A88" s="23"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
@@ -14060,13 +14117,16 @@
       <c r="EN88" s="15"/>
     </row>
     <row r="89" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A89" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
+      <c r="A89" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
@@ -14204,11 +14264,11 @@
       <c r="EN89" s="15"/>
     </row>
     <row r="90" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
       <c r="G90" s="15"/>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
@@ -14345,15 +14405,15 @@
       <c r="EM90" s="15"/>
       <c r="EN90" s="15"/>
     </row>
-    <row r="91" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="19" t="s">
+    <row r="91" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A91" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G91" s="15"/>
@@ -14385,9 +14445,6 @@
       <c r="AG91" s="15"/>
       <c r="AH91" s="15"/>
       <c r="AI91" s="15"/>
-      <c r="AJ91" s="12"/>
-      <c r="AK91" s="12"/>
-      <c r="AL91" s="12"/>
       <c r="AM91" s="15"/>
       <c r="AN91" s="15"/>
       <c r="AO91" s="15"/>
@@ -14475,10 +14532,10 @@
       <c r="DS91" s="15"/>
       <c r="DT91" s="15"/>
       <c r="DU91" s="15"/>
-      <c r="DV91" s="14"/>
-      <c r="DW91" s="14"/>
-      <c r="DX91" s="14"/>
-      <c r="DY91" s="14"/>
+      <c r="DV91" s="15"/>
+      <c r="DW91" s="15"/>
+      <c r="DX91" s="15"/>
+      <c r="DY91" s="15"/>
       <c r="DZ91" s="15"/>
       <c r="EA91" s="15"/>
       <c r="EB91" s="15"/>
@@ -14494,44 +14551,13 @@
       <c r="EL91" s="15"/>
       <c r="EM91" s="15"/>
       <c r="EN91" s="15"/>
-      <c r="EO91" s="15"/>
-      <c r="EP91" s="15"/>
-      <c r="EQ91" s="15"/>
-      <c r="ER91" s="15"/>
-      <c r="ES91" s="15"/>
-      <c r="ET91" s="15"/>
-      <c r="EU91" s="15"/>
-      <c r="EV91" s="15"/>
-      <c r="EW91" s="15"/>
-      <c r="EX91" s="15"/>
-      <c r="EY91" s="15"/>
-      <c r="EZ91" s="15"/>
-      <c r="FA91" s="15"/>
-      <c r="FB91" s="15"/>
-      <c r="FC91" s="15"/>
-      <c r="FD91" s="15"/>
-      <c r="FE91" s="15"/>
-      <c r="FF91" s="15"/>
-      <c r="FG91" s="15"/>
-      <c r="FH91" s="15"/>
-      <c r="FI91" s="15"/>
-      <c r="FJ91" s="15"/>
-      <c r="FK91" s="15"/>
-      <c r="FL91" s="15"/>
-      <c r="FM91" s="15"/>
-      <c r="FN91" s="15"/>
-      <c r="FO91" s="15"/>
-      <c r="FP91" s="15"/>
-      <c r="FQ91" s="15"/>
-      <c r="FR91" s="15"/>
-      <c r="FS91" s="15"/>
     </row>
-    <row r="92" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="30"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="32"/>
+    <row r="92" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
       <c r="G92" s="15"/>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
@@ -14561,9 +14587,6 @@
       <c r="AG92" s="15"/>
       <c r="AH92" s="15"/>
       <c r="AI92" s="15"/>
-      <c r="AJ92" s="12"/>
-      <c r="AK92" s="12"/>
-      <c r="AL92" s="12"/>
       <c r="AM92" s="15"/>
       <c r="AN92" s="15"/>
       <c r="AO92" s="15"/>
@@ -14651,10 +14674,10 @@
       <c r="DS92" s="15"/>
       <c r="DT92" s="15"/>
       <c r="DU92" s="15"/>
-      <c r="DV92" s="14"/>
-      <c r="DW92" s="14"/>
-      <c r="DX92" s="14"/>
-      <c r="DY92" s="14"/>
+      <c r="DV92" s="15"/>
+      <c r="DW92" s="15"/>
+      <c r="DX92" s="15"/>
+      <c r="DY92" s="15"/>
       <c r="DZ92" s="15"/>
       <c r="EA92" s="15"/>
       <c r="EB92" s="15"/>
@@ -14670,47 +14693,16 @@
       <c r="EL92" s="15"/>
       <c r="EM92" s="15"/>
       <c r="EN92" s="15"/>
-      <c r="EO92" s="15"/>
-      <c r="EP92" s="15"/>
-      <c r="EQ92" s="15"/>
-      <c r="ER92" s="15"/>
-      <c r="ES92" s="15"/>
-      <c r="ET92" s="15"/>
-      <c r="EU92" s="15"/>
-      <c r="EV92" s="15"/>
-      <c r="EW92" s="15"/>
-      <c r="EX92" s="15"/>
-      <c r="EY92" s="15"/>
-      <c r="EZ92" s="15"/>
-      <c r="FA92" s="15"/>
-      <c r="FB92" s="15"/>
-      <c r="FC92" s="15"/>
-      <c r="FD92" s="15"/>
-      <c r="FE92" s="15"/>
-      <c r="FF92" s="15"/>
-      <c r="FG92" s="15"/>
-      <c r="FH92" s="15"/>
-      <c r="FI92" s="15"/>
-      <c r="FJ92" s="15"/>
-      <c r="FK92" s="15"/>
-      <c r="FL92" s="15"/>
-      <c r="FM92" s="15"/>
-      <c r="FN92" s="15"/>
-      <c r="FO92" s="15"/>
-      <c r="FP92" s="15"/>
-      <c r="FQ92" s="15"/>
-      <c r="FR92" s="15"/>
-      <c r="FS92" s="15"/>
     </row>
-    <row r="93" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="2" t="s">
+    <row r="93" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="19" t="s">
         <v>111</v>
       </c>
       <c r="G93" s="15"/>
@@ -14742,6 +14734,9 @@
       <c r="AG93" s="15"/>
       <c r="AH93" s="15"/>
       <c r="AI93" s="15"/>
+      <c r="AJ93" s="12"/>
+      <c r="AK93" s="12"/>
+      <c r="AL93" s="12"/>
       <c r="AM93" s="15"/>
       <c r="AN93" s="15"/>
       <c r="AO93" s="15"/>
@@ -14835,26 +14830,57 @@
       <c r="DY93" s="15"/>
       <c r="DZ93" s="15"/>
       <c r="EA93" s="15"/>
-      <c r="EB93" s="15"/>
-      <c r="EC93" s="15"/>
-      <c r="ED93" s="15"/>
-      <c r="EE93" s="15"/>
-      <c r="EF93" s="15"/>
+      <c r="EB93" s="14"/>
+      <c r="EC93" s="14"/>
+      <c r="ED93" s="14"/>
+      <c r="EE93" s="14"/>
+      <c r="EF93" s="14"/>
       <c r="EG93" s="15"/>
       <c r="EH93" s="15"/>
-      <c r="EI93" s="15"/>
-      <c r="EJ93" s="15"/>
-      <c r="EK93" s="15"/>
-      <c r="EL93" s="15"/>
-      <c r="EM93" s="15"/>
+      <c r="EI93" s="14"/>
+      <c r="EJ93" s="14"/>
+      <c r="EK93" s="14"/>
+      <c r="EL93" s="14"/>
+      <c r="EM93" s="14"/>
       <c r="EN93" s="15"/>
+      <c r="EO93" s="15"/>
+      <c r="EP93" s="15"/>
+      <c r="EQ93" s="15"/>
+      <c r="ER93" s="15"/>
+      <c r="ES93" s="15"/>
+      <c r="ET93" s="15"/>
+      <c r="EU93" s="15"/>
+      <c r="EV93" s="15"/>
+      <c r="EW93" s="15"/>
+      <c r="EX93" s="15"/>
+      <c r="EY93" s="15"/>
+      <c r="EZ93" s="15"/>
+      <c r="FA93" s="15"/>
+      <c r="FB93" s="15"/>
+      <c r="FC93" s="15"/>
+      <c r="FD93" s="15"/>
+      <c r="FE93" s="15"/>
+      <c r="FF93" s="15"/>
+      <c r="FG93" s="15"/>
+      <c r="FH93" s="15"/>
+      <c r="FI93" s="15"/>
+      <c r="FJ93" s="15"/>
+      <c r="FK93" s="15"/>
+      <c r="FL93" s="15"/>
+      <c r="FM93" s="15"/>
+      <c r="FN93" s="15"/>
+      <c r="FO93" s="15"/>
+      <c r="FP93" s="15"/>
+      <c r="FQ93" s="15"/>
+      <c r="FR93" s="15"/>
+      <c r="FS93" s="15"/>
     </row>
-    <row r="94" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
+    <row r="94" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
       <c r="G94" s="15"/>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
@@ -14884,6 +14910,9 @@
       <c r="AG94" s="15"/>
       <c r="AH94" s="15"/>
       <c r="AI94" s="15"/>
+      <c r="AJ94" s="12"/>
+      <c r="AK94" s="12"/>
+      <c r="AL94" s="12"/>
       <c r="AM94" s="15"/>
       <c r="AN94" s="15"/>
       <c r="AO94" s="15"/>
@@ -14977,28 +15006,59 @@
       <c r="DY94" s="15"/>
       <c r="DZ94" s="15"/>
       <c r="EA94" s="15"/>
-      <c r="EB94" s="15"/>
-      <c r="EC94" s="15"/>
-      <c r="ED94" s="15"/>
-      <c r="EE94" s="15"/>
-      <c r="EF94" s="15"/>
+      <c r="EB94" s="14"/>
+      <c r="EC94" s="14"/>
+      <c r="ED94" s="14"/>
+      <c r="EE94" s="14"/>
+      <c r="EF94" s="14"/>
       <c r="EG94" s="15"/>
       <c r="EH94" s="15"/>
-      <c r="EI94" s="15"/>
-      <c r="EJ94" s="15"/>
-      <c r="EK94" s="15"/>
-      <c r="EL94" s="15"/>
-      <c r="EM94" s="15"/>
+      <c r="EI94" s="14"/>
+      <c r="EJ94" s="14"/>
+      <c r="EK94" s="14"/>
+      <c r="EL94" s="14"/>
+      <c r="EM94" s="14"/>
       <c r="EN94" s="15"/>
+      <c r="EO94" s="15"/>
+      <c r="EP94" s="15"/>
+      <c r="EQ94" s="15"/>
+      <c r="ER94" s="15"/>
+      <c r="ES94" s="15"/>
+      <c r="ET94" s="15"/>
+      <c r="EU94" s="15"/>
+      <c r="EV94" s="15"/>
+      <c r="EW94" s="15"/>
+      <c r="EX94" s="15"/>
+      <c r="EY94" s="15"/>
+      <c r="EZ94" s="15"/>
+      <c r="FA94" s="15"/>
+      <c r="FB94" s="15"/>
+      <c r="FC94" s="15"/>
+      <c r="FD94" s="15"/>
+      <c r="FE94" s="15"/>
+      <c r="FF94" s="15"/>
+      <c r="FG94" s="15"/>
+      <c r="FH94" s="15"/>
+      <c r="FI94" s="15"/>
+      <c r="FJ94" s="15"/>
+      <c r="FK94" s="15"/>
+      <c r="FL94" s="15"/>
+      <c r="FM94" s="15"/>
+      <c r="FN94" s="15"/>
+      <c r="FO94" s="15"/>
+      <c r="FP94" s="15"/>
+      <c r="FQ94" s="15"/>
+      <c r="FR94" s="15"/>
+      <c r="FS94" s="15"/>
     </row>
     <row r="95" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A95" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
+      <c r="A95" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
       <c r="F95" s="7" t="s">
         <v>111</v>
       </c>
@@ -15139,11 +15199,11 @@
       <c r="EN95" s="15"/>
     </row>
     <row r="96" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A96" s="23"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
       <c r="G96" s="15"/>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
@@ -15281,14 +15341,14 @@
       <c r="EN96" s="15"/>
     </row>
     <row r="97" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A97" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="7" t="s">
+      <c r="A97" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G97" s="15"/>
@@ -15428,11 +15488,11 @@
       <c r="EN97" s="15"/>
     </row>
     <row r="98" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
@@ -15570,14 +15630,14 @@
       <c r="EN98" s="15"/>
     </row>
     <row r="99" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A99" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="2" t="s">
+      <c r="A99" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G99" s="15"/>
@@ -15717,11 +15777,11 @@
       <c r="EN99" s="15"/>
     </row>
     <row r="100" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A100" s="24"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
@@ -15859,13 +15919,13 @@
       <c r="EN100" s="15"/>
     </row>
     <row r="101" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
+      <c r="A101" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
       <c r="F101" s="19" t="s">
         <v>111</v>
       </c>
@@ -15994,23 +16054,23 @@
       <c r="DY101" s="15"/>
       <c r="DZ101" s="15"/>
       <c r="EA101" s="15"/>
-      <c r="EB101" s="14"/>
-      <c r="EC101" s="14"/>
-      <c r="ED101" s="14"/>
-      <c r="EE101" s="14"/>
-      <c r="EF101" s="14"/>
+      <c r="EB101" s="15"/>
+      <c r="EC101" s="15"/>
+      <c r="ED101" s="15"/>
+      <c r="EE101" s="15"/>
+      <c r="EF101" s="15"/>
       <c r="EG101" s="15"/>
       <c r="EH101" s="15"/>
-      <c r="EI101" s="14"/>
-      <c r="EJ101" s="14"/>
-      <c r="EK101" s="14"/>
-      <c r="EL101" s="14"/>
-      <c r="EM101" s="14"/>
+      <c r="EI101" s="15"/>
+      <c r="EJ101" s="15"/>
+      <c r="EK101" s="15"/>
+      <c r="EL101" s="15"/>
+      <c r="EM101" s="15"/>
       <c r="EN101" s="15"/>
       <c r="EO101" s="15"/>
-      <c r="EP101" s="15"/>
-      <c r="EQ101" s="15"/>
-      <c r="ER101" s="15"/>
+      <c r="EP101" s="14"/>
+      <c r="EQ101" s="14"/>
+      <c r="ER101" s="14"/>
       <c r="ES101" s="15"/>
       <c r="ET101" s="15"/>
       <c r="EU101" s="15"/>
@@ -16040,11 +16100,11 @@
       <c r="FS101" s="15"/>
     </row>
     <row r="102" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
@@ -16170,23 +16230,23 @@
       <c r="DY102" s="15"/>
       <c r="DZ102" s="15"/>
       <c r="EA102" s="15"/>
-      <c r="EB102" s="14"/>
-      <c r="EC102" s="14"/>
-      <c r="ED102" s="14"/>
-      <c r="EE102" s="14"/>
-      <c r="EF102" s="14"/>
+      <c r="EB102" s="15"/>
+      <c r="EC102" s="15"/>
+      <c r="ED102" s="15"/>
+      <c r="EE102" s="15"/>
+      <c r="EF102" s="15"/>
       <c r="EG102" s="15"/>
       <c r="EH102" s="15"/>
-      <c r="EI102" s="14"/>
-      <c r="EJ102" s="14"/>
-      <c r="EK102" s="14"/>
-      <c r="EL102" s="14"/>
-      <c r="EM102" s="14"/>
+      <c r="EI102" s="15"/>
+      <c r="EJ102" s="15"/>
+      <c r="EK102" s="15"/>
+      <c r="EL102" s="15"/>
+      <c r="EM102" s="15"/>
       <c r="EN102" s="15"/>
       <c r="EO102" s="15"/>
-      <c r="EP102" s="15"/>
-      <c r="EQ102" s="15"/>
-      <c r="ER102" s="15"/>
+      <c r="EP102" s="14"/>
+      <c r="EQ102" s="14"/>
+      <c r="ER102" s="14"/>
       <c r="ES102" s="15"/>
       <c r="ET102" s="15"/>
       <c r="EU102" s="15"/>
@@ -16216,14 +16276,14 @@
       <c r="FS102" s="15"/>
     </row>
     <row r="103" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A103" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="7" t="s">
+      <c r="A103" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G103" s="15"/>
@@ -16363,11 +16423,11 @@
       <c r="EN103" s="15"/>
     </row>
     <row r="104" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A104" s="26"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
       <c r="G104" s="15"/>
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
@@ -16505,14 +16565,14 @@
       <c r="EN104" s="15"/>
     </row>
     <row r="105" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A105" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="4" t="s">
+      <c r="A105" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G105" s="15"/>
@@ -16652,11 +16712,11 @@
       <c r="EN105" s="15"/>
     </row>
     <row r="106" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
+      <c r="A106" s="23"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
       <c r="G106" s="15"/>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
@@ -16794,14 +16854,14 @@
       <c r="EN106" s="15"/>
     </row>
     <row r="107" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A107" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="4" t="s">
+      <c r="A107" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G107" s="15"/>
@@ -16941,11 +17001,11 @@
       <c r="EN107" s="15"/>
     </row>
     <row r="108" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A108" s="24"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
+      <c r="A108" s="23"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
       <c r="G108" s="15"/>
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
@@ -17082,15 +17142,15 @@
       <c r="EM108" s="15"/>
       <c r="EN108" s="15"/>
     </row>
-    <row r="109" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="19" t="s">
+    <row r="109" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A109" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G109" s="15"/>
@@ -17122,9 +17182,6 @@
       <c r="AG109" s="15"/>
       <c r="AH109" s="15"/>
       <c r="AI109" s="15"/>
-      <c r="AJ109" s="12"/>
-      <c r="AK109" s="12"/>
-      <c r="AL109" s="12"/>
       <c r="AM109" s="15"/>
       <c r="AN109" s="15"/>
       <c r="AO109" s="15"/>
@@ -17231,44 +17288,33 @@
       <c r="EL109" s="15"/>
       <c r="EM109" s="15"/>
       <c r="EN109" s="15"/>
-      <c r="EO109" s="15"/>
-      <c r="EP109" s="14"/>
-      <c r="EQ109" s="14"/>
-      <c r="ER109" s="14"/>
-      <c r="ES109" s="15"/>
-      <c r="ET109" s="15"/>
-      <c r="EU109" s="15"/>
-      <c r="EV109" s="15"/>
-      <c r="EW109" s="15"/>
-      <c r="EX109" s="15"/>
-      <c r="EY109" s="15"/>
-      <c r="EZ109" s="15"/>
-      <c r="FA109" s="15"/>
-      <c r="FB109" s="15"/>
-      <c r="FC109" s="15"/>
-      <c r="FD109" s="15"/>
-      <c r="FE109" s="15"/>
-      <c r="FF109" s="15"/>
-      <c r="FG109" s="15"/>
-      <c r="FH109" s="15"/>
-      <c r="FI109" s="15"/>
-      <c r="FJ109" s="15"/>
-      <c r="FK109" s="15"/>
-      <c r="FL109" s="15"/>
-      <c r="FM109" s="15"/>
-      <c r="FN109" s="15"/>
-      <c r="FO109" s="15"/>
-      <c r="FP109" s="15"/>
-      <c r="FQ109" s="15"/>
-      <c r="FR109" s="15"/>
-      <c r="FS109" s="15"/>
+      <c r="ES109" s="14"/>
+      <c r="ET109" s="14"/>
+      <c r="EW109" s="14"/>
+      <c r="EX109" s="14"/>
+      <c r="EY109" s="14"/>
+      <c r="EZ109" s="14"/>
+      <c r="FA109" s="14"/>
+      <c r="FD109" s="14"/>
+      <c r="FE109" s="14"/>
+      <c r="FF109" s="14"/>
+      <c r="FG109" s="14"/>
+      <c r="FH109" s="14"/>
+      <c r="FK109" s="14"/>
+      <c r="FL109" s="14"/>
+      <c r="FM109" s="14"/>
+      <c r="FN109" s="14"/>
+      <c r="FO109" s="14"/>
+      <c r="FQ109" s="14"/>
+      <c r="FR109" s="14"/>
+      <c r="FS109" s="14"/>
     </row>
-    <row r="110" spans="1:175" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
+    <row r="110" spans="1:175" x14ac:dyDescent="0.3">
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
       <c r="G110" s="15"/>
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
@@ -17298,9 +17344,6 @@
       <c r="AG110" s="15"/>
       <c r="AH110" s="15"/>
       <c r="AI110" s="15"/>
-      <c r="AJ110" s="12"/>
-      <c r="AK110" s="12"/>
-      <c r="AL110" s="12"/>
       <c r="AM110" s="15"/>
       <c r="AN110" s="15"/>
       <c r="AO110" s="15"/>
@@ -17407,46 +17450,35 @@
       <c r="EL110" s="15"/>
       <c r="EM110" s="15"/>
       <c r="EN110" s="15"/>
-      <c r="EO110" s="15"/>
-      <c r="EP110" s="14"/>
-      <c r="EQ110" s="14"/>
-      <c r="ER110" s="14"/>
-      <c r="ES110" s="15"/>
-      <c r="ET110" s="15"/>
-      <c r="EU110" s="15"/>
-      <c r="EV110" s="15"/>
-      <c r="EW110" s="15"/>
-      <c r="EX110" s="15"/>
-      <c r="EY110" s="15"/>
-      <c r="EZ110" s="15"/>
-      <c r="FA110" s="15"/>
-      <c r="FB110" s="15"/>
-      <c r="FC110" s="15"/>
-      <c r="FD110" s="15"/>
-      <c r="FE110" s="15"/>
-      <c r="FF110" s="15"/>
-      <c r="FG110" s="15"/>
-      <c r="FH110" s="15"/>
-      <c r="FI110" s="15"/>
-      <c r="FJ110" s="15"/>
-      <c r="FK110" s="15"/>
-      <c r="FL110" s="15"/>
-      <c r="FM110" s="15"/>
-      <c r="FN110" s="15"/>
-      <c r="FO110" s="15"/>
-      <c r="FP110" s="15"/>
-      <c r="FQ110" s="15"/>
-      <c r="FR110" s="15"/>
-      <c r="FS110" s="15"/>
+      <c r="ES110" s="14"/>
+      <c r="ET110" s="14"/>
+      <c r="EW110" s="14"/>
+      <c r="EX110" s="14"/>
+      <c r="EY110" s="14"/>
+      <c r="EZ110" s="14"/>
+      <c r="FA110" s="14"/>
+      <c r="FD110" s="14"/>
+      <c r="FE110" s="14"/>
+      <c r="FF110" s="14"/>
+      <c r="FG110" s="14"/>
+      <c r="FH110" s="14"/>
+      <c r="FK110" s="14"/>
+      <c r="FL110" s="14"/>
+      <c r="FM110" s="14"/>
+      <c r="FN110" s="14"/>
+      <c r="FO110" s="14"/>
+      <c r="FQ110" s="14"/>
+      <c r="FR110" s="14"/>
+      <c r="FS110" s="14"/>
     </row>
     <row r="111" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A111" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
+      <c r="A111" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
       <c r="F111" s="2" t="s">
         <v>111</v>
       </c>
@@ -17587,11 +17619,11 @@
       <c r="EN111" s="15"/>
     </row>
     <row r="112" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A112" s="24"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
+      <c r="A112" s="26"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -17728,14 +17760,14 @@
       <c r="EM112" s="15"/>
       <c r="EN112" s="15"/>
     </row>
-    <row r="113" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A113" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
+    <row r="113" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A113" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" s="26"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
       <c r="F113" s="2" t="s">
         <v>111</v>
       </c>
@@ -17875,12 +17907,12 @@
       <c r="EM113" s="15"/>
       <c r="EN113" s="15"/>
     </row>
-    <row r="114" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
+    <row r="114" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
@@ -18017,17 +18049,12 @@
       <c r="EM114" s="15"/>
       <c r="EN114" s="15"/>
     </row>
-    <row r="115" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A115" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="2" t="s">
-        <v>111</v>
-      </c>
+    <row r="115" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A115" s="23"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
@@ -18164,12 +18191,12 @@
       <c r="EM115" s="15"/>
       <c r="EN115" s="15"/>
     </row>
-    <row r="116" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
+    <row r="116" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A116" s="23"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
@@ -18306,17 +18333,12 @@
       <c r="EM116" s="15"/>
       <c r="EN116" s="15"/>
     </row>
-    <row r="117" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A117" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="4" t="s">
-        <v>111</v>
-      </c>
+    <row r="117" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
@@ -18452,33 +18474,13 @@
       <c r="EL117" s="15"/>
       <c r="EM117" s="15"/>
       <c r="EN117" s="15"/>
-      <c r="ES117" s="14"/>
-      <c r="ET117" s="14"/>
-      <c r="EW117" s="14"/>
-      <c r="EX117" s="14"/>
-      <c r="EY117" s="14"/>
-      <c r="EZ117" s="14"/>
-      <c r="FA117" s="14"/>
-      <c r="FD117" s="14"/>
-      <c r="FE117" s="14"/>
-      <c r="FF117" s="14"/>
-      <c r="FG117" s="14"/>
-      <c r="FH117" s="14"/>
-      <c r="FK117" s="14"/>
-      <c r="FL117" s="14"/>
-      <c r="FM117" s="14"/>
-      <c r="FN117" s="14"/>
-      <c r="FO117" s="14"/>
-      <c r="FQ117" s="14"/>
-      <c r="FR117" s="14"/>
-      <c r="FS117" s="14"/>
     </row>
-    <row r="118" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
+    <row r="118" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A118" s="23"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
       <c r="G118" s="15"/>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
@@ -18614,38 +18616,13 @@
       <c r="EL118" s="15"/>
       <c r="EM118" s="15"/>
       <c r="EN118" s="15"/>
-      <c r="ES118" s="14"/>
-      <c r="ET118" s="14"/>
-      <c r="EW118" s="14"/>
-      <c r="EX118" s="14"/>
-      <c r="EY118" s="14"/>
-      <c r="EZ118" s="14"/>
-      <c r="FA118" s="14"/>
-      <c r="FD118" s="14"/>
-      <c r="FE118" s="14"/>
-      <c r="FF118" s="14"/>
-      <c r="FG118" s="14"/>
-      <c r="FH118" s="14"/>
-      <c r="FK118" s="14"/>
-      <c r="FL118" s="14"/>
-      <c r="FM118" s="14"/>
-      <c r="FN118" s="14"/>
-      <c r="FO118" s="14"/>
-      <c r="FQ118" s="14"/>
-      <c r="FR118" s="14"/>
-      <c r="FS118" s="14"/>
     </row>
-    <row r="119" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A119" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26"/>
-      <c r="F119" s="2" t="s">
-        <v>111</v>
-      </c>
+    <row r="119" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
       <c r="G119" s="15"/>
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
@@ -18782,12 +18759,12 @@
       <c r="EM119" s="15"/>
       <c r="EN119" s="15"/>
     </row>
-    <row r="120" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A120" s="26"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
+    <row r="120" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A120" s="23"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
       <c r="G120" s="15"/>
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
@@ -18924,17 +18901,14 @@
       <c r="EM120" s="15"/>
       <c r="EN120" s="15"/>
     </row>
-    <row r="121" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A121" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="2" t="s">
-        <v>111</v>
-      </c>
+    <row r="121" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A121" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
       <c r="G121" s="15"/>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
@@ -19071,12 +19045,12 @@
       <c r="EM121" s="15"/>
       <c r="EN121" s="15"/>
     </row>
-    <row r="122" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A122" s="26"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
+    <row r="122" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A122" s="25"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -19213,12 +19187,14 @@
       <c r="EM122" s="15"/>
       <c r="EN122" s="15"/>
     </row>
-    <row r="123" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A123" s="24"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
+    <row r="123" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A123" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B123" s="25"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
       <c r="G123" s="15"/>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
@@ -19355,12 +19331,12 @@
       <c r="EM123" s="15"/>
       <c r="EN123" s="15"/>
     </row>
-    <row r="124" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A124" s="24"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
+    <row r="124" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
       <c r="G124" s="15"/>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
@@ -19497,12 +19473,12 @@
       <c r="EM124" s="15"/>
       <c r="EN124" s="15"/>
     </row>
-    <row r="125" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A125" s="24"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
+    <row r="125" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
       <c r="G125" s="15"/>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
@@ -19639,12 +19615,12 @@
       <c r="EM125" s="15"/>
       <c r="EN125" s="15"/>
     </row>
-    <row r="126" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
+    <row r="126" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
       <c r="G126" s="15"/>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
@@ -19781,12 +19757,12 @@
       <c r="EM126" s="15"/>
       <c r="EN126" s="15"/>
     </row>
-    <row r="127" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
+    <row r="127" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A127" s="25"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
       <c r="G127" s="15"/>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
@@ -19923,12 +19899,12 @@
       <c r="EM127" s="15"/>
       <c r="EN127" s="15"/>
     </row>
-    <row r="128" spans="1:175" x14ac:dyDescent="0.3">
-      <c r="A128" s="24"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
+    <row r="128" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
@@ -20066,11 +20042,11 @@
       <c r="EN128" s="15"/>
     </row>
     <row r="129" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A129" s="43"/>
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="43"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
       <c r="G129" s="15"/>
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
@@ -20208,11 +20184,11 @@
       <c r="EN129" s="15"/>
     </row>
     <row r="130" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A130" s="43"/>
-      <c r="B130" s="43"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="43"/>
-      <c r="E130" s="43"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
       <c r="G130" s="15"/>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
@@ -20350,11 +20326,11 @@
       <c r="EN130" s="15"/>
     </row>
     <row r="131" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A131" s="43"/>
-      <c r="B131" s="43"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="43"/>
-      <c r="E131" s="43"/>
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="25"/>
+      <c r="E131" s="25"/>
       <c r="G131" s="15"/>
       <c r="H131" s="15"/>
       <c r="I131" s="15"/>
@@ -20492,11 +20468,11 @@
       <c r="EN131" s="15"/>
     </row>
     <row r="132" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A132" s="43"/>
-      <c r="B132" s="43"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="43"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
       <c r="G132" s="15"/>
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
@@ -20634,11 +20610,11 @@
       <c r="EN132" s="15"/>
     </row>
     <row r="133" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A133" s="43"/>
-      <c r="B133" s="43"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="43"/>
+      <c r="A133" s="25"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
       <c r="G133" s="15"/>
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
@@ -20776,11 +20752,11 @@
       <c r="EN133" s="15"/>
     </row>
     <row r="134" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A134" s="43"/>
-      <c r="B134" s="43"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="43"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
       <c r="G134" s="15"/>
       <c r="H134" s="15"/>
       <c r="I134" s="15"/>
@@ -20918,11 +20894,11 @@
       <c r="EN134" s="15"/>
     </row>
     <row r="135" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A135" s="43"/>
-      <c r="B135" s="43"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="43"/>
-      <c r="E135" s="43"/>
+      <c r="A135" s="25"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
       <c r="G135" s="15"/>
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
@@ -21060,11 +21036,11 @@
       <c r="EN135" s="15"/>
     </row>
     <row r="136" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A136" s="43"/>
-      <c r="B136" s="43"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="43"/>
-      <c r="E136" s="43"/>
+      <c r="A136" s="25"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
       <c r="G136" s="15"/>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
@@ -21202,11 +21178,11 @@
       <c r="EN136" s="15"/>
     </row>
     <row r="137" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A137" s="43"/>
-      <c r="B137" s="43"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="43"/>
-      <c r="E137" s="43"/>
+      <c r="A137" s="25"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
       <c r="G137" s="15"/>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
@@ -21344,11 +21320,11 @@
       <c r="EN137" s="15"/>
     </row>
     <row r="138" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A138" s="43"/>
-      <c r="B138" s="43"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="43"/>
-      <c r="E138" s="43"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="25"/>
       <c r="G138" s="15"/>
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
@@ -21486,11 +21462,11 @@
       <c r="EN138" s="15"/>
     </row>
     <row r="139" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A139" s="43"/>
-      <c r="B139" s="43"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="43"/>
-      <c r="E139" s="43"/>
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
       <c r="I139" s="15"/>
@@ -21628,11 +21604,11 @@
       <c r="EN139" s="15"/>
     </row>
     <row r="140" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A140" s="43"/>
-      <c r="B140" s="43"/>
-      <c r="C140" s="43"/>
-      <c r="D140" s="43"/>
-      <c r="E140" s="43"/>
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
@@ -21770,11 +21746,11 @@
       <c r="EN140" s="15"/>
     </row>
     <row r="141" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A141" s="43"/>
-      <c r="B141" s="43"/>
-      <c r="C141" s="43"/>
-      <c r="D141" s="43"/>
-      <c r="E141" s="43"/>
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
       <c r="G141" s="15"/>
       <c r="H141" s="15"/>
       <c r="I141" s="15"/>
@@ -21912,11 +21888,11 @@
       <c r="EN141" s="15"/>
     </row>
     <row r="142" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A142" s="43"/>
-      <c r="B142" s="43"/>
-      <c r="C142" s="43"/>
-      <c r="D142" s="43"/>
-      <c r="E142" s="43"/>
+      <c r="A142" s="25"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
       <c r="G142" s="15"/>
       <c r="H142" s="15"/>
       <c r="I142" s="15"/>
@@ -22054,11 +22030,11 @@
       <c r="EN142" s="15"/>
     </row>
     <row r="143" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A143" s="43"/>
-      <c r="B143" s="43"/>
-      <c r="C143" s="43"/>
-      <c r="D143" s="43"/>
-      <c r="E143" s="43"/>
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
       <c r="G143" s="15"/>
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
@@ -22196,11 +22172,11 @@
       <c r="EN143" s="15"/>
     </row>
     <row r="144" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A144" s="43"/>
-      <c r="B144" s="43"/>
-      <c r="C144" s="43"/>
-      <c r="D144" s="43"/>
-      <c r="E144" s="43"/>
+      <c r="A144" s="25"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
       <c r="G144" s="15"/>
       <c r="H144" s="15"/>
       <c r="I144" s="15"/>
@@ -22338,11 +22314,11 @@
       <c r="EN144" s="15"/>
     </row>
     <row r="145" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A145" s="43"/>
-      <c r="B145" s="43"/>
-      <c r="C145" s="43"/>
-      <c r="D145" s="43"/>
-      <c r="E145" s="43"/>
+      <c r="A145" s="25"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="25"/>
       <c r="G145" s="15"/>
       <c r="H145" s="15"/>
       <c r="I145" s="15"/>
@@ -22480,11 +22456,11 @@
       <c r="EN145" s="15"/>
     </row>
     <row r="146" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A146" s="43"/>
-      <c r="B146" s="43"/>
-      <c r="C146" s="43"/>
-      <c r="D146" s="43"/>
-      <c r="E146" s="43"/>
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
       <c r="G146" s="15"/>
       <c r="H146" s="15"/>
       <c r="I146" s="15"/>
@@ -22622,11 +22598,11 @@
       <c r="EN146" s="15"/>
     </row>
     <row r="147" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A147" s="43"/>
-      <c r="B147" s="43"/>
-      <c r="C147" s="43"/>
-      <c r="D147" s="43"/>
-      <c r="E147" s="43"/>
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
       <c r="G147" s="15"/>
       <c r="H147" s="15"/>
       <c r="I147" s="15"/>
@@ -22764,11 +22740,11 @@
       <c r="EN147" s="15"/>
     </row>
     <row r="148" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A148" s="43"/>
-      <c r="B148" s="43"/>
-      <c r="C148" s="43"/>
-      <c r="D148" s="43"/>
-      <c r="E148" s="43"/>
+      <c r="A148" s="25"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
       <c r="G148" s="15"/>
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
@@ -22906,11 +22882,11 @@
       <c r="EN148" s="15"/>
     </row>
     <row r="149" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A149" s="43"/>
-      <c r="B149" s="43"/>
-      <c r="C149" s="43"/>
-      <c r="D149" s="43"/>
-      <c r="E149" s="43"/>
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
       <c r="G149" s="15"/>
       <c r="H149" s="15"/>
       <c r="I149" s="15"/>
@@ -23048,11 +23024,11 @@
       <c r="EN149" s="15"/>
     </row>
     <row r="150" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A150" s="43"/>
-      <c r="B150" s="43"/>
-      <c r="C150" s="43"/>
-      <c r="D150" s="43"/>
-      <c r="E150" s="43"/>
+      <c r="A150" s="25"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
       <c r="G150" s="15"/>
       <c r="H150" s="15"/>
       <c r="I150" s="15"/>
@@ -23190,11 +23166,11 @@
       <c r="EN150" s="15"/>
     </row>
     <row r="151" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A151" s="43"/>
-      <c r="B151" s="43"/>
-      <c r="C151" s="43"/>
-      <c r="D151" s="43"/>
-      <c r="E151" s="43"/>
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
       <c r="G151" s="15"/>
       <c r="H151" s="15"/>
       <c r="I151" s="15"/>
@@ -23332,11 +23308,11 @@
       <c r="EN151" s="15"/>
     </row>
     <row r="152" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A152" s="43"/>
-      <c r="B152" s="43"/>
-      <c r="C152" s="43"/>
-      <c r="D152" s="43"/>
-      <c r="E152" s="43"/>
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
       <c r="G152" s="15"/>
       <c r="H152" s="15"/>
       <c r="I152" s="15"/>
@@ -23474,11 +23450,11 @@
       <c r="EN152" s="15"/>
     </row>
     <row r="153" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A153" s="43"/>
-      <c r="B153" s="43"/>
-      <c r="C153" s="43"/>
-      <c r="D153" s="43"/>
-      <c r="E153" s="43"/>
+      <c r="A153" s="25"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
       <c r="G153" s="15"/>
       <c r="H153" s="15"/>
       <c r="I153" s="15"/>
@@ -23616,11 +23592,11 @@
       <c r="EN153" s="15"/>
     </row>
     <row r="154" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A154" s="43"/>
-      <c r="B154" s="43"/>
-      <c r="C154" s="43"/>
-      <c r="D154" s="43"/>
-      <c r="E154" s="43"/>
+      <c r="A154" s="25"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
       <c r="G154" s="15"/>
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
@@ -23758,11 +23734,11 @@
       <c r="EN154" s="15"/>
     </row>
     <row r="155" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A155" s="43"/>
-      <c r="B155" s="43"/>
-      <c r="C155" s="43"/>
-      <c r="D155" s="43"/>
-      <c r="E155" s="43"/>
+      <c r="A155" s="25"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
       <c r="G155" s="15"/>
       <c r="H155" s="15"/>
       <c r="I155" s="15"/>
@@ -23900,11 +23876,11 @@
       <c r="EN155" s="15"/>
     </row>
     <row r="156" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A156" s="43"/>
-      <c r="B156" s="43"/>
-      <c r="C156" s="43"/>
-      <c r="D156" s="43"/>
-      <c r="E156" s="43"/>
+      <c r="A156" s="25"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
       <c r="G156" s="15"/>
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
@@ -24042,11 +24018,11 @@
       <c r="EN156" s="15"/>
     </row>
     <row r="157" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A157" s="43"/>
-      <c r="B157" s="43"/>
-      <c r="C157" s="43"/>
-      <c r="D157" s="43"/>
-      <c r="E157" s="43"/>
+      <c r="A157" s="25"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
       <c r="G157" s="15"/>
       <c r="H157" s="15"/>
       <c r="I157" s="15"/>
@@ -24184,11 +24160,11 @@
       <c r="EN157" s="15"/>
     </row>
     <row r="158" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A158" s="43"/>
-      <c r="B158" s="43"/>
-      <c r="C158" s="43"/>
-      <c r="D158" s="43"/>
-      <c r="E158" s="43"/>
+      <c r="A158" s="25"/>
+      <c r="B158" s="25"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
       <c r="G158" s="15"/>
       <c r="H158" s="15"/>
       <c r="I158" s="15"/>
@@ -24326,11 +24302,11 @@
       <c r="EN158" s="15"/>
     </row>
     <row r="159" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A159" s="43"/>
-      <c r="B159" s="43"/>
-      <c r="C159" s="43"/>
-      <c r="D159" s="43"/>
-      <c r="E159" s="43"/>
+      <c r="A159" s="25"/>
+      <c r="B159" s="25"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25"/>
       <c r="G159" s="15"/>
       <c r="H159" s="15"/>
       <c r="I159" s="15"/>
@@ -24468,11 +24444,11 @@
       <c r="EN159" s="15"/>
     </row>
     <row r="160" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A160" s="43"/>
-      <c r="B160" s="43"/>
-      <c r="C160" s="43"/>
-      <c r="D160" s="43"/>
-      <c r="E160" s="43"/>
+      <c r="A160" s="25"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
       <c r="G160" s="15"/>
       <c r="H160" s="15"/>
       <c r="I160" s="15"/>
@@ -24610,11 +24586,11 @@
       <c r="EN160" s="15"/>
     </row>
     <row r="161" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A161" s="43"/>
-      <c r="B161" s="43"/>
-      <c r="C161" s="43"/>
-      <c r="D161" s="43"/>
-      <c r="E161" s="43"/>
+      <c r="A161" s="25"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="25"/>
       <c r="G161" s="15"/>
       <c r="H161" s="15"/>
       <c r="I161" s="15"/>
@@ -24752,11 +24728,11 @@
       <c r="EN161" s="15"/>
     </row>
     <row r="162" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A162" s="43"/>
-      <c r="B162" s="43"/>
-      <c r="C162" s="43"/>
-      <c r="D162" s="43"/>
-      <c r="E162" s="43"/>
+      <c r="A162" s="25"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="25"/>
+      <c r="E162" s="25"/>
       <c r="G162" s="15"/>
       <c r="H162" s="15"/>
       <c r="I162" s="15"/>
@@ -24894,11 +24870,11 @@
       <c r="EN162" s="15"/>
     </row>
     <row r="163" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A163" s="43"/>
-      <c r="B163" s="43"/>
-      <c r="C163" s="43"/>
-      <c r="D163" s="43"/>
-      <c r="E163" s="43"/>
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="25"/>
       <c r="G163" s="15"/>
       <c r="H163" s="15"/>
       <c r="I163" s="15"/>
@@ -25036,11 +25012,11 @@
       <c r="EN163" s="15"/>
     </row>
     <row r="164" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A164" s="43"/>
-      <c r="B164" s="43"/>
-      <c r="C164" s="43"/>
-      <c r="D164" s="43"/>
-      <c r="E164" s="43"/>
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="25"/>
+      <c r="E164" s="25"/>
       <c r="G164" s="15"/>
       <c r="H164" s="15"/>
       <c r="I164" s="15"/>
@@ -25178,11 +25154,11 @@
       <c r="EN164" s="15"/>
     </row>
     <row r="165" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A165" s="43"/>
-      <c r="B165" s="43"/>
-      <c r="C165" s="43"/>
-      <c r="D165" s="43"/>
-      <c r="E165" s="43"/>
+      <c r="A165" s="25"/>
+      <c r="B165" s="25"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="25"/>
+      <c r="E165" s="25"/>
       <c r="G165" s="15"/>
       <c r="H165" s="15"/>
       <c r="I165" s="15"/>
@@ -25320,11 +25296,11 @@
       <c r="EN165" s="15"/>
     </row>
     <row r="166" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A166" s="43"/>
-      <c r="B166" s="43"/>
-      <c r="C166" s="43"/>
-      <c r="D166" s="43"/>
-      <c r="E166" s="43"/>
+      <c r="A166" s="25"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="25"/>
       <c r="G166" s="15"/>
       <c r="H166" s="15"/>
       <c r="I166" s="15"/>
@@ -25462,11 +25438,11 @@
       <c r="EN166" s="15"/>
     </row>
     <row r="167" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A167" s="43"/>
-      <c r="B167" s="43"/>
-      <c r="C167" s="43"/>
-      <c r="D167" s="43"/>
-      <c r="E167" s="43"/>
+      <c r="A167" s="25"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="25"/>
       <c r="G167" s="15"/>
       <c r="H167" s="15"/>
       <c r="I167" s="15"/>
@@ -25604,11 +25580,11 @@
       <c r="EN167" s="15"/>
     </row>
     <row r="168" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A168" s="43"/>
-      <c r="B168" s="43"/>
-      <c r="C168" s="43"/>
-      <c r="D168" s="43"/>
-      <c r="E168" s="43"/>
+      <c r="A168" s="25"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="25"/>
       <c r="G168" s="15"/>
       <c r="H168" s="15"/>
       <c r="I168" s="15"/>
@@ -25746,11 +25722,11 @@
       <c r="EN168" s="15"/>
     </row>
     <row r="169" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A169" s="43"/>
-      <c r="B169" s="43"/>
-      <c r="C169" s="43"/>
-      <c r="D169" s="43"/>
-      <c r="E169" s="43"/>
+      <c r="A169" s="25"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="25"/>
       <c r="G169" s="15"/>
       <c r="H169" s="15"/>
       <c r="I169" s="15"/>
@@ -25888,11 +25864,11 @@
       <c r="EN169" s="15"/>
     </row>
     <row r="170" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A170" s="43"/>
-      <c r="B170" s="43"/>
-      <c r="C170" s="43"/>
-      <c r="D170" s="43"/>
-      <c r="E170" s="43"/>
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="25"/>
       <c r="G170" s="15"/>
       <c r="H170" s="15"/>
       <c r="I170" s="15"/>
@@ -26030,11 +26006,11 @@
       <c r="EN170" s="15"/>
     </row>
     <row r="171" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A171" s="43"/>
-      <c r="B171" s="43"/>
-      <c r="C171" s="43"/>
-      <c r="D171" s="43"/>
-      <c r="E171" s="43"/>
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="25"/>
       <c r="G171" s="15"/>
       <c r="H171" s="15"/>
       <c r="I171" s="15"/>
@@ -26172,11 +26148,11 @@
       <c r="EN171" s="15"/>
     </row>
     <row r="172" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A172" s="43"/>
-      <c r="B172" s="43"/>
-      <c r="C172" s="43"/>
-      <c r="D172" s="43"/>
-      <c r="E172" s="43"/>
+      <c r="A172" s="25"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="25"/>
       <c r="G172" s="15"/>
       <c r="H172" s="15"/>
       <c r="I172" s="15"/>
@@ -26314,11 +26290,11 @@
       <c r="EN172" s="15"/>
     </row>
     <row r="173" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A173" s="43"/>
-      <c r="B173" s="43"/>
-      <c r="C173" s="43"/>
-      <c r="D173" s="43"/>
-      <c r="E173" s="43"/>
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="25"/>
+      <c r="E173" s="25"/>
       <c r="G173" s="15"/>
       <c r="H173" s="15"/>
       <c r="I173" s="15"/>
@@ -26456,11 +26432,11 @@
       <c r="EN173" s="15"/>
     </row>
     <row r="174" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A174" s="43"/>
-      <c r="B174" s="43"/>
-      <c r="C174" s="43"/>
-      <c r="D174" s="43"/>
-      <c r="E174" s="43"/>
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="25"/>
+      <c r="E174" s="25"/>
       <c r="G174" s="15"/>
       <c r="H174" s="15"/>
       <c r="I174" s="15"/>
@@ -26598,11 +26574,11 @@
       <c r="EN174" s="15"/>
     </row>
     <row r="175" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A175" s="43"/>
-      <c r="B175" s="43"/>
-      <c r="C175" s="43"/>
-      <c r="D175" s="43"/>
-      <c r="E175" s="43"/>
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="25"/>
+      <c r="E175" s="25"/>
       <c r="G175" s="15"/>
       <c r="H175" s="15"/>
       <c r="I175" s="15"/>
@@ -26740,11 +26716,11 @@
       <c r="EN175" s="15"/>
     </row>
     <row r="176" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A176" s="43"/>
-      <c r="B176" s="43"/>
-      <c r="C176" s="43"/>
-      <c r="D176" s="43"/>
-      <c r="E176" s="43"/>
+      <c r="A176" s="25"/>
+      <c r="B176" s="25"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="25"/>
       <c r="G176" s="15"/>
       <c r="H176" s="15"/>
       <c r="I176" s="15"/>
@@ -26882,11 +26858,11 @@
       <c r="EN176" s="15"/>
     </row>
     <row r="177" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A177" s="43"/>
-      <c r="B177" s="43"/>
-      <c r="C177" s="43"/>
-      <c r="D177" s="43"/>
-      <c r="E177" s="43"/>
+      <c r="A177" s="25"/>
+      <c r="B177" s="25"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
       <c r="G177" s="15"/>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -27024,11 +27000,11 @@
       <c r="EN177" s="15"/>
     </row>
     <row r="178" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A178" s="43"/>
-      <c r="B178" s="43"/>
-      <c r="C178" s="43"/>
-      <c r="D178" s="43"/>
-      <c r="E178" s="43"/>
+      <c r="A178" s="25"/>
+      <c r="B178" s="25"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="25"/>
+      <c r="E178" s="25"/>
       <c r="G178" s="15"/>
       <c r="H178" s="15"/>
       <c r="I178" s="15"/>
@@ -27166,1193 +27142,129 @@
       <c r="EN178" s="15"/>
     </row>
     <row r="179" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A179" s="43"/>
-      <c r="B179" s="43"/>
-      <c r="C179" s="43"/>
-      <c r="D179" s="43"/>
-      <c r="E179" s="43"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="15"/>
-      <c r="I179" s="15"/>
-      <c r="J179" s="15"/>
-      <c r="K179" s="15"/>
-      <c r="L179" s="15"/>
-      <c r="M179" s="15"/>
-      <c r="N179" s="15"/>
-      <c r="O179" s="15"/>
-      <c r="P179" s="15"/>
-      <c r="Q179" s="15"/>
-      <c r="R179" s="15"/>
-      <c r="S179" s="15"/>
-      <c r="T179" s="15"/>
-      <c r="U179" s="15"/>
-      <c r="V179" s="15"/>
-      <c r="W179" s="15"/>
-      <c r="X179" s="15"/>
-      <c r="Y179" s="15"/>
-      <c r="Z179" s="15"/>
-      <c r="AA179" s="15"/>
-      <c r="AB179" s="15"/>
-      <c r="AC179" s="15"/>
-      <c r="AD179" s="15"/>
-      <c r="AE179" s="15"/>
-      <c r="AF179" s="15"/>
-      <c r="AG179" s="15"/>
-      <c r="AH179" s="15"/>
-      <c r="AI179" s="15"/>
-      <c r="AM179" s="15"/>
-      <c r="AN179" s="15"/>
-      <c r="AO179" s="15"/>
-      <c r="AP179" s="15"/>
-      <c r="AQ179" s="15"/>
-      <c r="AR179" s="15"/>
-      <c r="AS179" s="15"/>
-      <c r="AT179" s="15"/>
-      <c r="AU179" s="15"/>
-      <c r="AV179" s="15"/>
-      <c r="AW179" s="15"/>
-      <c r="AX179" s="15"/>
-      <c r="AY179" s="15"/>
-      <c r="AZ179" s="15"/>
-      <c r="BA179" s="15"/>
-      <c r="BB179" s="15"/>
-      <c r="BC179" s="15"/>
-      <c r="BD179" s="15"/>
-      <c r="BE179" s="15"/>
-      <c r="BF179" s="15"/>
-      <c r="BG179" s="15"/>
-      <c r="BH179" s="15"/>
-      <c r="BI179" s="15"/>
-      <c r="BJ179" s="15"/>
-      <c r="BK179" s="15"/>
-      <c r="BL179" s="15"/>
-      <c r="BM179" s="15"/>
-      <c r="BN179" s="15"/>
-      <c r="BO179" s="15"/>
-      <c r="BP179" s="15"/>
-      <c r="BQ179" s="15"/>
-      <c r="BR179" s="15"/>
-      <c r="BS179" s="15"/>
-      <c r="BT179" s="15"/>
-      <c r="BU179" s="15"/>
-      <c r="BV179" s="15"/>
-      <c r="BW179" s="15"/>
-      <c r="BX179" s="15"/>
-      <c r="BY179" s="15"/>
-      <c r="BZ179" s="15"/>
-      <c r="CA179" s="15"/>
-      <c r="CB179" s="15"/>
-      <c r="CC179" s="15"/>
-      <c r="CD179" s="15"/>
-      <c r="CE179" s="15"/>
-      <c r="CF179" s="15"/>
-      <c r="CG179" s="15"/>
-      <c r="CH179" s="15"/>
-      <c r="CI179" s="15"/>
-      <c r="CJ179" s="15"/>
-      <c r="CK179" s="15"/>
-      <c r="CL179" s="15"/>
-      <c r="CM179" s="15"/>
-      <c r="CN179" s="15"/>
-      <c r="CO179" s="15"/>
-      <c r="CP179" s="15"/>
-      <c r="CQ179" s="15"/>
-      <c r="CR179" s="15"/>
-      <c r="CS179" s="15"/>
-      <c r="CT179" s="15"/>
-      <c r="CU179" s="15"/>
-      <c r="CV179" s="15"/>
-      <c r="CW179" s="15"/>
-      <c r="CX179" s="15"/>
-      <c r="CY179" s="15"/>
-      <c r="CZ179" s="15"/>
-      <c r="DA179" s="15"/>
-      <c r="DB179" s="15"/>
-      <c r="DC179" s="15"/>
-      <c r="DD179" s="15"/>
-      <c r="DE179" s="15"/>
-      <c r="DF179" s="15"/>
-      <c r="DG179" s="15"/>
-      <c r="DH179" s="15"/>
-      <c r="DI179" s="15"/>
-      <c r="DJ179" s="15"/>
-      <c r="DK179" s="15"/>
-      <c r="DL179" s="15"/>
-      <c r="DM179" s="15"/>
-      <c r="DN179" s="15"/>
-      <c r="DO179" s="15"/>
-      <c r="DP179" s="15"/>
-      <c r="DQ179" s="15"/>
-      <c r="DR179" s="15"/>
-      <c r="DS179" s="15"/>
-      <c r="DT179" s="15"/>
-      <c r="DU179" s="15"/>
-      <c r="DV179" s="15"/>
-      <c r="DW179" s="15"/>
-      <c r="DX179" s="15"/>
-      <c r="DY179" s="15"/>
-      <c r="DZ179" s="15"/>
-      <c r="EA179" s="15"/>
-      <c r="EB179" s="15"/>
-      <c r="EC179" s="15"/>
-      <c r="ED179" s="15"/>
-      <c r="EE179" s="15"/>
-      <c r="EF179" s="15"/>
-      <c r="EG179" s="15"/>
-      <c r="EH179" s="15"/>
-      <c r="EI179" s="15"/>
-      <c r="EJ179" s="15"/>
-      <c r="EK179" s="15"/>
-      <c r="EL179" s="15"/>
-      <c r="EM179" s="15"/>
-      <c r="EN179" s="15"/>
+      <c r="A179" s="25"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="25"/>
+      <c r="E179" s="25"/>
     </row>
     <row r="180" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A180" s="43"/>
-      <c r="B180" s="43"/>
-      <c r="C180" s="43"/>
-      <c r="D180" s="43"/>
-      <c r="E180" s="43"/>
-      <c r="G180" s="15"/>
-      <c r="H180" s="15"/>
-      <c r="I180" s="15"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="15"/>
-      <c r="L180" s="15"/>
-      <c r="M180" s="15"/>
-      <c r="N180" s="15"/>
-      <c r="O180" s="15"/>
-      <c r="P180" s="15"/>
-      <c r="Q180" s="15"/>
-      <c r="R180" s="15"/>
-      <c r="S180" s="15"/>
-      <c r="T180" s="15"/>
-      <c r="U180" s="15"/>
-      <c r="V180" s="15"/>
-      <c r="W180" s="15"/>
-      <c r="X180" s="15"/>
-      <c r="Y180" s="15"/>
-      <c r="Z180" s="15"/>
-      <c r="AA180" s="15"/>
-      <c r="AB180" s="15"/>
-      <c r="AC180" s="15"/>
-      <c r="AD180" s="15"/>
-      <c r="AE180" s="15"/>
-      <c r="AF180" s="15"/>
-      <c r="AG180" s="15"/>
-      <c r="AH180" s="15"/>
-      <c r="AI180" s="15"/>
-      <c r="AM180" s="15"/>
-      <c r="AN180" s="15"/>
-      <c r="AO180" s="15"/>
-      <c r="AP180" s="15"/>
-      <c r="AQ180" s="15"/>
-      <c r="AR180" s="15"/>
-      <c r="AS180" s="15"/>
-      <c r="AT180" s="15"/>
-      <c r="AU180" s="15"/>
-      <c r="AV180" s="15"/>
-      <c r="AW180" s="15"/>
-      <c r="AX180" s="15"/>
-      <c r="AY180" s="15"/>
-      <c r="AZ180" s="15"/>
-      <c r="BA180" s="15"/>
-      <c r="BB180" s="15"/>
-      <c r="BC180" s="15"/>
-      <c r="BD180" s="15"/>
-      <c r="BE180" s="15"/>
-      <c r="BF180" s="15"/>
-      <c r="BG180" s="15"/>
-      <c r="BH180" s="15"/>
-      <c r="BI180" s="15"/>
-      <c r="BJ180" s="15"/>
-      <c r="BK180" s="15"/>
-      <c r="BL180" s="15"/>
-      <c r="BM180" s="15"/>
-      <c r="BN180" s="15"/>
-      <c r="BO180" s="15"/>
-      <c r="BP180" s="15"/>
-      <c r="BQ180" s="15"/>
-      <c r="BR180" s="15"/>
-      <c r="BS180" s="15"/>
-      <c r="BT180" s="15"/>
-      <c r="BU180" s="15"/>
-      <c r="BV180" s="15"/>
-      <c r="BW180" s="15"/>
-      <c r="BX180" s="15"/>
-      <c r="BY180" s="15"/>
-      <c r="BZ180" s="15"/>
-      <c r="CA180" s="15"/>
-      <c r="CB180" s="15"/>
-      <c r="CC180" s="15"/>
-      <c r="CD180" s="15"/>
-      <c r="CE180" s="15"/>
-      <c r="CF180" s="15"/>
-      <c r="CG180" s="15"/>
-      <c r="CH180" s="15"/>
-      <c r="CI180" s="15"/>
-      <c r="CJ180" s="15"/>
-      <c r="CK180" s="15"/>
-      <c r="CL180" s="15"/>
-      <c r="CM180" s="15"/>
-      <c r="CN180" s="15"/>
-      <c r="CO180" s="15"/>
-      <c r="CP180" s="15"/>
-      <c r="CQ180" s="15"/>
-      <c r="CR180" s="15"/>
-      <c r="CS180" s="15"/>
-      <c r="CT180" s="15"/>
-      <c r="CU180" s="15"/>
-      <c r="CV180" s="15"/>
-      <c r="CW180" s="15"/>
-      <c r="CX180" s="15"/>
-      <c r="CY180" s="15"/>
-      <c r="CZ180" s="15"/>
-      <c r="DA180" s="15"/>
-      <c r="DB180" s="15"/>
-      <c r="DC180" s="15"/>
-      <c r="DD180" s="15"/>
-      <c r="DE180" s="15"/>
-      <c r="DF180" s="15"/>
-      <c r="DG180" s="15"/>
-      <c r="DH180" s="15"/>
-      <c r="DI180" s="15"/>
-      <c r="DJ180" s="15"/>
-      <c r="DK180" s="15"/>
-      <c r="DL180" s="15"/>
-      <c r="DM180" s="15"/>
-      <c r="DN180" s="15"/>
-      <c r="DO180" s="15"/>
-      <c r="DP180" s="15"/>
-      <c r="DQ180" s="15"/>
-      <c r="DR180" s="15"/>
-      <c r="DS180" s="15"/>
-      <c r="DT180" s="15"/>
-      <c r="DU180" s="15"/>
-      <c r="DV180" s="15"/>
-      <c r="DW180" s="15"/>
-      <c r="DX180" s="15"/>
-      <c r="DY180" s="15"/>
-      <c r="DZ180" s="15"/>
-      <c r="EA180" s="15"/>
-      <c r="EB180" s="15"/>
-      <c r="EC180" s="15"/>
-      <c r="ED180" s="15"/>
-      <c r="EE180" s="15"/>
-      <c r="EF180" s="15"/>
-      <c r="EG180" s="15"/>
-      <c r="EH180" s="15"/>
-      <c r="EI180" s="15"/>
-      <c r="EJ180" s="15"/>
-      <c r="EK180" s="15"/>
-      <c r="EL180" s="15"/>
-      <c r="EM180" s="15"/>
-      <c r="EN180" s="15"/>
+      <c r="A180" s="25"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="25"/>
+      <c r="E180" s="25"/>
     </row>
     <row r="181" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A181" s="43"/>
-      <c r="B181" s="43"/>
-      <c r="C181" s="43"/>
-      <c r="D181" s="43"/>
-      <c r="E181" s="43"/>
-      <c r="G181" s="15"/>
-      <c r="H181" s="15"/>
-      <c r="I181" s="15"/>
-      <c r="J181" s="15"/>
-      <c r="K181" s="15"/>
-      <c r="L181" s="15"/>
-      <c r="M181" s="15"/>
-      <c r="N181" s="15"/>
-      <c r="O181" s="15"/>
-      <c r="P181" s="15"/>
-      <c r="Q181" s="15"/>
-      <c r="R181" s="15"/>
-      <c r="S181" s="15"/>
-      <c r="T181" s="15"/>
-      <c r="U181" s="15"/>
-      <c r="V181" s="15"/>
-      <c r="W181" s="15"/>
-      <c r="X181" s="15"/>
-      <c r="Y181" s="15"/>
-      <c r="Z181" s="15"/>
-      <c r="AA181" s="15"/>
-      <c r="AB181" s="15"/>
-      <c r="AC181" s="15"/>
-      <c r="AD181" s="15"/>
-      <c r="AE181" s="15"/>
-      <c r="AF181" s="15"/>
-      <c r="AG181" s="15"/>
-      <c r="AH181" s="15"/>
-      <c r="AI181" s="15"/>
-      <c r="AM181" s="15"/>
-      <c r="AN181" s="15"/>
-      <c r="AO181" s="15"/>
-      <c r="AP181" s="15"/>
-      <c r="AQ181" s="15"/>
-      <c r="AR181" s="15"/>
-      <c r="AS181" s="15"/>
-      <c r="AT181" s="15"/>
-      <c r="AU181" s="15"/>
-      <c r="AV181" s="15"/>
-      <c r="AW181" s="15"/>
-      <c r="AX181" s="15"/>
-      <c r="AY181" s="15"/>
-      <c r="AZ181" s="15"/>
-      <c r="BA181" s="15"/>
-      <c r="BB181" s="15"/>
-      <c r="BC181" s="15"/>
-      <c r="BD181" s="15"/>
-      <c r="BE181" s="15"/>
-      <c r="BF181" s="15"/>
-      <c r="BG181" s="15"/>
-      <c r="BH181" s="15"/>
-      <c r="BI181" s="15"/>
-      <c r="BJ181" s="15"/>
-      <c r="BK181" s="15"/>
-      <c r="BL181" s="15"/>
-      <c r="BM181" s="15"/>
-      <c r="BN181" s="15"/>
-      <c r="BO181" s="15"/>
-      <c r="BP181" s="15"/>
-      <c r="BQ181" s="15"/>
-      <c r="BR181" s="15"/>
-      <c r="BS181" s="15"/>
-      <c r="BT181" s="15"/>
-      <c r="BU181" s="15"/>
-      <c r="BV181" s="15"/>
-      <c r="BW181" s="15"/>
-      <c r="BX181" s="15"/>
-      <c r="BY181" s="15"/>
-      <c r="BZ181" s="15"/>
-      <c r="CA181" s="15"/>
-      <c r="CB181" s="15"/>
-      <c r="CC181" s="15"/>
-      <c r="CD181" s="15"/>
-      <c r="CE181" s="15"/>
-      <c r="CF181" s="15"/>
-      <c r="CG181" s="15"/>
-      <c r="CH181" s="15"/>
-      <c r="CI181" s="15"/>
-      <c r="CJ181" s="15"/>
-      <c r="CK181" s="15"/>
-      <c r="CL181" s="15"/>
-      <c r="CM181" s="15"/>
-      <c r="CN181" s="15"/>
-      <c r="CO181" s="15"/>
-      <c r="CP181" s="15"/>
-      <c r="CQ181" s="15"/>
-      <c r="CR181" s="15"/>
-      <c r="CS181" s="15"/>
-      <c r="CT181" s="15"/>
-      <c r="CU181" s="15"/>
-      <c r="CV181" s="15"/>
-      <c r="CW181" s="15"/>
-      <c r="CX181" s="15"/>
-      <c r="CY181" s="15"/>
-      <c r="CZ181" s="15"/>
-      <c r="DA181" s="15"/>
-      <c r="DB181" s="15"/>
-      <c r="DC181" s="15"/>
-      <c r="DD181" s="15"/>
-      <c r="DE181" s="15"/>
-      <c r="DF181" s="15"/>
-      <c r="DG181" s="15"/>
-      <c r="DH181" s="15"/>
-      <c r="DI181" s="15"/>
-      <c r="DJ181" s="15"/>
-      <c r="DK181" s="15"/>
-      <c r="DL181" s="15"/>
-      <c r="DM181" s="15"/>
-      <c r="DN181" s="15"/>
-      <c r="DO181" s="15"/>
-      <c r="DP181" s="15"/>
-      <c r="DQ181" s="15"/>
-      <c r="DR181" s="15"/>
-      <c r="DS181" s="15"/>
-      <c r="DT181" s="15"/>
-      <c r="DU181" s="15"/>
-      <c r="DV181" s="15"/>
-      <c r="DW181" s="15"/>
-      <c r="DX181" s="15"/>
-      <c r="DY181" s="15"/>
-      <c r="DZ181" s="15"/>
-      <c r="EA181" s="15"/>
-      <c r="EB181" s="15"/>
-      <c r="EC181" s="15"/>
-      <c r="ED181" s="15"/>
-      <c r="EE181" s="15"/>
-      <c r="EF181" s="15"/>
-      <c r="EG181" s="15"/>
-      <c r="EH181" s="15"/>
-      <c r="EI181" s="15"/>
-      <c r="EJ181" s="15"/>
-      <c r="EK181" s="15"/>
-      <c r="EL181" s="15"/>
-      <c r="EM181" s="15"/>
-      <c r="EN181" s="15"/>
+      <c r="A181" s="25"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="25"/>
+      <c r="E181" s="25"/>
     </row>
     <row r="182" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A182" s="43"/>
-      <c r="B182" s="43"/>
-      <c r="C182" s="43"/>
-      <c r="D182" s="43"/>
-      <c r="E182" s="43"/>
-      <c r="G182" s="15"/>
-      <c r="H182" s="15"/>
-      <c r="I182" s="15"/>
-      <c r="J182" s="15"/>
-      <c r="K182" s="15"/>
-      <c r="L182" s="15"/>
-      <c r="M182" s="15"/>
-      <c r="N182" s="15"/>
-      <c r="O182" s="15"/>
-      <c r="P182" s="15"/>
-      <c r="Q182" s="15"/>
-      <c r="R182" s="15"/>
-      <c r="S182" s="15"/>
-      <c r="T182" s="15"/>
-      <c r="U182" s="15"/>
-      <c r="V182" s="15"/>
-      <c r="W182" s="15"/>
-      <c r="X182" s="15"/>
-      <c r="Y182" s="15"/>
-      <c r="Z182" s="15"/>
-      <c r="AA182" s="15"/>
-      <c r="AB182" s="15"/>
-      <c r="AC182" s="15"/>
-      <c r="AD182" s="15"/>
-      <c r="AE182" s="15"/>
-      <c r="AF182" s="15"/>
-      <c r="AG182" s="15"/>
-      <c r="AH182" s="15"/>
-      <c r="AI182" s="15"/>
-      <c r="AM182" s="15"/>
-      <c r="AN182" s="15"/>
-      <c r="AO182" s="15"/>
-      <c r="AP182" s="15"/>
-      <c r="AQ182" s="15"/>
-      <c r="AR182" s="15"/>
-      <c r="AS182" s="15"/>
-      <c r="AT182" s="15"/>
-      <c r="AU182" s="15"/>
-      <c r="AV182" s="15"/>
-      <c r="AW182" s="15"/>
-      <c r="AX182" s="15"/>
-      <c r="AY182" s="15"/>
-      <c r="AZ182" s="15"/>
-      <c r="BA182" s="15"/>
-      <c r="BB182" s="15"/>
-      <c r="BC182" s="15"/>
-      <c r="BD182" s="15"/>
-      <c r="BE182" s="15"/>
-      <c r="BF182" s="15"/>
-      <c r="BG182" s="15"/>
-      <c r="BH182" s="15"/>
-      <c r="BI182" s="15"/>
-      <c r="BJ182" s="15"/>
-      <c r="BK182" s="15"/>
-      <c r="BL182" s="15"/>
-      <c r="BM182" s="15"/>
-      <c r="BN182" s="15"/>
-      <c r="BO182" s="15"/>
-      <c r="BP182" s="15"/>
-      <c r="BQ182" s="15"/>
-      <c r="BR182" s="15"/>
-      <c r="BS182" s="15"/>
-      <c r="BT182" s="15"/>
-      <c r="BU182" s="15"/>
-      <c r="BV182" s="15"/>
-      <c r="BW182" s="15"/>
-      <c r="BX182" s="15"/>
-      <c r="BY182" s="15"/>
-      <c r="BZ182" s="15"/>
-      <c r="CA182" s="15"/>
-      <c r="CB182" s="15"/>
-      <c r="CC182" s="15"/>
-      <c r="CD182" s="15"/>
-      <c r="CE182" s="15"/>
-      <c r="CF182" s="15"/>
-      <c r="CG182" s="15"/>
-      <c r="CH182" s="15"/>
-      <c r="CI182" s="15"/>
-      <c r="CJ182" s="15"/>
-      <c r="CK182" s="15"/>
-      <c r="CL182" s="15"/>
-      <c r="CM182" s="15"/>
-      <c r="CN182" s="15"/>
-      <c r="CO182" s="15"/>
-      <c r="CP182" s="15"/>
-      <c r="CQ182" s="15"/>
-      <c r="CR182" s="15"/>
-      <c r="CS182" s="15"/>
-      <c r="CT182" s="15"/>
-      <c r="CU182" s="15"/>
-      <c r="CV182" s="15"/>
-      <c r="CW182" s="15"/>
-      <c r="CX182" s="15"/>
-      <c r="CY182" s="15"/>
-      <c r="CZ182" s="15"/>
-      <c r="DA182" s="15"/>
-      <c r="DB182" s="15"/>
-      <c r="DC182" s="15"/>
-      <c r="DD182" s="15"/>
-      <c r="DE182" s="15"/>
-      <c r="DF182" s="15"/>
-      <c r="DG182" s="15"/>
-      <c r="DH182" s="15"/>
-      <c r="DI182" s="15"/>
-      <c r="DJ182" s="15"/>
-      <c r="DK182" s="15"/>
-      <c r="DL182" s="15"/>
-      <c r="DM182" s="15"/>
-      <c r="DN182" s="15"/>
-      <c r="DO182" s="15"/>
-      <c r="DP182" s="15"/>
-      <c r="DQ182" s="15"/>
-      <c r="DR182" s="15"/>
-      <c r="DS182" s="15"/>
-      <c r="DT182" s="15"/>
-      <c r="DU182" s="15"/>
-      <c r="DV182" s="15"/>
-      <c r="DW182" s="15"/>
-      <c r="DX182" s="15"/>
-      <c r="DY182" s="15"/>
-      <c r="DZ182" s="15"/>
-      <c r="EA182" s="15"/>
-      <c r="EB182" s="15"/>
-      <c r="EC182" s="15"/>
-      <c r="ED182" s="15"/>
-      <c r="EE182" s="15"/>
-      <c r="EF182" s="15"/>
-      <c r="EG182" s="15"/>
-      <c r="EH182" s="15"/>
-      <c r="EI182" s="15"/>
-      <c r="EJ182" s="15"/>
-      <c r="EK182" s="15"/>
-      <c r="EL182" s="15"/>
-      <c r="EM182" s="15"/>
-      <c r="EN182" s="15"/>
+      <c r="A182" s="25"/>
+      <c r="B182" s="25"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="25"/>
+      <c r="E182" s="25"/>
     </row>
     <row r="183" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A183" s="43"/>
-      <c r="B183" s="43"/>
-      <c r="C183" s="43"/>
-      <c r="D183" s="43"/>
-      <c r="E183" s="43"/>
-      <c r="G183" s="15"/>
-      <c r="H183" s="15"/>
-      <c r="I183" s="15"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="15"/>
-      <c r="L183" s="15"/>
-      <c r="M183" s="15"/>
-      <c r="N183" s="15"/>
-      <c r="O183" s="15"/>
-      <c r="P183" s="15"/>
-      <c r="Q183" s="15"/>
-      <c r="R183" s="15"/>
-      <c r="S183" s="15"/>
-      <c r="T183" s="15"/>
-      <c r="U183" s="15"/>
-      <c r="V183" s="15"/>
-      <c r="W183" s="15"/>
-      <c r="X183" s="15"/>
-      <c r="Y183" s="15"/>
-      <c r="Z183" s="15"/>
-      <c r="AA183" s="15"/>
-      <c r="AB183" s="15"/>
-      <c r="AC183" s="15"/>
-      <c r="AD183" s="15"/>
-      <c r="AE183" s="15"/>
-      <c r="AF183" s="15"/>
-      <c r="AG183" s="15"/>
-      <c r="AH183" s="15"/>
-      <c r="AI183" s="15"/>
-      <c r="AM183" s="15"/>
-      <c r="AN183" s="15"/>
-      <c r="AO183" s="15"/>
-      <c r="AP183" s="15"/>
-      <c r="AQ183" s="15"/>
-      <c r="AR183" s="15"/>
-      <c r="AS183" s="15"/>
-      <c r="AT183" s="15"/>
-      <c r="AU183" s="15"/>
-      <c r="AV183" s="15"/>
-      <c r="AW183" s="15"/>
-      <c r="AX183" s="15"/>
-      <c r="AY183" s="15"/>
-      <c r="AZ183" s="15"/>
-      <c r="BA183" s="15"/>
-      <c r="BB183" s="15"/>
-      <c r="BC183" s="15"/>
-      <c r="BD183" s="15"/>
-      <c r="BE183" s="15"/>
-      <c r="BF183" s="15"/>
-      <c r="BG183" s="15"/>
-      <c r="BH183" s="15"/>
-      <c r="BI183" s="15"/>
-      <c r="BJ183" s="15"/>
-      <c r="BK183" s="15"/>
-      <c r="BL183" s="15"/>
-      <c r="BM183" s="15"/>
-      <c r="BN183" s="15"/>
-      <c r="BO183" s="15"/>
-      <c r="BP183" s="15"/>
-      <c r="BQ183" s="15"/>
-      <c r="BR183" s="15"/>
-      <c r="BS183" s="15"/>
-      <c r="BT183" s="15"/>
-      <c r="BU183" s="15"/>
-      <c r="BV183" s="15"/>
-      <c r="BW183" s="15"/>
-      <c r="BX183" s="15"/>
-      <c r="BY183" s="15"/>
-      <c r="BZ183" s="15"/>
-      <c r="CA183" s="15"/>
-      <c r="CB183" s="15"/>
-      <c r="CC183" s="15"/>
-      <c r="CD183" s="15"/>
-      <c r="CE183" s="15"/>
-      <c r="CF183" s="15"/>
-      <c r="CG183" s="15"/>
-      <c r="CH183" s="15"/>
-      <c r="CI183" s="15"/>
-      <c r="CJ183" s="15"/>
-      <c r="CK183" s="15"/>
-      <c r="CL183" s="15"/>
-      <c r="CM183" s="15"/>
-      <c r="CN183" s="15"/>
-      <c r="CO183" s="15"/>
-      <c r="CP183" s="15"/>
-      <c r="CQ183" s="15"/>
-      <c r="CR183" s="15"/>
-      <c r="CS183" s="15"/>
-      <c r="CT183" s="15"/>
-      <c r="CU183" s="15"/>
-      <c r="CV183" s="15"/>
-      <c r="CW183" s="15"/>
-      <c r="CX183" s="15"/>
-      <c r="CY183" s="15"/>
-      <c r="CZ183" s="15"/>
-      <c r="DA183" s="15"/>
-      <c r="DB183" s="15"/>
-      <c r="DC183" s="15"/>
-      <c r="DD183" s="15"/>
-      <c r="DE183" s="15"/>
-      <c r="DF183" s="15"/>
-      <c r="DG183" s="15"/>
-      <c r="DH183" s="15"/>
-      <c r="DI183" s="15"/>
-      <c r="DJ183" s="15"/>
-      <c r="DK183" s="15"/>
-      <c r="DL183" s="15"/>
-      <c r="DM183" s="15"/>
-      <c r="DN183" s="15"/>
-      <c r="DO183" s="15"/>
-      <c r="DP183" s="15"/>
-      <c r="DQ183" s="15"/>
-      <c r="DR183" s="15"/>
-      <c r="DS183" s="15"/>
-      <c r="DT183" s="15"/>
-      <c r="DU183" s="15"/>
-      <c r="DV183" s="15"/>
-      <c r="DW183" s="15"/>
-      <c r="DX183" s="15"/>
-      <c r="DY183" s="15"/>
-      <c r="DZ183" s="15"/>
-      <c r="EA183" s="15"/>
-      <c r="EB183" s="15"/>
-      <c r="EC183" s="15"/>
-      <c r="ED183" s="15"/>
-      <c r="EE183" s="15"/>
-      <c r="EF183" s="15"/>
-      <c r="EG183" s="15"/>
-      <c r="EH183" s="15"/>
-      <c r="EI183" s="15"/>
-      <c r="EJ183" s="15"/>
-      <c r="EK183" s="15"/>
-      <c r="EL183" s="15"/>
-      <c r="EM183" s="15"/>
-      <c r="EN183" s="15"/>
+      <c r="A183" s="25"/>
+      <c r="B183" s="25"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="25"/>
+      <c r="E183" s="25"/>
     </row>
     <row r="184" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A184" s="43"/>
-      <c r="B184" s="43"/>
-      <c r="C184" s="43"/>
-      <c r="D184" s="43"/>
-      <c r="E184" s="43"/>
-      <c r="G184" s="15"/>
-      <c r="H184" s="15"/>
-      <c r="I184" s="15"/>
-      <c r="J184" s="15"/>
-      <c r="K184" s="15"/>
-      <c r="L184" s="15"/>
-      <c r="M184" s="15"/>
-      <c r="N184" s="15"/>
-      <c r="O184" s="15"/>
-      <c r="P184" s="15"/>
-      <c r="Q184" s="15"/>
-      <c r="R184" s="15"/>
-      <c r="S184" s="15"/>
-      <c r="T184" s="15"/>
-      <c r="U184" s="15"/>
-      <c r="V184" s="15"/>
-      <c r="W184" s="15"/>
-      <c r="X184" s="15"/>
-      <c r="Y184" s="15"/>
-      <c r="Z184" s="15"/>
-      <c r="AA184" s="15"/>
-      <c r="AB184" s="15"/>
-      <c r="AC184" s="15"/>
-      <c r="AD184" s="15"/>
-      <c r="AE184" s="15"/>
-      <c r="AF184" s="15"/>
-      <c r="AG184" s="15"/>
-      <c r="AH184" s="15"/>
-      <c r="AI184" s="15"/>
-      <c r="AM184" s="15"/>
-      <c r="AN184" s="15"/>
-      <c r="AO184" s="15"/>
-      <c r="AP184" s="15"/>
-      <c r="AQ184" s="15"/>
-      <c r="AR184" s="15"/>
-      <c r="AS184" s="15"/>
-      <c r="AT184" s="15"/>
-      <c r="AU184" s="15"/>
-      <c r="AV184" s="15"/>
-      <c r="AW184" s="15"/>
-      <c r="AX184" s="15"/>
-      <c r="AY184" s="15"/>
-      <c r="AZ184" s="15"/>
-      <c r="BA184" s="15"/>
-      <c r="BB184" s="15"/>
-      <c r="BC184" s="15"/>
-      <c r="BD184" s="15"/>
-      <c r="BE184" s="15"/>
-      <c r="BF184" s="15"/>
-      <c r="BG184" s="15"/>
-      <c r="BH184" s="15"/>
-      <c r="BI184" s="15"/>
-      <c r="BJ184" s="15"/>
-      <c r="BK184" s="15"/>
-      <c r="BL184" s="15"/>
-      <c r="BM184" s="15"/>
-      <c r="BN184" s="15"/>
-      <c r="BO184" s="15"/>
-      <c r="BP184" s="15"/>
-      <c r="BQ184" s="15"/>
-      <c r="BR184" s="15"/>
-      <c r="BS184" s="15"/>
-      <c r="BT184" s="15"/>
-      <c r="BU184" s="15"/>
-      <c r="BV184" s="15"/>
-      <c r="BW184" s="15"/>
-      <c r="BX184" s="15"/>
-      <c r="BY184" s="15"/>
-      <c r="BZ184" s="15"/>
-      <c r="CA184" s="15"/>
-      <c r="CB184" s="15"/>
-      <c r="CC184" s="15"/>
-      <c r="CD184" s="15"/>
-      <c r="CE184" s="15"/>
-      <c r="CF184" s="15"/>
-      <c r="CG184" s="15"/>
-      <c r="CH184" s="15"/>
-      <c r="CI184" s="15"/>
-      <c r="CJ184" s="15"/>
-      <c r="CK184" s="15"/>
-      <c r="CL184" s="15"/>
-      <c r="CM184" s="15"/>
-      <c r="CN184" s="15"/>
-      <c r="CO184" s="15"/>
-      <c r="CP184" s="15"/>
-      <c r="CQ184" s="15"/>
-      <c r="CR184" s="15"/>
-      <c r="CS184" s="15"/>
-      <c r="CT184" s="15"/>
-      <c r="CU184" s="15"/>
-      <c r="CV184" s="15"/>
-      <c r="CW184" s="15"/>
-      <c r="CX184" s="15"/>
-      <c r="CY184" s="15"/>
-      <c r="CZ184" s="15"/>
-      <c r="DA184" s="15"/>
-      <c r="DB184" s="15"/>
-      <c r="DC184" s="15"/>
-      <c r="DD184" s="15"/>
-      <c r="DE184" s="15"/>
-      <c r="DF184" s="15"/>
-      <c r="DG184" s="15"/>
-      <c r="DH184" s="15"/>
-      <c r="DI184" s="15"/>
-      <c r="DJ184" s="15"/>
-      <c r="DK184" s="15"/>
-      <c r="DL184" s="15"/>
-      <c r="DM184" s="15"/>
-      <c r="DN184" s="15"/>
-      <c r="DO184" s="15"/>
-      <c r="DP184" s="15"/>
-      <c r="DQ184" s="15"/>
-      <c r="DR184" s="15"/>
-      <c r="DS184" s="15"/>
-      <c r="DT184" s="15"/>
-      <c r="DU184" s="15"/>
-      <c r="DV184" s="15"/>
-      <c r="DW184" s="15"/>
-      <c r="DX184" s="15"/>
-      <c r="DY184" s="15"/>
-      <c r="DZ184" s="15"/>
-      <c r="EA184" s="15"/>
-      <c r="EB184" s="15"/>
-      <c r="EC184" s="15"/>
-      <c r="ED184" s="15"/>
-      <c r="EE184" s="15"/>
-      <c r="EF184" s="15"/>
-      <c r="EG184" s="15"/>
-      <c r="EH184" s="15"/>
-      <c r="EI184" s="15"/>
-      <c r="EJ184" s="15"/>
-      <c r="EK184" s="15"/>
-      <c r="EL184" s="15"/>
-      <c r="EM184" s="15"/>
-      <c r="EN184" s="15"/>
-    </row>
-    <row r="185" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A185" s="43"/>
-      <c r="B185" s="43"/>
-      <c r="C185" s="43"/>
-      <c r="D185" s="43"/>
-      <c r="E185" s="43"/>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15"/>
-      <c r="I185" s="15"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="15"/>
-      <c r="L185" s="15"/>
-      <c r="M185" s="15"/>
-      <c r="N185" s="15"/>
-      <c r="O185" s="15"/>
-      <c r="P185" s="15"/>
-      <c r="Q185" s="15"/>
-      <c r="R185" s="15"/>
-      <c r="S185" s="15"/>
-      <c r="T185" s="15"/>
-      <c r="U185" s="15"/>
-      <c r="V185" s="15"/>
-      <c r="W185" s="15"/>
-      <c r="X185" s="15"/>
-      <c r="Y185" s="15"/>
-      <c r="Z185" s="15"/>
-      <c r="AA185" s="15"/>
-      <c r="AB185" s="15"/>
-      <c r="AC185" s="15"/>
-      <c r="AD185" s="15"/>
-      <c r="AE185" s="15"/>
-      <c r="AF185" s="15"/>
-      <c r="AG185" s="15"/>
-      <c r="AH185" s="15"/>
-      <c r="AI185" s="15"/>
-      <c r="AM185" s="15"/>
-      <c r="AN185" s="15"/>
-      <c r="AO185" s="15"/>
-      <c r="AP185" s="15"/>
-      <c r="AQ185" s="15"/>
-      <c r="AR185" s="15"/>
-      <c r="AS185" s="15"/>
-      <c r="AT185" s="15"/>
-      <c r="AU185" s="15"/>
-      <c r="AV185" s="15"/>
-      <c r="AW185" s="15"/>
-      <c r="AX185" s="15"/>
-      <c r="AY185" s="15"/>
-      <c r="AZ185" s="15"/>
-      <c r="BA185" s="15"/>
-      <c r="BB185" s="15"/>
-      <c r="BC185" s="15"/>
-      <c r="BD185" s="15"/>
-      <c r="BE185" s="15"/>
-      <c r="BF185" s="15"/>
-      <c r="BG185" s="15"/>
-      <c r="BH185" s="15"/>
-      <c r="BI185" s="15"/>
-      <c r="BJ185" s="15"/>
-      <c r="BK185" s="15"/>
-      <c r="BL185" s="15"/>
-      <c r="BM185" s="15"/>
-      <c r="BN185" s="15"/>
-      <c r="BO185" s="15"/>
-      <c r="BP185" s="15"/>
-      <c r="BQ185" s="15"/>
-      <c r="BR185" s="15"/>
-      <c r="BS185" s="15"/>
-      <c r="BT185" s="15"/>
-      <c r="BU185" s="15"/>
-      <c r="BV185" s="15"/>
-      <c r="BW185" s="15"/>
-      <c r="BX185" s="15"/>
-      <c r="BY185" s="15"/>
-      <c r="BZ185" s="15"/>
-      <c r="CA185" s="15"/>
-      <c r="CB185" s="15"/>
-      <c r="CC185" s="15"/>
-      <c r="CD185" s="15"/>
-      <c r="CE185" s="15"/>
-      <c r="CF185" s="15"/>
-      <c r="CG185" s="15"/>
-      <c r="CH185" s="15"/>
-      <c r="CI185" s="15"/>
-      <c r="CJ185" s="15"/>
-      <c r="CK185" s="15"/>
-      <c r="CL185" s="15"/>
-      <c r="CM185" s="15"/>
-      <c r="CN185" s="15"/>
-      <c r="CO185" s="15"/>
-      <c r="CP185" s="15"/>
-      <c r="CQ185" s="15"/>
-      <c r="CR185" s="15"/>
-      <c r="CS185" s="15"/>
-      <c r="CT185" s="15"/>
-      <c r="CU185" s="15"/>
-      <c r="CV185" s="15"/>
-      <c r="CW185" s="15"/>
-      <c r="CX185" s="15"/>
-      <c r="CY185" s="15"/>
-      <c r="CZ185" s="15"/>
-      <c r="DA185" s="15"/>
-      <c r="DB185" s="15"/>
-      <c r="DC185" s="15"/>
-      <c r="DD185" s="15"/>
-      <c r="DE185" s="15"/>
-      <c r="DF185" s="15"/>
-      <c r="DG185" s="15"/>
-      <c r="DH185" s="15"/>
-      <c r="DI185" s="15"/>
-      <c r="DJ185" s="15"/>
-      <c r="DK185" s="15"/>
-      <c r="DL185" s="15"/>
-      <c r="DM185" s="15"/>
-      <c r="DN185" s="15"/>
-      <c r="DO185" s="15"/>
-      <c r="DP185" s="15"/>
-      <c r="DQ185" s="15"/>
-      <c r="DR185" s="15"/>
-      <c r="DS185" s="15"/>
-      <c r="DT185" s="15"/>
-      <c r="DU185" s="15"/>
-      <c r="DV185" s="15"/>
-      <c r="DW185" s="15"/>
-      <c r="DX185" s="15"/>
-      <c r="DY185" s="15"/>
-      <c r="DZ185" s="15"/>
-      <c r="EA185" s="15"/>
-      <c r="EB185" s="15"/>
-      <c r="EC185" s="15"/>
-      <c r="ED185" s="15"/>
-      <c r="EE185" s="15"/>
-      <c r="EF185" s="15"/>
-      <c r="EG185" s="15"/>
-      <c r="EH185" s="15"/>
-      <c r="EI185" s="15"/>
-      <c r="EJ185" s="15"/>
-      <c r="EK185" s="15"/>
-      <c r="EL185" s="15"/>
-      <c r="EM185" s="15"/>
-      <c r="EN185" s="15"/>
-    </row>
-    <row r="186" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A186" s="43"/>
-      <c r="B186" s="43"/>
-      <c r="C186" s="43"/>
-      <c r="D186" s="43"/>
-      <c r="E186" s="43"/>
-      <c r="G186" s="15"/>
-      <c r="H186" s="15"/>
-      <c r="I186" s="15"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="15"/>
-      <c r="L186" s="15"/>
-      <c r="M186" s="15"/>
-      <c r="N186" s="15"/>
-      <c r="O186" s="15"/>
-      <c r="P186" s="15"/>
-      <c r="Q186" s="15"/>
-      <c r="R186" s="15"/>
-      <c r="S186" s="15"/>
-      <c r="T186" s="15"/>
-      <c r="U186" s="15"/>
-      <c r="V186" s="15"/>
-      <c r="W186" s="15"/>
-      <c r="X186" s="15"/>
-      <c r="Y186" s="15"/>
-      <c r="Z186" s="15"/>
-      <c r="AA186" s="15"/>
-      <c r="AB186" s="15"/>
-      <c r="AC186" s="15"/>
-      <c r="AD186" s="15"/>
-      <c r="AE186" s="15"/>
-      <c r="AF186" s="15"/>
-      <c r="AG186" s="15"/>
-      <c r="AH186" s="15"/>
-      <c r="AI186" s="15"/>
-      <c r="AM186" s="15"/>
-      <c r="AN186" s="15"/>
-      <c r="AO186" s="15"/>
-      <c r="AP186" s="15"/>
-      <c r="AQ186" s="15"/>
-      <c r="AR186" s="15"/>
-      <c r="AS186" s="15"/>
-      <c r="AT186" s="15"/>
-      <c r="AU186" s="15"/>
-      <c r="AV186" s="15"/>
-      <c r="AW186" s="15"/>
-      <c r="AX186" s="15"/>
-      <c r="AY186" s="15"/>
-      <c r="AZ186" s="15"/>
-      <c r="BA186" s="15"/>
-      <c r="BB186" s="15"/>
-      <c r="BC186" s="15"/>
-      <c r="BD186" s="15"/>
-      <c r="BE186" s="15"/>
-      <c r="BF186" s="15"/>
-      <c r="BG186" s="15"/>
-      <c r="BH186" s="15"/>
-      <c r="BI186" s="15"/>
-      <c r="BJ186" s="15"/>
-      <c r="BK186" s="15"/>
-      <c r="BL186" s="15"/>
-      <c r="BM186" s="15"/>
-      <c r="BN186" s="15"/>
-      <c r="BO186" s="15"/>
-      <c r="BP186" s="15"/>
-      <c r="BQ186" s="15"/>
-      <c r="BR186" s="15"/>
-      <c r="BS186" s="15"/>
-      <c r="BT186" s="15"/>
-      <c r="BU186" s="15"/>
-      <c r="BV186" s="15"/>
-      <c r="BW186" s="15"/>
-      <c r="BX186" s="15"/>
-      <c r="BY186" s="15"/>
-      <c r="BZ186" s="15"/>
-      <c r="CA186" s="15"/>
-      <c r="CB186" s="15"/>
-      <c r="CC186" s="15"/>
-      <c r="CD186" s="15"/>
-      <c r="CE186" s="15"/>
-      <c r="CF186" s="15"/>
-      <c r="CG186" s="15"/>
-      <c r="CH186" s="15"/>
-      <c r="CI186" s="15"/>
-      <c r="CJ186" s="15"/>
-      <c r="CK186" s="15"/>
-      <c r="CL186" s="15"/>
-      <c r="CM186" s="15"/>
-      <c r="CN186" s="15"/>
-      <c r="CO186" s="15"/>
-      <c r="CP186" s="15"/>
-      <c r="CQ186" s="15"/>
-      <c r="CR186" s="15"/>
-      <c r="CS186" s="15"/>
-      <c r="CT186" s="15"/>
-      <c r="CU186" s="15"/>
-      <c r="CV186" s="15"/>
-      <c r="CW186" s="15"/>
-      <c r="CX186" s="15"/>
-      <c r="CY186" s="15"/>
-      <c r="CZ186" s="15"/>
-      <c r="DA186" s="15"/>
-      <c r="DB186" s="15"/>
-      <c r="DC186" s="15"/>
-      <c r="DD186" s="15"/>
-      <c r="DE186" s="15"/>
-      <c r="DF186" s="15"/>
-      <c r="DG186" s="15"/>
-      <c r="DH186" s="15"/>
-      <c r="DI186" s="15"/>
-      <c r="DJ186" s="15"/>
-      <c r="DK186" s="15"/>
-      <c r="DL186" s="15"/>
-      <c r="DM186" s="15"/>
-      <c r="DN186" s="15"/>
-      <c r="DO186" s="15"/>
-      <c r="DP186" s="15"/>
-      <c r="DQ186" s="15"/>
-      <c r="DR186" s="15"/>
-      <c r="DS186" s="15"/>
-      <c r="DT186" s="15"/>
-      <c r="DU186" s="15"/>
-      <c r="DV186" s="15"/>
-      <c r="DW186" s="15"/>
-      <c r="DX186" s="15"/>
-      <c r="DY186" s="15"/>
-      <c r="DZ186" s="15"/>
-      <c r="EA186" s="15"/>
-      <c r="EB186" s="15"/>
-      <c r="EC186" s="15"/>
-      <c r="ED186" s="15"/>
-      <c r="EE186" s="15"/>
-      <c r="EF186" s="15"/>
-      <c r="EG186" s="15"/>
-      <c r="EH186" s="15"/>
-      <c r="EI186" s="15"/>
-      <c r="EJ186" s="15"/>
-      <c r="EK186" s="15"/>
-      <c r="EL186" s="15"/>
-      <c r="EM186" s="15"/>
-      <c r="EN186" s="15"/>
-    </row>
-    <row r="187" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A187" s="43"/>
-      <c r="B187" s="43"/>
-      <c r="C187" s="43"/>
-      <c r="D187" s="43"/>
-      <c r="E187" s="43"/>
-    </row>
-    <row r="188" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A188" s="43"/>
-      <c r="B188" s="43"/>
-      <c r="C188" s="43"/>
-      <c r="D188" s="43"/>
-      <c r="E188" s="43"/>
-    </row>
-    <row r="189" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A189" s="43"/>
-      <c r="B189" s="43"/>
-      <c r="C189" s="43"/>
-      <c r="D189" s="43"/>
-      <c r="E189" s="43"/>
-    </row>
-    <row r="190" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A190" s="43"/>
-      <c r="B190" s="43"/>
-      <c r="C190" s="43"/>
-      <c r="D190" s="43"/>
-      <c r="E190" s="43"/>
-    </row>
-    <row r="191" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A191" s="43"/>
-      <c r="B191" s="43"/>
-      <c r="C191" s="43"/>
-      <c r="D191" s="43"/>
-      <c r="E191" s="43"/>
-    </row>
-    <row r="192" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A192" s="43"/>
-      <c r="B192" s="43"/>
-      <c r="C192" s="43"/>
-      <c r="D192" s="43"/>
-      <c r="E192" s="43"/>
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="25"/>
+      <c r="E184" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="93">
+    <mergeCell ref="A29:E30"/>
+    <mergeCell ref="A31:E32"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="A87:E88"/>
+    <mergeCell ref="A63:E64"/>
+    <mergeCell ref="A25:E26"/>
+    <mergeCell ref="A43:E44"/>
+    <mergeCell ref="A65:E66"/>
+    <mergeCell ref="A71:E72"/>
+    <mergeCell ref="A83:E84"/>
+    <mergeCell ref="A55:E56"/>
+    <mergeCell ref="A77:E78"/>
+    <mergeCell ref="A73:E74"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A75:E76"/>
+    <mergeCell ref="A79:E80"/>
+    <mergeCell ref="A15:E16"/>
+    <mergeCell ref="A39:E40"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="A7:E8"/>
+    <mergeCell ref="A5:E6"/>
+    <mergeCell ref="A11:E12"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="A23:E24"/>
+    <mergeCell ref="A107:E108"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A67:E68"/>
+    <mergeCell ref="A97:E98"/>
+    <mergeCell ref="A99:E100"/>
     <mergeCell ref="A89:E90"/>
-    <mergeCell ref="A53:E54"/>
-    <mergeCell ref="A55:E56"/>
+    <mergeCell ref="A95:E96"/>
+    <mergeCell ref="A33:E34"/>
+    <mergeCell ref="A129:E130"/>
+    <mergeCell ref="A131:E132"/>
+    <mergeCell ref="A133:E134"/>
+    <mergeCell ref="A111:E112"/>
+    <mergeCell ref="A113:E114"/>
+    <mergeCell ref="A35:E36"/>
+    <mergeCell ref="A85:E86"/>
+    <mergeCell ref="A37:E38"/>
     <mergeCell ref="A57:E58"/>
     <mergeCell ref="A59:E60"/>
     <mergeCell ref="A61:E62"/>
+    <mergeCell ref="A93:E94"/>
+    <mergeCell ref="A101:E102"/>
+    <mergeCell ref="A103:E104"/>
+    <mergeCell ref="A105:E106"/>
+    <mergeCell ref="A117:E118"/>
+    <mergeCell ref="A119:E120"/>
+    <mergeCell ref="A121:E122"/>
+    <mergeCell ref="A123:E124"/>
+    <mergeCell ref="A125:E126"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A159:E160"/>
+    <mergeCell ref="A137:E138"/>
+    <mergeCell ref="A139:E140"/>
+    <mergeCell ref="A141:E142"/>
+    <mergeCell ref="A143:E144"/>
+    <mergeCell ref="A145:E146"/>
+    <mergeCell ref="A147:E148"/>
+    <mergeCell ref="A149:E150"/>
+    <mergeCell ref="A151:E152"/>
+    <mergeCell ref="A153:E154"/>
+    <mergeCell ref="A155:E156"/>
+    <mergeCell ref="A157:E158"/>
     <mergeCell ref="A135:E136"/>
-    <mergeCell ref="A191:E192"/>
+    <mergeCell ref="A109:E110"/>
+    <mergeCell ref="A115:E116"/>
+    <mergeCell ref="A127:E128"/>
+    <mergeCell ref="A183:E184"/>
+    <mergeCell ref="A161:E162"/>
+    <mergeCell ref="A163:E164"/>
+    <mergeCell ref="A165:E166"/>
+    <mergeCell ref="A167:E168"/>
     <mergeCell ref="A169:E170"/>
     <mergeCell ref="A171:E172"/>
     <mergeCell ref="A173:E174"/>
@@ -28360,88 +27272,12 @@
     <mergeCell ref="A177:E178"/>
     <mergeCell ref="A179:E180"/>
     <mergeCell ref="A181:E182"/>
-    <mergeCell ref="A183:E184"/>
-    <mergeCell ref="A185:E186"/>
-    <mergeCell ref="A187:E188"/>
-    <mergeCell ref="A189:E190"/>
+    <mergeCell ref="A81:E82"/>
+    <mergeCell ref="A45:E46"/>
+    <mergeCell ref="A47:E48"/>
     <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A167:E168"/>
-    <mergeCell ref="A145:E146"/>
-    <mergeCell ref="A147:E148"/>
-    <mergeCell ref="A149:E150"/>
-    <mergeCell ref="A151:E152"/>
-    <mergeCell ref="A153:E154"/>
-    <mergeCell ref="A155:E156"/>
-    <mergeCell ref="A157:E158"/>
-    <mergeCell ref="A159:E160"/>
-    <mergeCell ref="A161:E162"/>
-    <mergeCell ref="A163:E164"/>
-    <mergeCell ref="A165:E166"/>
-    <mergeCell ref="A143:E144"/>
-    <mergeCell ref="A117:E118"/>
-    <mergeCell ref="A123:E124"/>
-    <mergeCell ref="A125:E126"/>
-    <mergeCell ref="A127:E128"/>
-    <mergeCell ref="A129:E130"/>
-    <mergeCell ref="A131:E132"/>
-    <mergeCell ref="A133:E134"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A137:E138"/>
-    <mergeCell ref="A139:E140"/>
-    <mergeCell ref="A141:E142"/>
-    <mergeCell ref="A119:E120"/>
-    <mergeCell ref="A121:E122"/>
-    <mergeCell ref="A43:E44"/>
-    <mergeCell ref="A93:E94"/>
-    <mergeCell ref="A45:E46"/>
-    <mergeCell ref="A65:E66"/>
-    <mergeCell ref="A67:E68"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A101:E102"/>
-    <mergeCell ref="A109:E110"/>
-    <mergeCell ref="A111:E112"/>
-    <mergeCell ref="A113:E114"/>
-    <mergeCell ref="A115:E116"/>
-    <mergeCell ref="A99:E100"/>
-    <mergeCell ref="A75:E76"/>
-    <mergeCell ref="A105:E106"/>
-    <mergeCell ref="A107:E108"/>
-    <mergeCell ref="A15:E16"/>
-    <mergeCell ref="A47:E48"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A35:E36"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="A19:E20"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="A7:E8"/>
-    <mergeCell ref="A5:E6"/>
-    <mergeCell ref="A11:E12"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="A23:E24"/>
-    <mergeCell ref="A29:E30"/>
-    <mergeCell ref="A31:E32"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A25:E26"/>
-    <mergeCell ref="A27:E28"/>
-    <mergeCell ref="A95:E96"/>
-    <mergeCell ref="A71:E72"/>
-    <mergeCell ref="A33:E34"/>
-    <mergeCell ref="A97:E98"/>
-    <mergeCell ref="A103:E104"/>
     <mergeCell ref="A51:E52"/>
-    <mergeCell ref="A73:E74"/>
-    <mergeCell ref="A79:E80"/>
-    <mergeCell ref="A91:E92"/>
-    <mergeCell ref="A63:E64"/>
-    <mergeCell ref="A85:E86"/>
-    <mergeCell ref="A81:E82"/>
-    <mergeCell ref="A77:E78"/>
-    <mergeCell ref="A83:E84"/>
-    <mergeCell ref="A87:E88"/>
-    <mergeCell ref="A37:E38"/>
-    <mergeCell ref="A39:E40"/>
+    <mergeCell ref="A53:E54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
